--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5235066</v>
+        <v>5235009</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>1.833</v>
+      </c>
+      <c r="N24">
+        <v>4.333</v>
+      </c>
+      <c r="O24">
+        <v>3.3</v>
+      </c>
+      <c r="P24">
+        <v>1.85</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="L24">
-        <v>3.5</v>
-      </c>
-      <c r="M24">
-        <v>3.4</v>
-      </c>
-      <c r="N24">
-        <v>2.1</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
-      <c r="P24">
-        <v>3.1</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.825</v>
-      </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5235009</v>
+        <v>5235066</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,76 +2672,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5235067</v>
+        <v>5235068</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2761,76 +2761,76 @@
         <v>45022.375</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N26">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5235068</v>
+        <v>5235067</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45022.375</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
+        <v>2.8</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
         <v>2.5</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
+      <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="S27">
-        <v>1.925</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>2.025</v>
-      </c>
-      <c r="V27">
-        <v>1.775</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>0.925</v>
       </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5244468</v>
+        <v>5244467</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,10 +3206,10 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3221,25 +3221,25 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M31">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N31">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
         <v>1.975</v>
@@ -3251,31 +3251,31 @@
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244467</v>
+        <v>5244468</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,10 +3295,10 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3310,25 +3310,25 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
         <v>1.975</v>
@@ -3340,31 +3340,31 @@
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6529386</v>
+        <v>6529280</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45073.375</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
+        <v>2.45</v>
+      </c>
+      <c r="N65">
+        <v>2.375</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.45</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1.825</v>
+      </c>
+      <c r="S65">
+        <v>1.975</v>
+      </c>
+      <c r="T65">
         <v>2.75</v>
       </c>
-      <c r="N65">
-        <v>2.1</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
-      <c r="P65">
-        <v>3.1</v>
-      </c>
-      <c r="Q65">
-        <v>-0.25</v>
-      </c>
-      <c r="R65">
-        <v>1.875</v>
-      </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6529280</v>
+        <v>6529386</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,76 +6321,76 @@
         <v>45073.375</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N66">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB66">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,73 +8457,73 @@
         <v>45150.375</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L90">
         <v>3.6</v>
       </c>
       <c r="M90">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N90">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
         <v>1.925</v>
-      </c>
-      <c r="S90">
-        <v>1.875</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.925</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,73 +8546,73 @@
         <v>45150.375</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L91">
         <v>3.6</v>
       </c>
       <c r="M91">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N91">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
         <v>1.875</v>
-      </c>
-      <c r="S91">
-        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8917,40 +8917,40 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC95">
         <v>-0.5</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858912</v>
+        <v>6858913</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L96">
         <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q96">
+        <v>-0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.925</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
+        <v>1.925</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>1.9</v>
+      </c>
+      <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>0.875</v>
+      </c>
+      <c r="AB96">
+        <v>0.4375</v>
+      </c>
+      <c r="AC96">
         <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.925</v>
-      </c>
-      <c r="T96">
-        <v>3</v>
-      </c>
-      <c r="U96">
-        <v>1.925</v>
-      </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
-      <c r="W96">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>0.875</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>0.925</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -13696,7 +13696,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6859010</v>
+        <v>6859008</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13708,73 +13708,73 @@
         <v>45220.375</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L149">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N149">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q149">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6859007</v>
+        <v>6859010</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,76 +13797,76 @@
         <v>45220.375</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K150">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M150">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N150">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,76 +13886,76 @@
         <v>45220.375</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.6</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N151">
+        <v>3.2</v>
+      </c>
+      <c r="O151">
         <v>3.4</v>
       </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
       <c r="P151">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>1.8</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>1.975</v>
+      </c>
+      <c r="V151">
         <v>1.825</v>
       </c>
-      <c r="S151">
-        <v>1.975</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.8</v>
-      </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5235006</v>
+        <v>5235005</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45009.625</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="L14">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5235005</v>
+        <v>5235006</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45009.625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5235009</v>
+        <v>5235066</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N24">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5235066</v>
+        <v>5235009</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,76 +2672,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>1.833</v>
+      </c>
+      <c r="N25">
+        <v>4.333</v>
+      </c>
+      <c r="O25">
+        <v>3.3</v>
+      </c>
+      <c r="P25">
+        <v>1.85</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
+      </c>
+      <c r="R25">
         <v>1.95</v>
       </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>3.4</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
-      <c r="O25">
-        <v>3.4</v>
-      </c>
-      <c r="P25">
-        <v>3.1</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5235068</v>
+        <v>5235067</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2761,76 +2761,76 @@
         <v>45022.375</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
+        <v>2.8</v>
+      </c>
+      <c r="Q26">
+        <v>-0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
         <v>2.5</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>2.025</v>
-      </c>
-      <c r="V26">
-        <v>1.775</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.925</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5235067</v>
+        <v>5235068</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45022.375</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5244467</v>
+        <v>5244468</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,10 +3206,10 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3221,25 +3221,25 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N31">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
         <v>1.975</v>
@@ -3251,31 +3251,31 @@
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244468</v>
+        <v>5244467</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,10 +3295,10 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3310,25 +3310,25 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P32">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R32">
         <v>1.975</v>
@@ -3340,31 +3340,31 @@
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -12183,7 +12183,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12195,40 +12195,40 @@
         <v>45199.375</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L132">
         <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
         <v>1.975</v>
@@ -12237,7 +12237,7 @@
         <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
         <v>1.825</v>
@@ -12246,10 +12246,10 @@
         <v>1.975</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X132">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12261,10 +12261,10 @@
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,40 +12284,40 @@
         <v>45199.375</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L133">
         <v>3.5</v>
       </c>
       <c r="M133">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N133">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12326,7 +12326,7 @@
         <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12335,10 +12335,10 @@
         <v>1.975</v>
       </c>
       <c r="W133">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12350,10 +12350,10 @@
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -121,16 +121,16 @@
     <t>Hellerup IK</t>
   </si>
   <si>
+    <t>Thisted FC</t>
+  </si>
+  <si>
     <t>FC Roskilde</t>
   </si>
   <si>
-    <t>Thisted FC</t>
+    <t>Brabrand</t>
   </si>
   <si>
     <t>Frem</t>
-  </si>
-  <si>
-    <t>Brabrand</t>
   </si>
   <si>
     <t>AB Copenhagen</t>
@@ -806,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5235059</v>
+        <v>5235060</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,52 +1251,52 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
+        <v>3.1</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+      <c r="M9">
+        <v>2.1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
         <v>3.6</v>
       </c>
-      <c r="L9">
-        <v>3.6</v>
-      </c>
-      <c r="M9">
-        <v>1.833</v>
-      </c>
-      <c r="N9">
-        <v>2.875</v>
-      </c>
-      <c r="O9">
-        <v>3.3</v>
-      </c>
       <c r="P9">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1305,19 +1305,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5235060</v>
+        <v>5235059</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,53 +1340,53 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
+        <v>1.85</v>
+      </c>
+      <c r="S10">
+        <v>1.95</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.975</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>1.8</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1394,19 +1394,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5244465</v>
+        <v>5235003</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,73 +1429,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5235003</v>
+        <v>5244465</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N12">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2052,7 +2052,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5237820</v>
+        <v>5235007</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,13 +2316,13 @@
         <v>45017.375</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2331,25 +2331,25 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.925</v>
@@ -2361,13 +2361,13 @@
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,7 +2385,7 @@
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5235007</v>
+        <v>5237820</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,13 +2405,13 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2420,25 +2420,25 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
         <v>1.925</v>
@@ -2450,13 +2450,13 @@
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2474,7 +2474,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5235067</v>
+        <v>5235068</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2761,76 +2761,76 @@
         <v>45022.375</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N26">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5235068</v>
+        <v>5235067</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45022.375</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
+        <v>2.8</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
         <v>2.5</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
+      <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="S27">
-        <v>1.925</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>2.025</v>
-      </c>
-      <c r="V27">
-        <v>1.775</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>0.925</v>
       </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5235010</v>
+        <v>5244468</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,61 +3117,61 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>46</v>
       </c>
       <c r="K30">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Y30">
         <v>-1</v>
@@ -3180,13 +3180,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5244468</v>
+        <v>5235010</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,61 +3206,61 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>46</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P31">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3269,13 +3269,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3384,7 +3384,7 @@
         <v>45031.375</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3473,7 +3473,7 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3740,7 +3740,7 @@
         <v>45032.4375</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3995,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6529375</v>
+        <v>6532911</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4007,58 +4007,58 @@
         <v>45038.375</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>1.727</v>
+      </c>
+      <c r="O40">
         <v>3.6</v>
       </c>
-      <c r="M40">
-        <v>5</v>
-      </c>
-      <c r="N40">
-        <v>1.4</v>
-      </c>
-      <c r="O40">
+      <c r="P40">
         <v>4</v>
       </c>
-      <c r="P40">
-        <v>7.5</v>
-      </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4067,16 +4067,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.4875</v>
+      </c>
+      <c r="AA40">
         <v>-0.5</v>
       </c>
-      <c r="AA40">
-        <v>0.425</v>
-      </c>
       <c r="AB40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6532911</v>
+        <v>6529375</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,58 +4096,58 @@
         <v>45038.375</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>45</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>1.4</v>
+      </c>
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="N41">
-        <v>1.727</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
       <c r="P41">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4156,16 +4156,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
+        <v>0.425</v>
+      </c>
+      <c r="AB41">
+        <v>0.425</v>
+      </c>
+      <c r="AC41">
         <v>-0.5</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
-      <c r="AC41">
-        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -4363,10 +4363,10 @@
         <v>45045.375</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4452,7 +4452,7 @@
         <v>45045.375</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4897,10 +4897,10 @@
         <v>45052.375</v>
       </c>
       <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
         <v>38</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>29</v>
@@ -5167,7 +5167,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5253,10 +5253,10 @@
         <v>45059.375</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5612,7 +5612,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5876,7 +5876,7 @@
         <v>45067.375</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6057,7 +6057,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6533530</v>
+        <v>6529280</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,37 +6146,37 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N64">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
         <v>1.825</v>
@@ -6188,31 +6188,31 @@
         <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
+        <v>0.425</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6529280</v>
+        <v>6533530</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,37 +6235,37 @@
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
+        <v>2.5</v>
+      </c>
+      <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
         <v>2.4</v>
       </c>
-      <c r="L65">
-        <v>3.6</v>
-      </c>
-      <c r="M65">
-        <v>2.45</v>
-      </c>
       <c r="N65">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
         <v>1.825</v>
@@ -6277,31 +6277,31 @@
         <v>2.75</v>
       </c>
       <c r="U65">
+        <v>1.95</v>
+      </c>
+      <c r="V65">
         <v>1.85</v>
       </c>
-      <c r="V65">
-        <v>1.95</v>
-      </c>
       <c r="W65">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6499,10 +6499,10 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6858,7 +6858,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6947,7 +6947,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7033,7 +7033,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -7122,7 +7122,7 @@
         <v>45087.5</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
@@ -7389,10 +7389,10 @@
         <v>45094.375</v>
       </c>
       <c r="F78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" t="s">
         <v>37</v>
-      </c>
-      <c r="G78" t="s">
-        <v>38</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -8012,7 +8012,7 @@
         <v>45143.375</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>43</v>
@@ -8101,10 +8101,10 @@
         <v>45143.375</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>45150.375</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>40</v>
@@ -8549,7 +8549,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8638,7 +8638,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8902,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>44</v>
+      </c>
+      <c r="K97">
+        <v>4.75</v>
+      </c>
+      <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
+        <v>1.6</v>
+      </c>
+      <c r="N97">
         <v>5</v>
       </c>
-      <c r="I97">
-        <v>4</v>
-      </c>
-      <c r="J97" t="s">
-        <v>45</v>
-      </c>
-      <c r="K97">
-        <v>1.85</v>
-      </c>
-      <c r="L97">
-        <v>3.5</v>
-      </c>
-      <c r="M97">
-        <v>3.75</v>
-      </c>
-      <c r="N97">
-        <v>1.85</v>
-      </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.75</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>0.571</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>-0</v>
+      </c>
+      <c r="AB97">
+        <v>0.375</v>
+      </c>
+      <c r="AC97">
         <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
-      <c r="W97">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>0.875</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.925</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>45157.375</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -9261,7 +9261,7 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9350,7 +9350,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,76 +9614,76 @@
         <v>45164.375</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
+        <v>2.1</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2.9</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>3.3</v>
-      </c>
-      <c r="Q103">
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>2.5</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>1.875</v>
-      </c>
-      <c r="S103">
-        <v>1.925</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
+      <c r="AA103">
+        <v>0.45</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.875</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45164.375</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.875</v>
+      </c>
+      <c r="S104">
+        <v>1.925</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
         <v>1.9</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.9</v>
       </c>
-      <c r="T104">
-        <v>2.75</v>
-      </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -9884,7 +9884,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6858924</v>
+        <v>6858923</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,22 +9970,22 @@
         <v>45171.375</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L107">
         <v>3.5</v>
@@ -9994,52 +9994,52 @@
         <v>2.9</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
         <v>3.4</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y107">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6858923</v>
+        <v>6858924</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,22 +10059,22 @@
         <v>45171.375</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
         <v>3.5</v>
@@ -10083,52 +10083,52 @@
         <v>2.9</v>
       </c>
       <c r="N108">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
         <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
         <v>0</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6858925</v>
+        <v>6858927</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,13 +10148,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -10166,19 +10166,19 @@
         <v>4.333</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="N109">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="Q109">
         <v>0.75</v>
@@ -10190,13 +10190,13 @@
         <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10205,7 +10205,7 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z109">
         <v>-1</v>
@@ -10214,10 +10214,10 @@
         <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6858927</v>
+        <v>6858926</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,40 +10237,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="N110">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
         <v>2</v>
@@ -10282,31 +10282,31 @@
         <v>3</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y110">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10314,7 +10314,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10326,40 +10326,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K111">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N111">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
         <v>2</v>
@@ -10368,34 +10368,34 @@
         <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858928</v>
+        <v>6858929</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,10 +10415,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10430,25 +10430,25 @@
         <v>45</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L112">
         <v>3.5</v>
       </c>
       <c r="M112">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O112">
         <v>3.4</v>
       </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
         <v>1.85</v>
@@ -10457,16 +10457,16 @@
         <v>1.95</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
+        <v>1.875</v>
+      </c>
+      <c r="V112">
         <v>1.925</v>
       </c>
-      <c r="V112">
-        <v>1.875</v>
-      </c>
       <c r="W112">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,7 +10484,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,31 +10507,31 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
         <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
         <v>2.55</v>
@@ -10540,40 +10540,40 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858930</v>
+        <v>6858928</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,76 +10593,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N114">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X114">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11216,10 +11216,10 @@
         <v>45185.375</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
         <v>34</v>
@@ -11750,7 +11750,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11842,7 +11842,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12183,7 +12183,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12195,40 +12195,40 @@
         <v>45199.375</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L132">
         <v>3.5</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N132">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
         <v>1.975</v>
@@ -12237,7 +12237,7 @@
         <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
         <v>1.825</v>
@@ -12246,10 +12246,10 @@
         <v>1.975</v>
       </c>
       <c r="W132">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12261,10 +12261,10 @@
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,40 +12284,40 @@
         <v>45199.375</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L133">
         <v>3.5</v>
       </c>
       <c r="M133">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12326,7 +12326,7 @@
         <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12335,10 +12335,10 @@
         <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12350,10 +12350,10 @@
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12643,7 +12643,7 @@
         <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12818,7 +12818,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>43</v>
@@ -12910,7 +12910,7 @@
         <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13352,10 +13352,10 @@
         <v>45213.375</v>
       </c>
       <c r="F145" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" t="s">
         <v>35</v>
-      </c>
-      <c r="G145" t="s">
-        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13533,7 +13533,7 @@
         <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13607,7 +13607,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6859011</v>
+        <v>6859008</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13619,10 +13619,10 @@
         <v>45220.375</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13634,31 +13634,31 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
         <v>2.5</v>
@@ -13673,16 +13673,16 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>0.8</v>
@@ -13696,7 +13696,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13708,76 +13708,76 @@
         <v>45220.375</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K149">
         <v>3.6</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N149">
+        <v>3.2</v>
+      </c>
+      <c r="O149">
         <v>3.4</v>
       </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
       <c r="P149">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q149">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
+        <v>1.975</v>
+      </c>
+      <c r="V149">
         <v>1.825</v>
       </c>
-      <c r="S149">
-        <v>1.975</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
-      <c r="U149">
-        <v>1.8</v>
-      </c>
-      <c r="V149">
-        <v>2</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6859007</v>
+        <v>6859011</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,76 +13886,76 @@
         <v>45220.375</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N151">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
+        <v>1.75</v>
+      </c>
+      <c r="S151">
+        <v>1.95</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.8</v>
+      </c>
+      <c r="V151">
         <v>2</v>
       </c>
-      <c r="S151">
-        <v>1.8</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.975</v>
-      </c>
-      <c r="V151">
-        <v>1.825</v>
-      </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y151">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
+        <v>0.475</v>
+      </c>
+      <c r="AB151">
         <v>0.8</v>
       </c>
-      <c r="AB151">
-        <v>0.4875</v>
-      </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13975,7 +13975,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
         <v>34</v>
@@ -14420,10 +14420,10 @@
         <v>45227.375</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -14497,7 +14497,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14509,49 +14509,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P158">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U158">
         <v>1.9</v>
@@ -14566,19 +14566,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14586,7 +14586,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14598,49 +14598,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
       <c r="K159">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.9</v>
@@ -14655,19 +14655,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14764,7 +14764,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6859035</v>
+        <v>6859037</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14776,58 +14776,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
         <v>2</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>45</v>
       </c>
       <c r="K161">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N161">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P161">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
-        <v>2.3</v>
+        <v>0.363</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14836,13 +14836,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB161">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14942,7 +14942,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6859037</v>
+        <v>6859035</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14954,58 +14954,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>45</v>
       </c>
       <c r="K163">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O163">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>2.3</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15014,13 +15014,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15046,7 +15046,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15310,7 +15310,7 @@
         <v>45240.625</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15402,7 +15402,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15832,7 +15832,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6859067</v>
+        <v>6859059</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15844,73 +15844,73 @@
         <v>45248.375</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K173">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M173">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N173">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z173">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB173">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15921,7 +15921,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6859059</v>
+        <v>6859067</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15933,73 +15933,73 @@
         <v>45248.375</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N174">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q174">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA174">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16022,7 +16022,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
@@ -16200,10 +16200,10 @@
         <v>45248.45833333334</v>
       </c>
       <c r="F177" t="s">
+        <v>35</v>
+      </c>
+      <c r="G177" t="s">
         <v>36</v>
-      </c>
-      <c r="G177" t="s">
-        <v>35</v>
       </c>
       <c r="H177">
         <v>1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5235005</v>
+        <v>5235006</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45009.625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="P14">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5235006</v>
+        <v>5235005</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45009.625</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="L15">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5235066</v>
+        <v>5235009</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>1.833</v>
+      </c>
+      <c r="N24">
+        <v>4.333</v>
+      </c>
+      <c r="O24">
+        <v>3.3</v>
+      </c>
+      <c r="P24">
+        <v>1.85</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="L24">
-        <v>3.5</v>
-      </c>
-      <c r="M24">
-        <v>3.4</v>
-      </c>
-      <c r="N24">
-        <v>2.1</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
-      <c r="P24">
-        <v>3.1</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.825</v>
-      </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5235009</v>
+        <v>5235066</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,76 +2672,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5235070</v>
+        <v>5244468</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,76 +2939,76 @@
         <v>45026.375</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5237818</v>
+        <v>5244467</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,40 +3028,40 @@
         <v>45026.375</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>46</v>
       </c>
       <c r="K29">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N29">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P29">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
         <v>1.975</v>
@@ -3070,34 +3070,34 @@
         <v>1.825</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2.15</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.675</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.675</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5244468</v>
+        <v>5235070</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X30">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244467</v>
+        <v>5237818</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,40 +3295,40 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
       </c>
       <c r="K32">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="L32">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N32">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
         <v>1.975</v>
@@ -3337,34 +3337,34 @@
         <v>1.825</v>
       </c>
       <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>2.15</v>
+      </c>
+      <c r="V32">
+        <v>1.675</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
         <v>2.75</v>
       </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>3.75</v>
-      </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6529380</v>
+        <v>6529379</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,55 +4986,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
         <v>3.6</v>
       </c>
       <c r="P51">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5043,19 +5043,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6529379</v>
+        <v>6529380</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,55 +5075,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5132,19 +5132,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6529280</v>
+        <v>6533530</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,40 +6143,40 @@
         <v>45073.375</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
+        <v>2.5</v>
+      </c>
+      <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
         <v>2.4</v>
       </c>
-      <c r="L64">
-        <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>2.45</v>
-      </c>
       <c r="N64">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
         <v>1.825</v>
@@ -6188,31 +6188,31 @@
         <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.95</v>
+      </c>
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="V64">
-        <v>1.95</v>
-      </c>
       <c r="W64">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6533530</v>
+        <v>6529280</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,40 +6232,40 @@
         <v>45073.375</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R65">
         <v>1.825</v>
@@ -6277,31 +6277,31 @@
         <v>2.75</v>
       </c>
       <c r="U65">
+        <v>1.85</v>
+      </c>
+      <c r="V65">
         <v>1.95</v>
       </c>
-      <c r="V65">
-        <v>1.85</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X65">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
+        <v>0.425</v>
+      </c>
+      <c r="AC65">
         <v>-0.5</v>
-      </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
-      <c r="AC65">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,73 +6499,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
+        <v>1.444</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>6.25</v>
+      </c>
+      <c r="N68">
+        <v>1.5</v>
+      </c>
+      <c r="O68">
+        <v>4.2</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+      <c r="R68">
         <v>1.85</v>
       </c>
-      <c r="L68">
-        <v>3.5</v>
-      </c>
-      <c r="M68">
-        <v>3.75</v>
-      </c>
-      <c r="N68">
-        <v>1.85</v>
-      </c>
-      <c r="O68">
-        <v>3.4</v>
-      </c>
-      <c r="P68">
-        <v>3.8</v>
-      </c>
-      <c r="Q68">
-        <v>-0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
+        <v>1.8</v>
+      </c>
+      <c r="V68">
         <v>2</v>
       </c>
-      <c r="V68">
-        <v>1.8</v>
-      </c>
       <c r="W68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6576,7 +6576,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6588,73 +6588,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.8</v>
       </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6529284</v>
+        <v>6532919</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,49 +7389,49 @@
         <v>45094.375</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L78">
         <v>3.8</v>
       </c>
       <c r="M78">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P78">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
         <v>1.95</v>
@@ -7440,25 +7440,25 @@
         <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X78">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6532919</v>
+        <v>6529284</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,49 +7656,49 @@
         <v>45094.375</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L81">
         <v>3.8</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N81">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O81">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U81">
         <v>1.95</v>
@@ -7707,25 +7707,25 @@
         <v>1.85</v>
       </c>
       <c r="W81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45143.375</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.875</v>
+      </c>
+      <c r="V85">
+        <v>1.925</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
         <v>1.8</v>
       </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
-      <c r="W85">
-        <v>0.5</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8089,7 +8089,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8101,76 +8101,76 @@
         <v>45143.375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K86">
+        <v>1.571</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.75</v>
+      </c>
+      <c r="N86">
+        <v>1.5</v>
+      </c>
+      <c r="O86">
+        <v>3.8</v>
+      </c>
+      <c r="P86">
+        <v>5.25</v>
+      </c>
+      <c r="Q86">
+        <v>-1</v>
+      </c>
+      <c r="R86">
+        <v>1.9</v>
+      </c>
+      <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.8</v>
+      </c>
+      <c r="V86">
         <v>2</v>
       </c>
-      <c r="J86" t="s">
-        <v>44</v>
-      </c>
-      <c r="K86">
-        <v>2.3</v>
-      </c>
-      <c r="L86">
-        <v>3.3</v>
-      </c>
-      <c r="M86">
-        <v>2.625</v>
-      </c>
-      <c r="N86">
-        <v>2.15</v>
-      </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
-      <c r="P86">
-        <v>2.8</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.95</v>
-      </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.5</v>
-      </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
-      <c r="V86">
-        <v>1.925</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,73 +8457,73 @@
         <v>45150.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L90">
         <v>3.6</v>
       </c>
       <c r="M90">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N90">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
         <v>1.875</v>
-      </c>
-      <c r="S90">
-        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,73 +8546,73 @@
         <v>45150.375</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L91">
         <v>3.6</v>
       </c>
       <c r="M91">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N91">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>1.925</v>
-      </c>
-      <c r="S91">
-        <v>1.875</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.925</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858912</v>
+        <v>6858913</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8902,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L95">
         <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q95">
+        <v>-0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.925</v>
+      </c>
+      <c r="S95">
+        <v>1.875</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>1.875</v>
+      </c>
+      <c r="V95">
+        <v>1.925</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>1.9</v>
+      </c>
+      <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
+        <v>0.875</v>
+      </c>
+      <c r="AB95">
+        <v>0.4375</v>
+      </c>
+      <c r="AC95">
         <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.875</v>
-      </c>
-      <c r="S95">
-        <v>1.925</v>
-      </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.925</v>
-      </c>
-      <c r="V95">
-        <v>1.875</v>
-      </c>
-      <c r="W95">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>0.875</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.925</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858913</v>
+        <v>6858912</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L96">
         <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.875</v>
+      </c>
+      <c r="S96">
         <v>1.925</v>
       </c>
-      <c r="S96">
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>1.925</v>
+      </c>
+      <c r="V96">
         <v>1.875</v>
       </c>
-      <c r="T96">
-        <v>2.75</v>
-      </c>
-      <c r="U96">
-        <v>1.875</v>
-      </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6858923</v>
+        <v>6858924</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,22 +9970,22 @@
         <v>45171.375</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
         <v>3.5</v>
@@ -9994,52 +9994,52 @@
         <v>2.9</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O107">
         <v>3.4</v>
       </c>
       <c r="P107">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6858924</v>
+        <v>6858923</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,22 +10059,22 @@
         <v>45171.375</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
         <v>3.5</v>
@@ -10083,52 +10083,52 @@
         <v>2.9</v>
       </c>
       <c r="N108">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O108">
         <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q108">
         <v>0</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,34 +10415,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L112">
         <v>3.5</v>
       </c>
       <c r="M112">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N112">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
         <v>2.55</v>
@@ -10451,40 +10451,40 @@
         <v>0</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858930</v>
+        <v>6858928</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,76 +10504,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
         <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858928</v>
+        <v>6858929</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,10 +10593,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10608,25 +10608,25 @@
         <v>45</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N114">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
         <v>3.4</v>
       </c>
       <c r="P114">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
         <v>1.85</v>
@@ -10635,16 +10635,16 @@
         <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
+        <v>1.875</v>
+      </c>
+      <c r="V114">
         <v>1.925</v>
       </c>
-      <c r="V114">
-        <v>1.875</v>
-      </c>
       <c r="W114">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10662,7 +10662,7 @@
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,13 +11572,13 @@
         <v>45192.375</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11587,43 +11587,43 @@
         <v>45</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
+        <v>1.85</v>
+      </c>
+      <c r="V125">
         <v>1.95</v>
       </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,16 +11632,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,13 +11661,13 @@
         <v>45192.375</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11676,43 +11676,43 @@
         <v>45</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M126">
+        <v>5.5</v>
+      </c>
+      <c r="N126">
+        <v>1.444</v>
+      </c>
+      <c r="O126">
+        <v>4.2</v>
+      </c>
+      <c r="P126">
+        <v>6</v>
+      </c>
+      <c r="Q126">
+        <v>-1</v>
+      </c>
+      <c r="R126">
+        <v>1.725</v>
+      </c>
+      <c r="S126">
+        <v>2.075</v>
+      </c>
+      <c r="T126">
         <v>3</v>
       </c>
-      <c r="N126">
-        <v>2.1</v>
-      </c>
-      <c r="O126">
-        <v>3.5</v>
-      </c>
-      <c r="P126">
-        <v>3</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="S126">
-        <v>1.95</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.85</v>
-      </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
       <c r="W126">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,16 +11721,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12539,7 +12539,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6858953</v>
+        <v>6858955</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12551,76 +12551,76 @@
         <v>45206.375</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>46</v>
+      </c>
+      <c r="K136">
+        <v>1.6</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>4.75</v>
+      </c>
+      <c r="N136">
+        <v>1.444</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>6.5</v>
+      </c>
+      <c r="Q136">
+        <v>-1.25</v>
+      </c>
+      <c r="R136">
+        <v>1.975</v>
+      </c>
+      <c r="S136">
+        <v>1.825</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
         <v>2</v>
       </c>
-      <c r="J136" t="s">
-        <v>44</v>
-      </c>
-      <c r="K136">
-        <v>2.875</v>
-      </c>
-      <c r="L136">
-        <v>3.6</v>
-      </c>
-      <c r="M136">
-        <v>2.15</v>
-      </c>
-      <c r="N136">
-        <v>3.4</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
-      <c r="P136">
-        <v>1.909</v>
-      </c>
-      <c r="Q136">
-        <v>0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.85</v>
-      </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.95</v>
-      </c>
-      <c r="V136">
-        <v>1.85</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12717,7 +12717,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6858955</v>
+        <v>6858953</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,76 +12729,76 @@
         <v>45206.375</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K138">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N138">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P138">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,73 +13263,73 @@
         <v>45213.375</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N144">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O144">
+        <v>3.8</v>
+      </c>
+      <c r="P144">
+        <v>4.75</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.8</v>
+      </c>
+      <c r="V144">
+        <v>2</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
         <v>3.75</v>
       </c>
-      <c r="P144">
-        <v>1.909</v>
-      </c>
-      <c r="Q144">
-        <v>0.5</v>
-      </c>
-      <c r="R144">
-        <v>1.825</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
-      </c>
-      <c r="T144">
-        <v>3.25</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.875</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>0.909</v>
-      </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,55 +13352,55 @@
         <v>45213.375</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N145">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13409,16 +13409,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13607,7 +13607,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6859008</v>
+        <v>6859011</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13619,10 +13619,10 @@
         <v>45220.375</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13634,31 +13634,31 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N148">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.5</v>
@@ -13673,16 +13673,16 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB148">
         <v>0.8</v>
@@ -13696,7 +13696,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6859007</v>
+        <v>6859010</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13708,76 +13708,76 @@
         <v>45220.375</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K149">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M149">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N149">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6859010</v>
+        <v>6859008</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,73 +13797,73 @@
         <v>45220.375</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L150">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N150">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q150">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6859011</v>
+        <v>6859007</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,76 +13886,76 @@
         <v>45220.375</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K151">
+        <v>3.6</v>
+      </c>
+      <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
+        <v>1.909</v>
+      </c>
+      <c r="N151">
+        <v>3.2</v>
+      </c>
+      <c r="O151">
+        <v>3.4</v>
+      </c>
+      <c r="P151">
+        <v>2.05</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
         <v>2</v>
       </c>
-      <c r="L151">
-        <v>3.5</v>
-      </c>
-      <c r="M151">
-        <v>3.3</v>
-      </c>
-      <c r="N151">
-        <v>2</v>
-      </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>3.3</v>
-      </c>
-      <c r="Q151">
-        <v>-0.25</v>
-      </c>
-      <c r="R151">
-        <v>1.75</v>
-      </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>0.8</v>
+      </c>
+      <c r="AB151">
+        <v>0.4875</v>
+      </c>
+      <c r="AC151">
         <v>-0.5</v>
-      </c>
-      <c r="AA151">
-        <v>0.475</v>
-      </c>
-      <c r="AB151">
-        <v>0.8</v>
-      </c>
-      <c r="AC151">
-        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14764,7 +14764,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6859037</v>
+        <v>6859035</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14776,58 +14776,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>45</v>
       </c>
       <c r="K161">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N161">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q161">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>0.363</v>
+        <v>2.3</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14836,13 +14836,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA161">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14942,7 +14942,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6859035</v>
+        <v>6859037</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14954,58 +14954,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
         <v>2</v>
-      </c>
-      <c r="I163">
-        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>45</v>
       </c>
       <c r="K163">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N163">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P163">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S163">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>2.3</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15014,13 +15014,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB163">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15832,7 +15832,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6859059</v>
+        <v>6859067</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15844,73 +15844,73 @@
         <v>45248.375</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N173">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P173">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q173">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15921,7 +15921,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6859067</v>
+        <v>6859059</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15933,73 +15933,73 @@
         <v>45248.375</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K174">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M174">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N174">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z174">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB174">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC174">
         <v>-1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -127,10 +127,10 @@
     <t>FC Roskilde</t>
   </si>
   <si>
-    <t>Brabrand</t>
+    <t>Frem</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Brabrand</t>
   </si>
   <si>
     <t>AB Copenhagen</t>
@@ -806,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5235003</v>
+        <v>5244465</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,73 +1429,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N11">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5244465</v>
+        <v>5235003</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q12">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2230,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5235007</v>
+        <v>5237820</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,13 +2316,13 @@
         <v>45017.375</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2331,25 +2331,25 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
         <v>1.925</v>
@@ -2361,13 +2361,13 @@
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,7 +2385,7 @@
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5237820</v>
+        <v>5235007</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,13 +2405,13 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2420,25 +2420,25 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>1.925</v>
@@ -2450,13 +2450,13 @@
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2474,7 +2474,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5235009</v>
+        <v>5235066</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N24">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5235066</v>
+        <v>5235009</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,76 +2672,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>1.833</v>
+      </c>
+      <c r="N25">
+        <v>4.333</v>
+      </c>
+      <c r="O25">
+        <v>3.3</v>
+      </c>
+      <c r="P25">
+        <v>1.85</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
+      </c>
+      <c r="R25">
         <v>1.95</v>
       </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>3.4</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
-      <c r="O25">
-        <v>3.4</v>
-      </c>
-      <c r="P25">
-        <v>3.1</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5235068</v>
+        <v>5235067</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2761,76 +2761,76 @@
         <v>45022.375</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
+        <v>2.8</v>
+      </c>
+      <c r="Q26">
+        <v>-0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
         <v>2.5</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>2.025</v>
-      </c>
-      <c r="V26">
-        <v>1.775</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.925</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5235067</v>
+        <v>5235068</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45022.375</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2939,10 +2939,10 @@
         <v>45026.375</v>
       </c>
       <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
         <v>38</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5235070</v>
+        <v>5237818</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>2.8</v>
+      </c>
+      <c r="L30">
+        <v>3.75</v>
+      </c>
+      <c r="M30">
+        <v>2.1</v>
+      </c>
+      <c r="N30">
+        <v>2.9</v>
+      </c>
+      <c r="O30">
+        <v>3.75</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>0.25</v>
+      </c>
+      <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
+        <v>1.825</v>
+      </c>
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30">
-        <v>1.533</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-      <c r="N30">
-        <v>1.65</v>
-      </c>
-      <c r="O30">
-        <v>3.8</v>
-      </c>
-      <c r="P30">
-        <v>4.333</v>
-      </c>
-      <c r="Q30">
-        <v>-0.75</v>
-      </c>
-      <c r="R30">
-        <v>1.8</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
+      <c r="U30">
+        <v>2.15</v>
+      </c>
+      <c r="V30">
+        <v>1.675</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
         <v>2.75</v>
       </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
-      <c r="W30">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5235010</v>
+        <v>5235070</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="O31">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X31">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5237818</v>
+        <v>5235010</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,10 +3295,10 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3310,61 +3310,61 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="V32">
-        <v>1.675</v>
+        <v>2.05</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.675</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>45031.375</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3921,7 +3921,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3995,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6532911</v>
+        <v>6529375</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4007,58 +4007,58 @@
         <v>45038.375</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
         <v>4</v>
       </c>
-      <c r="N40">
-        <v>1.727</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
       <c r="P40">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4067,16 +4067,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
+        <v>0.425</v>
+      </c>
+      <c r="AB40">
+        <v>0.425</v>
+      </c>
+      <c r="AC40">
         <v>-0.5</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
-      <c r="AC40">
-        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6529375</v>
+        <v>6532911</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,58 +4096,58 @@
         <v>45038.375</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>45</v>
       </c>
       <c r="K41">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L41">
+        <v>3.5</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>1.727</v>
+      </c>
+      <c r="O41">
         <v>3.6</v>
       </c>
-      <c r="M41">
-        <v>5</v>
-      </c>
-      <c r="N41">
-        <v>1.4</v>
-      </c>
-      <c r="O41">
+      <c r="P41">
         <v>4</v>
       </c>
-      <c r="P41">
-        <v>7.5</v>
-      </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4156,16 +4156,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.4875</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.425</v>
-      </c>
       <c r="AB41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6529271</v>
+        <v>6529272</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,73 +4366,73 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6529272</v>
+        <v>6529271</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,73 +4455,73 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45">
+        <v>2.6</v>
+      </c>
+      <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.3</v>
+      </c>
+      <c r="N45">
+        <v>2.7</v>
+      </c>
+      <c r="O45">
+        <v>3.5</v>
+      </c>
+      <c r="P45">
+        <v>2.3</v>
+      </c>
+      <c r="Q45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>45</v>
-      </c>
-      <c r="K45">
-        <v>2.15</v>
-      </c>
-      <c r="L45">
-        <v>3.4</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="N45">
-        <v>2.2</v>
-      </c>
-      <c r="O45">
-        <v>3.3</v>
-      </c>
-      <c r="P45">
-        <v>3</v>
-      </c>
-      <c r="Q45">
-        <v>-0.25</v>
-      </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4897,10 +4897,10 @@
         <v>45052.375</v>
       </c>
       <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
         <v>37</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6529379</v>
+        <v>6529380</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,55 +4986,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O51">
         <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5043,19 +5043,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6529380</v>
+        <v>6529379</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,55 +5075,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5132,19 +5132,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5256,7 +5256,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6143,7 +6143,7 @@
         <v>45073.375</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
         <v>36</v>
@@ -6232,7 +6232,7 @@
         <v>45073.375</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,73 +6499,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
         <v>1.8</v>
       </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X68">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6576,7 +6576,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6588,73 +6588,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
+        <v>1.444</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>6.25</v>
+      </c>
+      <c r="N69">
+        <v>1.5</v>
+      </c>
+      <c r="O69">
+        <v>4.2</v>
+      </c>
+      <c r="P69">
+        <v>5</v>
+      </c>
+      <c r="Q69">
+        <v>-1</v>
+      </c>
+      <c r="R69">
         <v>1.85</v>
       </c>
-      <c r="L69">
-        <v>3.5</v>
-      </c>
-      <c r="M69">
-        <v>3.75</v>
-      </c>
-      <c r="N69">
-        <v>1.85</v>
-      </c>
-      <c r="O69">
-        <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>3.8</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.825</v>
-      </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U69">
+        <v>1.8</v>
+      </c>
+      <c r="V69">
         <v>2</v>
       </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
       <c r="W69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6947,7 +6947,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7033,7 +7033,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6532919</v>
+        <v>6529284</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,49 +7389,49 @@
         <v>45094.375</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L78">
         <v>3.8</v>
       </c>
       <c r="M78">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N78">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
         <v>1.95</v>
@@ -7440,25 +7440,25 @@
         <v>1.85</v>
       </c>
       <c r="W78">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6533424</v>
+        <v>6532919</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,76 +7567,76 @@
         <v>45094.375</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
+        <v>3.8</v>
+      </c>
+      <c r="M80">
         <v>3.75</v>
       </c>
-      <c r="M80">
-        <v>2.3</v>
-      </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6529284</v>
+        <v>6533424</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,76 +7656,76 @@
         <v>45094.375</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L81">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45143.375</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>45</v>
+      </c>
+      <c r="K85">
+        <v>1.571</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>3.8</v>
+      </c>
+      <c r="P85">
+        <v>5.25</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
         <v>2</v>
       </c>
-      <c r="J85" t="s">
-        <v>44</v>
-      </c>
-      <c r="K85">
-        <v>2.3</v>
-      </c>
-      <c r="L85">
-        <v>3.3</v>
-      </c>
-      <c r="M85">
-        <v>2.625</v>
-      </c>
-      <c r="N85">
-        <v>2.15</v>
-      </c>
-      <c r="O85">
-        <v>3.3</v>
-      </c>
-      <c r="P85">
-        <v>2.8</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.95</v>
-      </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8089,7 +8089,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8101,76 +8101,76 @@
         <v>45143.375</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N86">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
+        <v>1.875</v>
+      </c>
+      <c r="V86">
+        <v>1.925</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
         <v>1.8</v>
       </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
-      <c r="W86">
-        <v>0.5</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858913</v>
+        <v>6858912</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8902,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
         <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
         <v>1.925</v>
       </c>
-      <c r="S95">
+      <c r="T95">
+        <v>3</v>
+      </c>
+      <c r="U95">
+        <v>1.925</v>
+      </c>
+      <c r="V95">
         <v>1.875</v>
       </c>
-      <c r="T95">
-        <v>2.75</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96">
+        <v>4.75</v>
+      </c>
+      <c r="L96">
+        <v>3.8</v>
+      </c>
+      <c r="M96">
+        <v>1.6</v>
+      </c>
+      <c r="N96">
         <v>5</v>
       </c>
-      <c r="I96">
-        <v>4</v>
-      </c>
-      <c r="J96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K96">
-        <v>1.85</v>
-      </c>
-      <c r="L96">
-        <v>3.5</v>
-      </c>
-      <c r="M96">
-        <v>3.75</v>
-      </c>
-      <c r="N96">
-        <v>1.85</v>
-      </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
+        <v>1.75</v>
+      </c>
+      <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>0.571</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>-0</v>
+      </c>
+      <c r="AB96">
+        <v>0.375</v>
+      </c>
+      <c r="AC96">
         <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.925</v>
-      </c>
-      <c r="T96">
-        <v>3</v>
-      </c>
-      <c r="U96">
-        <v>1.925</v>
-      </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
-      <c r="W96">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>0.875</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>0.925</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,10 +9080,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9095,40 +9095,40 @@
         <v>44</v>
       </c>
       <c r="K97">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N97">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9137,16 +9137,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC97">
         <v>-0.5</v>
@@ -9169,7 +9169,7 @@
         <v>45157.375</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -9350,7 +9350,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,73 +9436,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
         <v>3.6</v>
       </c>
       <c r="M101">
+        <v>2.4</v>
+      </c>
+      <c r="N101">
+        <v>2.375</v>
+      </c>
+      <c r="O101">
+        <v>3.8</v>
+      </c>
+      <c r="P101">
+        <v>2.4</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
         <v>1.9</v>
       </c>
-      <c r="N101">
-        <v>2.875</v>
-      </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>2.1</v>
-      </c>
-      <c r="Q101">
-        <v>0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.925</v>
-      </c>
-      <c r="S101">
-        <v>1.875</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z101">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,73 +9525,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
         <v>3.6</v>
       </c>
       <c r="M102">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
+        <v>1.925</v>
+      </c>
+      <c r="S102">
+        <v>1.875</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
         <v>1.85</v>
       </c>
-      <c r="S102">
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,76 +9614,76 @@
         <v>45164.375</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N103">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>1.925</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
         <v>1.9</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.9</v>
       </c>
-      <c r="T103">
-        <v>2.75</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45164.375</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
+        <v>2.1</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>2.9</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.9</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>3.3</v>
-      </c>
-      <c r="Q104">
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.5</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>1.875</v>
-      </c>
-      <c r="S104">
-        <v>1.925</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
-      <c r="U104">
-        <v>1.9</v>
-      </c>
-      <c r="V104">
-        <v>1.9</v>
-      </c>
-      <c r="W104">
+      <c r="AA104">
+        <v>0.45</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0.875</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>45171.375</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858928</v>
+        <v>6858929</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,10 +10504,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10519,25 +10519,25 @@
         <v>45</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L113">
         <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N113">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O113">
         <v>3.4</v>
       </c>
       <c r="P113">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
         <v>1.85</v>
@@ -10546,16 +10546,16 @@
         <v>1.95</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
+        <v>1.875</v>
+      </c>
+      <c r="V113">
         <v>1.925</v>
       </c>
-      <c r="V113">
-        <v>1.875</v>
-      </c>
       <c r="W113">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10573,7 +10573,7 @@
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858929</v>
+        <v>6858928</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,10 +10593,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10608,25 +10608,25 @@
         <v>45</v>
       </c>
       <c r="K114">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O114">
         <v>3.4</v>
       </c>
       <c r="P114">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
         <v>1.85</v>
@@ -10635,16 +10635,16 @@
         <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
+        <v>1.925</v>
+      </c>
+      <c r="V114">
         <v>1.875</v>
       </c>
-      <c r="V114">
-        <v>1.925</v>
-      </c>
       <c r="W114">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10662,7 +10662,7 @@
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6858933</v>
+        <v>6858934</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,73 +10771,73 @@
         <v>45179.375</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
       <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>1.55</v>
+      </c>
+      <c r="L116">
         <v>4</v>
       </c>
-      <c r="J116" t="s">
-        <v>44</v>
-      </c>
-      <c r="K116">
-        <v>1.35</v>
-      </c>
-      <c r="L116">
+      <c r="M116">
         <v>5</v>
       </c>
-      <c r="M116">
-        <v>6.5</v>
-      </c>
       <c r="N116">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O116">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>3</v>
+      </c>
+      <c r="U116">
         <v>1.9</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.9</v>
       </c>
-      <c r="T116">
-        <v>3.25</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB116">
-        <v>0.925</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10848,7 +10848,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6858934</v>
+        <v>6858933</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10860,73 +10860,73 @@
         <v>45179.375</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M117">
+        <v>6.5</v>
+      </c>
+      <c r="N117">
+        <v>1.333</v>
+      </c>
+      <c r="O117">
+        <v>5.5</v>
+      </c>
+      <c r="P117">
+        <v>6</v>
+      </c>
+      <c r="Q117">
+        <v>-1.5</v>
+      </c>
+      <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.9</v>
+      </c>
+      <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>1.925</v>
+      </c>
+      <c r="V117">
+        <v>1.875</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
         <v>5</v>
       </c>
-      <c r="N117">
-        <v>1.5</v>
-      </c>
-      <c r="O117">
-        <v>4.2</v>
-      </c>
-      <c r="P117">
-        <v>5.25</v>
-      </c>
-      <c r="Q117">
-        <v>-1</v>
-      </c>
-      <c r="R117">
-        <v>1.8</v>
-      </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.9</v>
-      </c>
-      <c r="V117">
-        <v>1.9</v>
-      </c>
-      <c r="W117">
-        <v>0.5</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>-1</v>
-      </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>45185.375</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
         <v>36</v>
@@ -11842,7 +11842,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12284,7 +12284,7 @@
         <v>45199.375</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -12539,7 +12539,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6858955</v>
+        <v>6858953</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12551,76 +12551,76 @@
         <v>45206.375</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K136">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12628,7 +12628,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6858954</v>
+        <v>6858955</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12640,40 +12640,40 @@
         <v>45206.375</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K137">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
         <v>1.975</v>
@@ -12682,22 +12682,22 @@
         <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y137">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
@@ -12709,7 +12709,7 @@
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12717,7 +12717,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6858953</v>
+        <v>6858954</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,55 +12729,55 @@
         <v>45206.375</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>44</v>
       </c>
       <c r="K138">
+        <v>2.15</v>
+      </c>
+      <c r="L138">
+        <v>3.5</v>
+      </c>
+      <c r="M138">
         <v>2.875</v>
       </c>
-      <c r="L138">
-        <v>3.6</v>
-      </c>
-      <c r="M138">
-        <v>2.15</v>
-      </c>
       <c r="N138">
+        <v>2.2</v>
+      </c>
+      <c r="O138">
         <v>3.4</v>
       </c>
-      <c r="O138">
-        <v>3.5</v>
-      </c>
       <c r="P138">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12786,19 +12786,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.909</v>
+        <v>1.875</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13429,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13441,10 +13441,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13456,46 +13456,46 @@
         <v>46</v>
       </c>
       <c r="K146">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L146">
+        <v>3.8</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146">
+        <v>1.65</v>
+      </c>
+      <c r="O146">
         <v>3.6</v>
       </c>
-      <c r="M146">
-        <v>4.2</v>
-      </c>
-      <c r="N146">
-        <v>1.615</v>
-      </c>
-      <c r="O146">
-        <v>3.75</v>
-      </c>
       <c r="P146">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q146">
         <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13518,7 +13518,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13530,10 +13530,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13545,46 +13545,46 @@
         <v>46</v>
       </c>
       <c r="K147">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N147">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
         <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -13593,13 +13593,13 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13607,7 +13607,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6859011</v>
+        <v>6859008</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13619,10 +13619,10 @@
         <v>45220.375</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13634,31 +13634,31 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
         <v>2.5</v>
@@ -13673,16 +13673,16 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>0.8</v>
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6859008</v>
+        <v>6859011</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,10 +13797,10 @@
         <v>45220.375</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13812,31 +13812,31 @@
         <v>46</v>
       </c>
       <c r="K150">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N150">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
         <v>2.5</v>
@@ -13851,16 +13851,16 @@
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB150">
         <v>0.8</v>
@@ -14319,7 +14319,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,76 +14331,76 @@
         <v>45227.375</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N156">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
         <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y156">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB156">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14408,7 +14408,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14420,76 +14420,76 @@
         <v>45227.375</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K157">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14497,7 +14497,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14509,49 +14509,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
         <v>1.9</v>
@@ -14566,19 +14566,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14586,7 +14586,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14598,49 +14598,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
       <c r="K159">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
         <v>1.9</v>
@@ -14655,19 +14655,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14764,7 +14764,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6859035</v>
+        <v>6859041</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14776,10 +14776,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14791,43 +14791,43 @@
         <v>45</v>
       </c>
       <c r="K161">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N161">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>2.3</v>
+        <v>0.571</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14836,13 +14836,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14853,7 +14853,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6859041</v>
+        <v>6859035</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14865,10 +14865,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14880,43 +14880,43 @@
         <v>45</v>
       </c>
       <c r="K162">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N162">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
-        <v>0.571</v>
+        <v>2.3</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14925,13 +14925,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15209,7 +15209,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15221,13 +15221,13 @@
         <v>45240.625</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15236,43 +15236,43 @@
         <v>45</v>
       </c>
       <c r="K166">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N166">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15281,16 +15281,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15298,7 +15298,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15310,13 +15310,13 @@
         <v>45240.625</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15325,43 +15325,43 @@
         <v>45</v>
       </c>
       <c r="K167">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15370,16 +15370,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC167">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -16010,7 +16010,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6859062</v>
+        <v>6859064</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16022,76 +16022,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K175">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="L175">
         <v>3.6</v>
       </c>
       <c r="M175">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N175">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="Q175">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
         <v>1.9</v>
       </c>
-      <c r="S175">
+      <c r="V175">
         <v>1.9</v>
       </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.8</v>
-      </c>
-      <c r="V175">
-        <v>2</v>
-      </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
-      <c r="AC175">
-        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16099,7 +16099,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6859064</v>
+        <v>6859062</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16111,76 +16111,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="L176">
         <v>3.6</v>
       </c>
       <c r="M176">
+        <v>1.615</v>
+      </c>
+      <c r="N176">
         <v>5.25</v>
       </c>
-      <c r="N176">
-        <v>1.666</v>
-      </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P176">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y176">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -121,10 +121,10 @@
     <t>Hellerup IK</t>
   </si>
   <si>
-    <t>Thisted FC</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>Thisted FC</t>
   </si>
   <si>
     <t>Frem</t>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5235060</v>
+        <v>5235059</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,53 +1251,53 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
+        <v>1.85</v>
+      </c>
+      <c r="S9">
+        <v>1.95</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
         <v>1.975</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>1.825</v>
       </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>1.8</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
@@ -1305,19 +1305,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5235059</v>
+        <v>5235060</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,52 +1340,52 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
+        <v>3.1</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>2.1</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
         <v>3.6</v>
       </c>
-      <c r="L10">
-        <v>3.6</v>
-      </c>
-      <c r="M10">
-        <v>1.833</v>
-      </c>
-      <c r="N10">
-        <v>2.875</v>
-      </c>
-      <c r="O10">
-        <v>3.3</v>
-      </c>
       <c r="P10">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1394,19 +1394,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5235006</v>
+        <v>5235005</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45009.625</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="L14">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5235005</v>
+        <v>5235006</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45009.625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5237820</v>
+        <v>5235007</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,13 +2316,13 @@
         <v>45017.375</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2331,25 +2331,25 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.925</v>
@@ -2361,13 +2361,13 @@
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,7 +2385,7 @@
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5235007</v>
+        <v>5237820</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,13 +2405,13 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2420,25 +2420,25 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
         <v>1.925</v>
@@ -2450,13 +2450,13 @@
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2474,7 +2474,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5235066</v>
+        <v>5235009</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>1.833</v>
+      </c>
+      <c r="N24">
+        <v>4.333</v>
+      </c>
+      <c r="O24">
+        <v>3.3</v>
+      </c>
+      <c r="P24">
+        <v>1.85</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="L24">
-        <v>3.5</v>
-      </c>
-      <c r="M24">
-        <v>3.4</v>
-      </c>
-      <c r="N24">
-        <v>2.1</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
-      <c r="P24">
-        <v>3.1</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.825</v>
-      </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5235009</v>
+        <v>5235066</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,76 +2672,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5235067</v>
+        <v>5235068</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2761,76 +2761,76 @@
         <v>45022.375</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N26">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5235068</v>
+        <v>5235067</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45022.375</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
+        <v>2.8</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
         <v>2.5</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
+      <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="S27">
-        <v>1.925</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>2.025</v>
-      </c>
-      <c r="V27">
-        <v>1.775</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>0.925</v>
       </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5244468</v>
+        <v>5235010</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,61 +2939,61 @@
         <v>45026.375</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P28">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q28">
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y28">
         <v>-1</v>
@@ -3002,13 +3002,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5244467</v>
+        <v>5235070</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45026.375</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
+        <v>1.925</v>
+      </c>
+      <c r="V29">
         <v>1.875</v>
       </c>
-      <c r="V29">
-        <v>1.925</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X29">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5235070</v>
+        <v>5244467</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N31">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
+        <v>1.875</v>
+      </c>
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="V31">
-        <v>1.875</v>
-      </c>
       <c r="W31">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.925</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5235010</v>
+        <v>5244468</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,61 +3295,61 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
       </c>
       <c r="K32">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3358,13 +3358,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3473,7 +3473,7 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3740,7 +3740,7 @@
         <v>45032.4375</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6529375</v>
+        <v>6532911</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4007,58 +4007,58 @@
         <v>45038.375</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>1.727</v>
+      </c>
+      <c r="O40">
         <v>3.6</v>
       </c>
-      <c r="M40">
-        <v>5</v>
-      </c>
-      <c r="N40">
-        <v>1.4</v>
-      </c>
-      <c r="O40">
+      <c r="P40">
         <v>4</v>
       </c>
-      <c r="P40">
-        <v>7.5</v>
-      </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4067,16 +4067,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.4875</v>
+      </c>
+      <c r="AA40">
         <v>-0.5</v>
       </c>
-      <c r="AA40">
-        <v>0.425</v>
-      </c>
       <c r="AB40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6532911</v>
+        <v>6529375</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,58 +4096,58 @@
         <v>45038.375</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>45</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>1.4</v>
+      </c>
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="N41">
-        <v>1.727</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
       <c r="P41">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4156,16 +4156,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
+        <v>0.425</v>
+      </c>
+      <c r="AB41">
+        <v>0.425</v>
+      </c>
+      <c r="AC41">
         <v>-0.5</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
-      <c r="AC41">
-        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6529272</v>
+        <v>6529271</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,76 +4363,76 @@
         <v>45045.375</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44">
+        <v>2.6</v>
+      </c>
+      <c r="L44">
+        <v>3.5</v>
+      </c>
+      <c r="M44">
+        <v>2.3</v>
+      </c>
+      <c r="N44">
+        <v>2.7</v>
+      </c>
+      <c r="O44">
+        <v>3.5</v>
+      </c>
+      <c r="P44">
+        <v>2.3</v>
+      </c>
+      <c r="Q44">
         <v>0</v>
       </c>
-      <c r="J44" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44">
-        <v>2.15</v>
-      </c>
-      <c r="L44">
-        <v>3.4</v>
-      </c>
-      <c r="M44">
-        <v>3</v>
-      </c>
-      <c r="N44">
-        <v>2.2</v>
-      </c>
-      <c r="O44">
-        <v>3.3</v>
-      </c>
-      <c r="P44">
-        <v>3</v>
-      </c>
-      <c r="Q44">
-        <v>-0.25</v>
-      </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6529271</v>
+        <v>6529272</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,76 +4452,76 @@
         <v>45045.375</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6529380</v>
+        <v>6529379</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,55 +4986,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
         <v>3.6</v>
       </c>
       <c r="P51">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5043,19 +5043,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6529379</v>
+        <v>6529380</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,55 +5075,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5132,19 +5132,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>45059.375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
         <v>38</v>
@@ -5523,7 +5523,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5612,7 +5612,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>45067.375</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6057,7 +6057,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6533530</v>
+        <v>6529280</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,40 +6143,40 @@
         <v>45073.375</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N64">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
         <v>1.825</v>
@@ -6188,31 +6188,31 @@
         <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
+        <v>0.425</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6529280</v>
+        <v>6529386</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45073.375</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N65">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6529386</v>
+        <v>6533530</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,76 +6321,76 @@
         <v>45073.375</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
+        <v>2.4</v>
+      </c>
+      <c r="N66">
         <v>2.75</v>
       </c>
-      <c r="N66">
-        <v>2.1</v>
-      </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.95</v>
+      </c>
+      <c r="V66">
+        <v>1.85</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
         <v>2.5</v>
       </c>
-      <c r="U66">
-        <v>1.8</v>
-      </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
       <c r="Y66">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA66">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,73 +6499,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
+        <v>1.444</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>6.25</v>
+      </c>
+      <c r="N68">
+        <v>1.5</v>
+      </c>
+      <c r="O68">
+        <v>4.2</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+      <c r="R68">
         <v>1.85</v>
       </c>
-      <c r="L68">
-        <v>3.5</v>
-      </c>
-      <c r="M68">
-        <v>3.75</v>
-      </c>
-      <c r="N68">
-        <v>1.85</v>
-      </c>
-      <c r="O68">
-        <v>3.4</v>
-      </c>
-      <c r="P68">
-        <v>3.8</v>
-      </c>
-      <c r="Q68">
-        <v>-0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
+        <v>1.8</v>
+      </c>
+      <c r="V68">
         <v>2</v>
       </c>
-      <c r="V68">
-        <v>1.8</v>
-      </c>
       <c r="W68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6576,7 +6576,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6588,73 +6588,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.8</v>
       </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6858,7 +6858,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7122,7 +7122,7 @@
         <v>45087.5</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6529284</v>
+        <v>6529391</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,10 +7389,10 @@
         <v>45094.375</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7404,61 +7404,61 @@
         <v>46</v>
       </c>
       <c r="K78">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N78">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P78">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
+        <v>1.825</v>
+      </c>
+      <c r="S78">
         <v>1.975</v>
-      </c>
-      <c r="S78">
-        <v>1.825</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6529391</v>
+        <v>6529284</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,10 +7478,10 @@
         <v>45094.375</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7493,61 +7493,61 @@
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="L79">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M79">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O79">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R79">
+        <v>1.975</v>
+      </c>
+      <c r="S79">
         <v>1.825</v>
-      </c>
-      <c r="S79">
-        <v>1.975</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6532919</v>
+        <v>6533424</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,76 +7567,76 @@
         <v>45094.375</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N80">
+        <v>2.25</v>
+      </c>
+      <c r="O80">
+        <v>4</v>
+      </c>
+      <c r="P80">
+        <v>2.5</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>1.775</v>
+      </c>
+      <c r="S80">
+        <v>2.025</v>
+      </c>
+      <c r="T80">
+        <v>2.75</v>
+      </c>
+      <c r="U80">
+        <v>1.9</v>
+      </c>
+      <c r="V80">
+        <v>1.9</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
         <v>1.5</v>
       </c>
-      <c r="O80">
-        <v>4.333</v>
-      </c>
-      <c r="P80">
-        <v>5</v>
-      </c>
-      <c r="Q80">
-        <v>-1</v>
-      </c>
-      <c r="R80">
-        <v>1.8</v>
-      </c>
-      <c r="S80">
-        <v>2</v>
-      </c>
-      <c r="T80">
-        <v>3.25</v>
-      </c>
-      <c r="U80">
-        <v>1.95</v>
-      </c>
-      <c r="V80">
-        <v>1.85</v>
-      </c>
-      <c r="W80">
-        <v>0.5</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6533424</v>
+        <v>6532919</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,76 +7656,76 @@
         <v>45094.375</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
+        <v>3.8</v>
+      </c>
+      <c r="M81">
         <v>3.75</v>
       </c>
-      <c r="M81">
-        <v>2.3</v>
-      </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P81">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>44</v>
+      </c>
+      <c r="K84">
+        <v>3.75</v>
+      </c>
+      <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>1.727</v>
+      </c>
+      <c r="N84">
+        <v>4.333</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
+        <v>1.6</v>
+      </c>
+      <c r="Q84">
+        <v>0.75</v>
+      </c>
+      <c r="R84">
         <v>2</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>45</v>
-      </c>
-      <c r="K84">
-        <v>1.833</v>
-      </c>
-      <c r="L84">
-        <v>3.6</v>
-      </c>
-      <c r="M84">
-        <v>3.4</v>
-      </c>
-      <c r="N84">
-        <v>1.833</v>
-      </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
-      <c r="P84">
-        <v>3.4</v>
-      </c>
-      <c r="Q84">
-        <v>-0.5</v>
-      </c>
-      <c r="R84">
-        <v>1.875</v>
-      </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45143.375</v>
       </c>
       <c r="F85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s">
         <v>36</v>
       </c>
-      <c r="G85" t="s">
-        <v>43</v>
-      </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.875</v>
+      </c>
+      <c r="V85">
+        <v>1.925</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
         <v>1.8</v>
       </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
-      <c r="W85">
-        <v>0.5</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8089,7 +8089,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8101,76 +8101,76 @@
         <v>45143.375</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K86">
+        <v>1.571</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.75</v>
+      </c>
+      <c r="N86">
+        <v>1.5</v>
+      </c>
+      <c r="O86">
+        <v>3.8</v>
+      </c>
+      <c r="P86">
+        <v>5.25</v>
+      </c>
+      <c r="Q86">
+        <v>-1</v>
+      </c>
+      <c r="R86">
+        <v>1.9</v>
+      </c>
+      <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.8</v>
+      </c>
+      <c r="V86">
         <v>2</v>
       </c>
-      <c r="J86" t="s">
-        <v>44</v>
-      </c>
-      <c r="K86">
-        <v>2.3</v>
-      </c>
-      <c r="L86">
-        <v>3.3</v>
-      </c>
-      <c r="M86">
-        <v>2.625</v>
-      </c>
-      <c r="N86">
-        <v>2.15</v>
-      </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
-      <c r="P86">
-        <v>2.8</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.95</v>
-      </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.5</v>
-      </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
-      <c r="V86">
-        <v>1.925</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8546,7 +8546,7 @@
         <v>45150.375</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
         <v>40</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858912</v>
+        <v>6858913</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8902,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L95">
         <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q95">
+        <v>-0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.925</v>
+      </c>
+      <c r="S95">
+        <v>1.875</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>1.875</v>
+      </c>
+      <c r="V95">
+        <v>1.925</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>1.9</v>
+      </c>
+      <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
+        <v>0.875</v>
+      </c>
+      <c r="AB95">
+        <v>0.4375</v>
+      </c>
+      <c r="AC95">
         <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.875</v>
-      </c>
-      <c r="S95">
-        <v>1.925</v>
-      </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.925</v>
-      </c>
-      <c r="V95">
-        <v>1.875</v>
-      </c>
-      <c r="W95">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>0.875</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.925</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L96">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,10 +9080,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9095,40 +9095,40 @@
         <v>44</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M97">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N97">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9137,16 +9137,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC97">
         <v>-0.5</v>
@@ -9261,7 +9261,7 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,73 +9436,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
         <v>3.6</v>
       </c>
       <c r="M101">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N101">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
+        <v>1.925</v>
+      </c>
+      <c r="S101">
+        <v>1.875</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
-      <c r="U101">
-        <v>1.9</v>
-      </c>
-      <c r="V101">
-        <v>1.9</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,73 +9525,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L102">
         <v>3.6</v>
       </c>
       <c r="M102">
+        <v>2.4</v>
+      </c>
+      <c r="N102">
+        <v>2.375</v>
+      </c>
+      <c r="O102">
+        <v>3.8</v>
+      </c>
+      <c r="P102">
+        <v>2.4</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>1.85</v>
+      </c>
+      <c r="S102">
+        <v>1.95</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
         <v>1.9</v>
       </c>
-      <c r="N102">
-        <v>2.875</v>
-      </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
-      <c r="P102">
-        <v>2.1</v>
-      </c>
-      <c r="Q102">
-        <v>0.25</v>
-      </c>
-      <c r="R102">
-        <v>1.925</v>
-      </c>
-      <c r="S102">
-        <v>1.875</v>
-      </c>
-      <c r="T102">
-        <v>2.75</v>
-      </c>
-      <c r="U102">
-        <v>1.85</v>
-      </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,76 +9614,76 @@
         <v>45164.375</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
+        <v>2.1</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2.9</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>3.3</v>
-      </c>
-      <c r="Q103">
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>2.5</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>1.875</v>
-      </c>
-      <c r="S103">
-        <v>1.925</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
+      <c r="AA103">
+        <v>0.45</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.875</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45164.375</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.875</v>
+      </c>
+      <c r="S104">
+        <v>1.925</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
         <v>1.9</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.9</v>
       </c>
-      <c r="T104">
-        <v>2.75</v>
-      </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -9884,7 +9884,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6858924</v>
+        <v>6858923</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,22 +9970,22 @@
         <v>45171.375</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L107">
         <v>3.5</v>
@@ -9994,52 +9994,52 @@
         <v>2.9</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
         <v>3.4</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y107">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6858923</v>
+        <v>6858924</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,22 +10059,22 @@
         <v>45171.375</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
         <v>3.5</v>
@@ -10083,52 +10083,52 @@
         <v>2.9</v>
       </c>
       <c r="N108">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
         <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
         <v>0</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
         <v>33</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6858930</v>
+        <v>6858928</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,76 +10415,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
         <v>3.5</v>
       </c>
       <c r="M112">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,31 +10507,31 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
         <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
         <v>2.55</v>
@@ -10540,40 +10540,40 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858928</v>
+        <v>6858929</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,10 +10593,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10608,25 +10608,25 @@
         <v>45</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N114">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
         <v>3.4</v>
       </c>
       <c r="P114">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
         <v>1.85</v>
@@ -10635,16 +10635,16 @@
         <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
+        <v>1.875</v>
+      </c>
+      <c r="V114">
         <v>1.925</v>
       </c>
-      <c r="V114">
-        <v>1.875</v>
-      </c>
       <c r="W114">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10662,7 +10662,7 @@
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11219,7 +11219,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
         <v>34</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,13 +11572,13 @@
         <v>45192.375</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11587,43 +11587,43 @@
         <v>45</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M125">
+        <v>5.5</v>
+      </c>
+      <c r="N125">
+        <v>1.444</v>
+      </c>
+      <c r="O125">
+        <v>4.2</v>
+      </c>
+      <c r="P125">
+        <v>6</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.725</v>
+      </c>
+      <c r="S125">
+        <v>2.075</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="N125">
-        <v>2.1</v>
-      </c>
-      <c r="O125">
-        <v>3.5</v>
-      </c>
-      <c r="P125">
-        <v>3</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
         <v>1.85</v>
       </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
-      <c r="U125">
-        <v>1.85</v>
-      </c>
-      <c r="V125">
-        <v>1.95</v>
-      </c>
       <c r="W125">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,16 +11632,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,13 +11661,13 @@
         <v>45192.375</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11676,43 +11676,43 @@
         <v>45</v>
       </c>
       <c r="K126">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N126">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O126">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
+        <v>1.85</v>
+      </c>
+      <c r="V126">
         <v>1.95</v>
       </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
       <c r="W126">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,16 +11721,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -12195,7 +12195,7 @@
         <v>45199.375</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -12376,7 +12376,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12539,7 +12539,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6858953</v>
+        <v>6858955</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12551,76 +12551,76 @@
         <v>45206.375</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>46</v>
+      </c>
+      <c r="K136">
+        <v>1.6</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>4.75</v>
+      </c>
+      <c r="N136">
+        <v>1.444</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>6.5</v>
+      </c>
+      <c r="Q136">
+        <v>-1.25</v>
+      </c>
+      <c r="R136">
+        <v>1.975</v>
+      </c>
+      <c r="S136">
+        <v>1.825</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
         <v>2</v>
       </c>
-      <c r="J136" t="s">
-        <v>44</v>
-      </c>
-      <c r="K136">
-        <v>2.875</v>
-      </c>
-      <c r="L136">
-        <v>3.6</v>
-      </c>
-      <c r="M136">
-        <v>2.15</v>
-      </c>
-      <c r="N136">
-        <v>3.4</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
-      <c r="P136">
-        <v>1.909</v>
-      </c>
-      <c r="Q136">
-        <v>0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.85</v>
-      </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.95</v>
-      </c>
-      <c r="V136">
-        <v>1.85</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12628,7 +12628,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6858955</v>
+        <v>6858954</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12640,40 +12640,40 @@
         <v>45206.375</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
         <v>1.975</v>
@@ -12682,22 +12682,22 @@
         <v>1.825</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z137">
         <v>-1</v>
@@ -12709,7 +12709,7 @@
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12717,7 +12717,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6858954</v>
+        <v>6858953</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,55 +12729,55 @@
         <v>45206.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>44</v>
       </c>
       <c r="K138">
+        <v>2.875</v>
+      </c>
+      <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
         <v>2.15</v>
       </c>
-      <c r="L138">
+      <c r="N138">
+        <v>3.4</v>
+      </c>
+      <c r="O138">
         <v>3.5</v>
       </c>
-      <c r="M138">
-        <v>2.875</v>
-      </c>
-      <c r="N138">
-        <v>2.2</v>
-      </c>
-      <c r="O138">
-        <v>3.4</v>
-      </c>
       <c r="P138">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12786,19 +12786,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>43</v>
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,55 +13263,55 @@
         <v>45213.375</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N144">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,73 +13352,73 @@
         <v>45213.375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N145">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O145">
+        <v>3.8</v>
+      </c>
+      <c r="P145">
+        <v>4.75</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
+        <v>1.8</v>
+      </c>
+      <c r="V145">
+        <v>2</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
         <v>3.75</v>
       </c>
-      <c r="P145">
-        <v>1.909</v>
-      </c>
-      <c r="Q145">
-        <v>0.5</v>
-      </c>
-      <c r="R145">
-        <v>1.825</v>
-      </c>
-      <c r="S145">
-        <v>1.975</v>
-      </c>
-      <c r="T145">
-        <v>3.25</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
-      <c r="V145">
-        <v>1.875</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>0.909</v>
-      </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13607,7 +13607,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6859008</v>
+        <v>6859010</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13619,73 +13619,73 @@
         <v>45220.375</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M148">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N148">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X148">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13696,7 +13696,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6859010</v>
+        <v>6859008</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13708,73 +13708,73 @@
         <v>45220.375</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L149">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N149">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q149">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6859011</v>
+        <v>6859007</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,76 +13797,76 @@
         <v>45220.375</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K150">
+        <v>3.6</v>
+      </c>
+      <c r="L150">
+        <v>3.4</v>
+      </c>
+      <c r="M150">
+        <v>1.909</v>
+      </c>
+      <c r="N150">
+        <v>3.2</v>
+      </c>
+      <c r="O150">
+        <v>3.4</v>
+      </c>
+      <c r="P150">
+        <v>2.05</v>
+      </c>
+      <c r="Q150">
+        <v>0.25</v>
+      </c>
+      <c r="R150">
         <v>2</v>
       </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
-      <c r="M150">
-        <v>3.3</v>
-      </c>
-      <c r="N150">
-        <v>2</v>
-      </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
-      <c r="P150">
-        <v>3.3</v>
-      </c>
-      <c r="Q150">
-        <v>-0.25</v>
-      </c>
-      <c r="R150">
-        <v>1.75</v>
-      </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.8</v>
+      </c>
+      <c r="AB150">
+        <v>0.4875</v>
+      </c>
+      <c r="AC150">
         <v>-0.5</v>
-      </c>
-      <c r="AA150">
-        <v>0.475</v>
-      </c>
-      <c r="AB150">
-        <v>0.8</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6859007</v>
+        <v>6859011</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,76 +13886,76 @@
         <v>45220.375</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N151">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
+        <v>1.75</v>
+      </c>
+      <c r="S151">
+        <v>1.95</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.8</v>
+      </c>
+      <c r="V151">
         <v>2</v>
       </c>
-      <c r="S151">
-        <v>1.8</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.975</v>
-      </c>
-      <c r="V151">
-        <v>1.825</v>
-      </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y151">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
+        <v>0.475</v>
+      </c>
+      <c r="AB151">
         <v>0.8</v>
       </c>
-      <c r="AB151">
-        <v>0.4875</v>
-      </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13975,7 +13975,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
         <v>34</v>
@@ -14319,7 +14319,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,76 +14331,76 @@
         <v>45227.375</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K156">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N156">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T156">
         <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB156">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14408,7 +14408,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14420,76 +14420,76 @@
         <v>45227.375</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y157">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14497,7 +14497,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14509,49 +14509,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P158">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U158">
         <v>1.9</v>
@@ -14566,19 +14566,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14586,7 +14586,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14598,49 +14598,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
       <c r="K159">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.9</v>
@@ -14655,19 +14655,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -15046,7 +15046,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15209,7 +15209,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15221,13 +15221,13 @@
         <v>45240.625</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15236,43 +15236,43 @@
         <v>45</v>
       </c>
       <c r="K166">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N166">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15281,16 +15281,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15298,7 +15298,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15310,13 +15310,13 @@
         <v>45240.625</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15325,43 +15325,43 @@
         <v>45</v>
       </c>
       <c r="K167">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N167">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15370,16 +15370,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -16200,10 +16200,10 @@
         <v>45248.45833333334</v>
       </c>
       <c r="F177" t="s">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
         <v>35</v>
-      </c>
-      <c r="G177" t="s">
-        <v>36</v>
       </c>
       <c r="H177">
         <v>1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -127,10 +127,10 @@
     <t>Thisted FC</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Brabrand</t>
   </si>
   <si>
-    <t>Brabrand</t>
+    <t>Frem</t>
   </si>
   <si>
     <t>AB Copenhagen</t>
@@ -806,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5244465</v>
+        <v>5235003</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,73 +1429,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5235003</v>
+        <v>5244465</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N12">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2230,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5235007</v>
+        <v>5237820</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,13 +2316,13 @@
         <v>45017.375</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2331,25 +2331,25 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
         <v>1.925</v>
@@ -2361,13 +2361,13 @@
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,7 +2385,7 @@
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5237820</v>
+        <v>5235007</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,13 +2405,13 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2420,25 +2420,25 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>1.925</v>
@@ -2450,13 +2450,13 @@
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2474,7 +2474,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5235068</v>
+        <v>5235067</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2761,76 +2761,76 @@
         <v>45022.375</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
+        <v>2.8</v>
+      </c>
+      <c r="Q26">
+        <v>-0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
         <v>2.5</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>2.025</v>
-      </c>
-      <c r="V26">
-        <v>1.775</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.925</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5235067</v>
+        <v>5235068</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45022.375</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5235010</v>
+        <v>5235070</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,76 +2939,76 @@
         <v>45026.375</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X28">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5235070</v>
+        <v>5244467</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45026.375</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N29">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P29">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
+        <v>1.875</v>
+      </c>
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
       <c r="W29">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5237818</v>
+        <v>5244468</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,40 +3117,40 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>46</v>
       </c>
       <c r="K30">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
         <v>1.975</v>
@@ -3159,34 +3159,34 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2.15</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.675</v>
+        <v>1.775</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.675</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5244467</v>
+        <v>5237818</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,40 +3206,40 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>46</v>
       </c>
       <c r="K31">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="L31">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N31">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
         <v>1.975</v>
@@ -3248,34 +3248,34 @@
         <v>1.825</v>
       </c>
       <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2.15</v>
+      </c>
+      <c r="V31">
+        <v>1.675</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
         <v>2.75</v>
       </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>3.75</v>
-      </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244468</v>
+        <v>5235010</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,61 +3295,61 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P32">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3358,13 +3358,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>45031.375</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3921,7 +3921,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3995,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6532911</v>
+        <v>6529375</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4007,58 +4007,58 @@
         <v>45038.375</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
         <v>4</v>
       </c>
-      <c r="N40">
-        <v>1.727</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
       <c r="P40">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4067,16 +4067,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
+        <v>0.425</v>
+      </c>
+      <c r="AB40">
+        <v>0.425</v>
+      </c>
+      <c r="AC40">
         <v>-0.5</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
-      <c r="AC40">
-        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6529375</v>
+        <v>6532911</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,58 +4096,58 @@
         <v>45038.375</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>45</v>
       </c>
       <c r="K41">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L41">
+        <v>3.5</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>1.727</v>
+      </c>
+      <c r="O41">
         <v>3.6</v>
       </c>
-      <c r="M41">
-        <v>5</v>
-      </c>
-      <c r="N41">
-        <v>1.4</v>
-      </c>
-      <c r="O41">
+      <c r="P41">
         <v>4</v>
       </c>
-      <c r="P41">
-        <v>7.5</v>
-      </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4156,16 +4156,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.4875</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.425</v>
-      </c>
       <c r="AB41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>45045.375</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4452,7 +4452,7 @@
         <v>45045.375</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4897,10 +4897,10 @@
         <v>45052.375</v>
       </c>
       <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
         <v>38</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6529379</v>
+        <v>6529380</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,55 +4986,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O51">
         <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5043,19 +5043,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6529380</v>
+        <v>6529379</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,55 +5075,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5132,19 +5132,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5256,7 +5256,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6529280</v>
+        <v>6529386</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,76 +6143,76 @@
         <v>45073.375</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N64">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6529386</v>
+        <v>6529280</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45073.375</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
+        <v>2.45</v>
+      </c>
+      <c r="N65">
+        <v>2.375</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.45</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1.825</v>
+      </c>
+      <c r="S65">
+        <v>1.975</v>
+      </c>
+      <c r="T65">
         <v>2.75</v>
       </c>
-      <c r="N65">
-        <v>2.1</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
-      <c r="P65">
-        <v>3.1</v>
-      </c>
-      <c r="Q65">
-        <v>-0.25</v>
-      </c>
-      <c r="R65">
-        <v>1.875</v>
-      </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>45073.375</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>35</v>
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,73 +6499,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
         <v>1.8</v>
       </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X68">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6576,7 +6576,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6588,73 +6588,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
+        <v>1.444</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>6.25</v>
+      </c>
+      <c r="N69">
+        <v>1.5</v>
+      </c>
+      <c r="O69">
+        <v>4.2</v>
+      </c>
+      <c r="P69">
+        <v>5</v>
+      </c>
+      <c r="Q69">
+        <v>-1</v>
+      </c>
+      <c r="R69">
         <v>1.85</v>
       </c>
-      <c r="L69">
-        <v>3.5</v>
-      </c>
-      <c r="M69">
-        <v>3.75</v>
-      </c>
-      <c r="N69">
-        <v>1.85</v>
-      </c>
-      <c r="O69">
-        <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>3.8</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.825</v>
-      </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U69">
+        <v>1.8</v>
+      </c>
+      <c r="V69">
         <v>2</v>
       </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
       <c r="W69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6947,7 +6947,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7033,7 +7033,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6529391</v>
+        <v>6532919</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,76 +7389,76 @@
         <v>45094.375</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L78">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M78">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P78">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X78">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6529284</v>
+        <v>6533424</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,76 +7478,76 @@
         <v>45094.375</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K79">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N79">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC79">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6533424</v>
+        <v>6529391</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,76 +7567,76 @@
         <v>45094.375</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K80">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M80">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P80">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y80">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6532919</v>
+        <v>6529284</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,49 +7656,49 @@
         <v>45094.375</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L81">
         <v>3.8</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N81">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O81">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U81">
         <v>1.95</v>
@@ -7707,25 +7707,25 @@
         <v>1.85</v>
       </c>
       <c r="W81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>44</v>
+      </c>
+      <c r="K83">
+        <v>3.75</v>
+      </c>
+      <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>1.727</v>
+      </c>
+      <c r="N83">
+        <v>4.333</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>1.6</v>
+      </c>
+      <c r="Q83">
+        <v>0.75</v>
+      </c>
+      <c r="R83">
         <v>2</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>45</v>
-      </c>
-      <c r="K83">
-        <v>1.833</v>
-      </c>
-      <c r="L83">
-        <v>3.6</v>
-      </c>
-      <c r="M83">
-        <v>3.4</v>
-      </c>
-      <c r="N83">
-        <v>1.833</v>
-      </c>
-      <c r="O83">
-        <v>3.6</v>
-      </c>
-      <c r="P83">
-        <v>3.4</v>
-      </c>
-      <c r="Q83">
-        <v>-0.5</v>
-      </c>
-      <c r="R83">
-        <v>1.875</v>
-      </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB83">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N84">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45143.375</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>45</v>
+      </c>
+      <c r="K85">
+        <v>1.571</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>3.8</v>
+      </c>
+      <c r="P85">
+        <v>5.25</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
         <v>2</v>
       </c>
-      <c r="J85" t="s">
-        <v>44</v>
-      </c>
-      <c r="K85">
-        <v>2.3</v>
-      </c>
-      <c r="L85">
-        <v>3.3</v>
-      </c>
-      <c r="M85">
-        <v>2.625</v>
-      </c>
-      <c r="N85">
-        <v>2.15</v>
-      </c>
-      <c r="O85">
-        <v>3.3</v>
-      </c>
-      <c r="P85">
-        <v>2.8</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.95</v>
-      </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8089,7 +8089,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8101,76 +8101,76 @@
         <v>45143.375</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N86">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
+        <v>1.875</v>
+      </c>
+      <c r="V86">
+        <v>1.925</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
         <v>1.8</v>
       </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
-      <c r="W86">
-        <v>0.5</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,73 +8457,73 @@
         <v>45150.375</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L90">
         <v>3.6</v>
       </c>
       <c r="M90">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N90">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
         <v>1.925</v>
-      </c>
-      <c r="S90">
-        <v>1.875</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.925</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,73 +8546,73 @@
         <v>45150.375</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L91">
         <v>3.6</v>
       </c>
       <c r="M91">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N91">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
         <v>1.875</v>
-      </c>
-      <c r="S91">
-        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8638,7 +8638,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8917,40 +8917,40 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC95">
         <v>-0.5</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,10 +9080,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9095,40 +9095,40 @@
         <v>44</v>
       </c>
       <c r="K97">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N97">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9137,16 +9137,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC97">
         <v>-0.5</v>
@@ -9169,7 +9169,7 @@
         <v>45157.375</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -9350,7 +9350,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -10059,7 +10059,7 @@
         <v>45171.375</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6858927</v>
+        <v>6858926</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,40 +10148,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M109">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="N109">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R109">
         <v>2</v>
@@ -10193,31 +10193,31 @@
         <v>3</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y109">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,40 +10237,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L110">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N110">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
         <v>2</v>
@@ -10279,34 +10279,34 @@
         <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10314,7 +10314,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858925</v>
+        <v>6858927</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10326,13 +10326,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -10344,19 +10344,19 @@
         <v>4.333</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="N111">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="Q111">
         <v>0.75</v>
@@ -10368,13 +10368,13 @@
         <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10383,7 +10383,7 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z111">
         <v>-1</v>
@@ -10392,10 +10392,10 @@
         <v>0.8</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,34 +10504,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L113">
         <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
         <v>2.55</v>
@@ -10540,40 +10540,40 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,34 +10593,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
         <v>2.55</v>
@@ -10629,40 +10629,40 @@
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6858934</v>
+        <v>6858933</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,73 +10771,73 @@
         <v>45179.375</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M116">
+        <v>6.5</v>
+      </c>
+      <c r="N116">
+        <v>1.333</v>
+      </c>
+      <c r="O116">
+        <v>5.5</v>
+      </c>
+      <c r="P116">
+        <v>6</v>
+      </c>
+      <c r="Q116">
+        <v>-1.5</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>3.25</v>
+      </c>
+      <c r="U116">
+        <v>1.925</v>
+      </c>
+      <c r="V116">
+        <v>1.875</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
         <v>5</v>
       </c>
-      <c r="N116">
-        <v>1.5</v>
-      </c>
-      <c r="O116">
-        <v>4.2</v>
-      </c>
-      <c r="P116">
-        <v>5.25</v>
-      </c>
-      <c r="Q116">
-        <v>-1</v>
-      </c>
-      <c r="R116">
-        <v>1.8</v>
-      </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>3</v>
-      </c>
-      <c r="U116">
-        <v>1.9</v>
-      </c>
-      <c r="V116">
-        <v>1.9</v>
-      </c>
-      <c r="W116">
-        <v>0.5</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10848,7 +10848,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6858933</v>
+        <v>6858934</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10860,73 +10860,73 @@
         <v>45179.375</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
       <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117">
+        <v>1.55</v>
+      </c>
+      <c r="L117">
         <v>4</v>
       </c>
-      <c r="J117" t="s">
-        <v>44</v>
-      </c>
-      <c r="K117">
-        <v>1.35</v>
-      </c>
-      <c r="L117">
+      <c r="M117">
         <v>5</v>
       </c>
-      <c r="M117">
-        <v>6.5</v>
-      </c>
       <c r="N117">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O117">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q117">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
         <v>1.9</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>3.25</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB117">
-        <v>0.925</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>45185.375</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>35</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,13 +11572,13 @@
         <v>45192.375</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11587,43 +11587,43 @@
         <v>45</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
+        <v>1.85</v>
+      </c>
+      <c r="V125">
         <v>1.95</v>
       </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,16 +11632,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,13 +11661,13 @@
         <v>45192.375</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11676,43 +11676,43 @@
         <v>45</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M126">
+        <v>5.5</v>
+      </c>
+      <c r="N126">
+        <v>1.444</v>
+      </c>
+      <c r="O126">
+        <v>4.2</v>
+      </c>
+      <c r="P126">
+        <v>6</v>
+      </c>
+      <c r="Q126">
+        <v>-1</v>
+      </c>
+      <c r="R126">
+        <v>1.725</v>
+      </c>
+      <c r="S126">
+        <v>2.075</v>
+      </c>
+      <c r="T126">
         <v>3</v>
       </c>
-      <c r="N126">
-        <v>2.1</v>
-      </c>
-      <c r="O126">
-        <v>3.5</v>
-      </c>
-      <c r="P126">
-        <v>3</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="S126">
-        <v>1.95</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.85</v>
-      </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
       <c r="W126">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,16 +11721,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12284,7 +12284,7 @@
         <v>45199.375</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -12539,7 +12539,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6858955</v>
+        <v>6858954</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12551,40 +12551,40 @@
         <v>45206.375</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K136">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
         <v>1.975</v>
@@ -12593,22 +12593,22 @@
         <v>1.825</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z136">
         <v>-1</v>
@@ -12620,7 +12620,7 @@
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12628,7 +12628,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6858954</v>
+        <v>6858955</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12640,40 +12640,40 @@
         <v>45206.375</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K137">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
         <v>1.975</v>
@@ -12682,22 +12682,22 @@
         <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y137">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
@@ -12709,7 +12709,7 @@
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13429,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13441,10 +13441,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13456,46 +13456,46 @@
         <v>46</v>
       </c>
       <c r="K146">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N146">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q146">
         <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13518,7 +13518,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13530,10 +13530,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13545,46 +13545,46 @@
         <v>46</v>
       </c>
       <c r="K147">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L147">
+        <v>3.8</v>
+      </c>
+      <c r="M147">
+        <v>5</v>
+      </c>
+      <c r="N147">
+        <v>1.65</v>
+      </c>
+      <c r="O147">
         <v>3.6</v>
       </c>
-      <c r="M147">
-        <v>4.2</v>
-      </c>
-      <c r="N147">
-        <v>1.615</v>
-      </c>
-      <c r="O147">
-        <v>3.75</v>
-      </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q147">
         <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -13593,13 +13593,13 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13696,7 +13696,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13708,76 +13708,76 @@
         <v>45220.375</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K149">
         <v>3.6</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N149">
+        <v>3.2</v>
+      </c>
+      <c r="O149">
         <v>3.4</v>
       </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
       <c r="P149">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q149">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
+        <v>1.975</v>
+      </c>
+      <c r="V149">
         <v>1.825</v>
       </c>
-      <c r="S149">
-        <v>1.975</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
-      <c r="U149">
-        <v>1.8</v>
-      </c>
-      <c r="V149">
-        <v>2</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6859007</v>
+        <v>6859008</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,76 +13797,76 @@
         <v>45220.375</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>3.6</v>
       </c>
       <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
+        <v>1.85</v>
+      </c>
+      <c r="N150">
         <v>3.4</v>
       </c>
-      <c r="M150">
+      <c r="O150">
+        <v>3.6</v>
+      </c>
+      <c r="P150">
         <v>1.909</v>
       </c>
-      <c r="N150">
-        <v>3.2</v>
-      </c>
-      <c r="O150">
-        <v>3.4</v>
-      </c>
-      <c r="P150">
-        <v>2.05</v>
-      </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.8</v>
+      </c>
+      <c r="V150">
         <v>2</v>
       </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
         <v>0.8</v>
       </c>
-      <c r="AB150">
-        <v>0.4875</v>
-      </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -14865,7 +14865,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
         <v>42</v>
@@ -15209,7 +15209,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15221,13 +15221,13 @@
         <v>45240.625</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15236,43 +15236,43 @@
         <v>45</v>
       </c>
       <c r="K166">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N166">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15281,16 +15281,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15298,7 +15298,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15310,13 +15310,13 @@
         <v>45240.625</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15325,43 +15325,43 @@
         <v>45</v>
       </c>
       <c r="K167">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N167">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15370,16 +15370,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC167">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -16010,7 +16010,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6859064</v>
+        <v>6859062</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16022,76 +16022,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K175">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="L175">
         <v>3.6</v>
       </c>
       <c r="M175">
+        <v>1.615</v>
+      </c>
+      <c r="N175">
         <v>5.25</v>
       </c>
-      <c r="N175">
-        <v>1.666</v>
-      </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y175">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16099,7 +16099,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6859062</v>
+        <v>6859064</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16111,76 +16111,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K176">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="L176">
         <v>3.6</v>
       </c>
       <c r="M176">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N176">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="Q176">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
+        <v>1.825</v>
+      </c>
+      <c r="S176">
+        <v>1.975</v>
+      </c>
+      <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
         <v>1.9</v>
       </c>
-      <c r="S176">
+      <c r="V176">
         <v>1.9</v>
       </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>1.8</v>
-      </c>
-      <c r="V176">
-        <v>2</v>
-      </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
-      <c r="AB176">
-        <v>-1</v>
-      </c>
-      <c r="AC176">
-        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5235005</v>
+        <v>5235006</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45009.625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="P14">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5235006</v>
+        <v>5235005</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45009.625</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="L15">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5244467</v>
+        <v>5237818</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,40 +3028,40 @@
         <v>45026.375</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>46</v>
       </c>
       <c r="K29">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N29">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
         <v>1.975</v>
@@ -3070,34 +3070,34 @@
         <v>1.825</v>
       </c>
       <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>2.15</v>
+      </c>
+      <c r="V29">
+        <v>1.675</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>2.75</v>
       </c>
-      <c r="U29">
-        <v>1.875</v>
-      </c>
-      <c r="V29">
-        <v>1.925</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>3.75</v>
-      </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5244468</v>
+        <v>5244467</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,10 +3117,10 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,25 +3132,25 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
         <v>1.975</v>
@@ -3162,31 +3162,31 @@
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5237818</v>
+        <v>5235010</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,10 +3206,10 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3221,61 +3221,61 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="V31">
-        <v>1.675</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.675</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5235010</v>
+        <v>5244468</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,61 +3295,61 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
       </c>
       <c r="K32">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3358,13 +3358,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3995,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6529375</v>
+        <v>6532911</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4007,58 +4007,58 @@
         <v>45038.375</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>1.727</v>
+      </c>
+      <c r="O40">
         <v>3.6</v>
       </c>
-      <c r="M40">
-        <v>5</v>
-      </c>
-      <c r="N40">
-        <v>1.4</v>
-      </c>
-      <c r="O40">
+      <c r="P40">
         <v>4</v>
       </c>
-      <c r="P40">
-        <v>7.5</v>
-      </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4067,16 +4067,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.4875</v>
+      </c>
+      <c r="AA40">
         <v>-0.5</v>
       </c>
-      <c r="AA40">
-        <v>0.425</v>
-      </c>
       <c r="AB40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6532911</v>
+        <v>6529375</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,58 +4096,58 @@
         <v>45038.375</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>45</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>1.4</v>
+      </c>
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="N41">
-        <v>1.727</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
       <c r="P41">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4156,16 +4156,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
+        <v>0.425</v>
+      </c>
+      <c r="AB41">
+        <v>0.425</v>
+      </c>
+      <c r="AC41">
         <v>-0.5</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
-      <c r="AC41">
-        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6529271</v>
+        <v>6529272</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,76 +4363,76 @@
         <v>45045.375</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6529272</v>
+        <v>6529271</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,76 +4452,76 @@
         <v>45045.375</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45">
+        <v>2.6</v>
+      </c>
+      <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.3</v>
+      </c>
+      <c r="N45">
+        <v>2.7</v>
+      </c>
+      <c r="O45">
+        <v>3.5</v>
+      </c>
+      <c r="P45">
+        <v>2.3</v>
+      </c>
+      <c r="Q45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>45</v>
-      </c>
-      <c r="K45">
-        <v>2.15</v>
-      </c>
-      <c r="L45">
-        <v>3.4</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="N45">
-        <v>2.2</v>
-      </c>
-      <c r="O45">
-        <v>3.3</v>
-      </c>
-      <c r="P45">
-        <v>3</v>
-      </c>
-      <c r="Q45">
-        <v>-0.25</v>
-      </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6529380</v>
+        <v>6529379</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,55 +4986,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
         <v>3.6</v>
       </c>
       <c r="P51">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5043,19 +5043,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6529379</v>
+        <v>6529380</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,55 +5075,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5132,19 +5132,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5597,7 +5597,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6533529</v>
+        <v>6529277</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5609,73 +5609,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N58">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O58">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6529277</v>
+        <v>6533529</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,73 +5698,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L59">
         <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N59">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6529386</v>
+        <v>6533530</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,76 +6143,76 @@
         <v>45073.375</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K64">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
+        <v>2.4</v>
+      </c>
+      <c r="N64">
         <v>2.75</v>
       </c>
-      <c r="N64">
-        <v>2.1</v>
-      </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.95</v>
+      </c>
+      <c r="V64">
+        <v>1.85</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
         <v>2.5</v>
       </c>
-      <c r="U64">
-        <v>1.8</v>
-      </c>
-      <c r="V64">
-        <v>2</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
       <c r="Y64">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA64">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6529280</v>
+        <v>6529386</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45073.375</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N65">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6533530</v>
+        <v>6529280</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45073.375</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>1.825</v>
@@ -6366,31 +6366,31 @@
         <v>2.75</v>
       </c>
       <c r="U66">
+        <v>1.85</v>
+      </c>
+      <c r="V66">
         <v>1.95</v>
       </c>
-      <c r="V66">
-        <v>1.85</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
+        <v>0.425</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,73 +6499,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
+        <v>1.444</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>6.25</v>
+      </c>
+      <c r="N68">
+        <v>1.5</v>
+      </c>
+      <c r="O68">
+        <v>4.2</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+      <c r="R68">
         <v>1.85</v>
       </c>
-      <c r="L68">
-        <v>3.5</v>
-      </c>
-      <c r="M68">
-        <v>3.75</v>
-      </c>
-      <c r="N68">
-        <v>1.85</v>
-      </c>
-      <c r="O68">
-        <v>3.4</v>
-      </c>
-      <c r="P68">
-        <v>3.8</v>
-      </c>
-      <c r="Q68">
-        <v>-0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
+        <v>1.8</v>
+      </c>
+      <c r="V68">
         <v>2</v>
       </c>
-      <c r="V68">
-        <v>1.8</v>
-      </c>
       <c r="W68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6576,7 +6576,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6588,73 +6588,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.8</v>
       </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,73 +8457,73 @@
         <v>45150.375</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L90">
         <v>3.6</v>
       </c>
       <c r="M90">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N90">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
         <v>1.875</v>
-      </c>
-      <c r="S90">
-        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,73 +8546,73 @@
         <v>45150.375</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L91">
         <v>3.6</v>
       </c>
       <c r="M91">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N91">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>1.925</v>
-      </c>
-      <c r="S91">
-        <v>1.875</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.925</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8917,40 +8917,40 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L95">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC95">
         <v>-0.5</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96">
+        <v>4.75</v>
+      </c>
+      <c r="L96">
+        <v>3.8</v>
+      </c>
+      <c r="M96">
+        <v>1.6</v>
+      </c>
+      <c r="N96">
         <v>5</v>
       </c>
-      <c r="I96">
-        <v>4</v>
-      </c>
-      <c r="J96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K96">
-        <v>1.85</v>
-      </c>
-      <c r="L96">
-        <v>3.5</v>
-      </c>
-      <c r="M96">
-        <v>3.75</v>
-      </c>
-      <c r="N96">
-        <v>1.85</v>
-      </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
+        <v>1.75</v>
+      </c>
+      <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>0.571</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>-0</v>
+      </c>
+      <c r="AB96">
+        <v>0.375</v>
+      </c>
+      <c r="AC96">
         <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.925</v>
-      </c>
-      <c r="T96">
-        <v>3</v>
-      </c>
-      <c r="U96">
-        <v>1.925</v>
-      </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
-      <c r="W96">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>0.875</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>0.925</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858913</v>
+        <v>6858912</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
         <v>3.5</v>
       </c>
       <c r="M97">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
+        <v>1.875</v>
+      </c>
+      <c r="S97">
         <v>1.925</v>
       </c>
-      <c r="S97">
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.925</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="T97">
-        <v>2.75</v>
-      </c>
-      <c r="U97">
-        <v>1.875</v>
-      </c>
-      <c r="V97">
-        <v>1.925</v>
-      </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,73 +9436,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
         <v>3.6</v>
       </c>
       <c r="M101">
+        <v>2.4</v>
+      </c>
+      <c r="N101">
+        <v>2.375</v>
+      </c>
+      <c r="O101">
+        <v>3.8</v>
+      </c>
+      <c r="P101">
+        <v>2.4</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
         <v>1.9</v>
       </c>
-      <c r="N101">
-        <v>2.875</v>
-      </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>2.1</v>
-      </c>
-      <c r="Q101">
-        <v>0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.925</v>
-      </c>
-      <c r="S101">
-        <v>1.875</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z101">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,73 +9525,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
         <v>3.6</v>
       </c>
       <c r="M102">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
+        <v>1.925</v>
+      </c>
+      <c r="S102">
+        <v>1.875</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
         <v>1.85</v>
       </c>
-      <c r="S102">
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6858926</v>
+        <v>6858927</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,40 +10148,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K109">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L109">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="N109">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
         <v>2</v>
@@ -10193,31 +10193,31 @@
         <v>3</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6858925</v>
+        <v>6858926</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,40 +10237,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>1.625</v>
+        <v>2.35</v>
       </c>
       <c r="N110">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
         <v>2</v>
@@ -10279,34 +10279,34 @@
         <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y110">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10314,7 +10314,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858927</v>
+        <v>6858925</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10326,13 +10326,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -10344,19 +10344,19 @@
         <v>4.333</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>1.7</v>
+        <v>1.625</v>
       </c>
       <c r="N111">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="Q111">
         <v>0.75</v>
@@ -10368,13 +10368,13 @@
         <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10383,7 +10383,7 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="Z111">
         <v>-1</v>
@@ -10392,10 +10392,10 @@
         <v>0.8</v>
       </c>
       <c r="AB111">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,34 +10504,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
         <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
         <v>2.55</v>
@@ -10540,40 +10540,40 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,34 +10593,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N114">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
         <v>2.55</v>
@@ -10629,40 +10629,40 @@
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -12183,7 +12183,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12195,40 +12195,40 @@
         <v>45199.375</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L132">
         <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R132">
         <v>1.975</v>
@@ -12237,7 +12237,7 @@
         <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
         <v>1.825</v>
@@ -12246,10 +12246,10 @@
         <v>1.975</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X132">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12261,10 +12261,10 @@
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,40 +12284,40 @@
         <v>45199.375</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L133">
         <v>3.5</v>
       </c>
       <c r="M133">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N133">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12326,7 +12326,7 @@
         <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12335,10 +12335,10 @@
         <v>1.975</v>
       </c>
       <c r="W133">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12350,10 +12350,10 @@
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12628,7 +12628,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6858955</v>
+        <v>6858953</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12640,76 +12640,76 @@
         <v>45206.375</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12717,7 +12717,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6858953</v>
+        <v>6858955</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,76 +12729,76 @@
         <v>45206.375</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>46</v>
+      </c>
+      <c r="K138">
+        <v>1.6</v>
+      </c>
+      <c r="L138">
+        <v>3.75</v>
+      </c>
+      <c r="M138">
+        <v>4.75</v>
+      </c>
+      <c r="N138">
+        <v>1.444</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>6.5</v>
+      </c>
+      <c r="Q138">
+        <v>-1.25</v>
+      </c>
+      <c r="R138">
+        <v>1.975</v>
+      </c>
+      <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>1.8</v>
+      </c>
+      <c r="V138">
         <v>2</v>
       </c>
-      <c r="J138" t="s">
-        <v>44</v>
-      </c>
-      <c r="K138">
-        <v>2.875</v>
-      </c>
-      <c r="L138">
-        <v>3.6</v>
-      </c>
-      <c r="M138">
-        <v>2.15</v>
-      </c>
-      <c r="N138">
-        <v>3.4</v>
-      </c>
-      <c r="O138">
-        <v>3.5</v>
-      </c>
-      <c r="P138">
-        <v>1.909</v>
-      </c>
-      <c r="Q138">
-        <v>0.5</v>
-      </c>
-      <c r="R138">
-        <v>1.85</v>
-      </c>
-      <c r="S138">
-        <v>1.95</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.95</v>
-      </c>
-      <c r="V138">
-        <v>1.85</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y138">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,73 +13263,73 @@
         <v>45213.375</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N144">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O144">
+        <v>3.8</v>
+      </c>
+      <c r="P144">
+        <v>4.75</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.8</v>
+      </c>
+      <c r="V144">
+        <v>2</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
         <v>3.75</v>
       </c>
-      <c r="P144">
-        <v>1.909</v>
-      </c>
-      <c r="Q144">
-        <v>0.5</v>
-      </c>
-      <c r="R144">
-        <v>1.825</v>
-      </c>
-      <c r="S144">
-        <v>1.975</v>
-      </c>
-      <c r="T144">
-        <v>3.25</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.875</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>0.909</v>
-      </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,55 +13352,55 @@
         <v>45213.375</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N145">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13409,16 +13409,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13429,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13441,10 +13441,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13456,46 +13456,46 @@
         <v>46</v>
       </c>
       <c r="K146">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L146">
+        <v>3.8</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146">
+        <v>1.65</v>
+      </c>
+      <c r="O146">
         <v>3.6</v>
       </c>
-      <c r="M146">
-        <v>4.2</v>
-      </c>
-      <c r="N146">
-        <v>1.615</v>
-      </c>
-      <c r="O146">
-        <v>3.75</v>
-      </c>
       <c r="P146">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q146">
         <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13518,7 +13518,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13530,10 +13530,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13545,46 +13545,46 @@
         <v>46</v>
       </c>
       <c r="K147">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N147">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
         <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -13593,13 +13593,13 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13607,7 +13607,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6859010</v>
+        <v>6859007</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13619,76 +13619,76 @@
         <v>45220.375</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N148">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q148">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13696,7 +13696,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6859007</v>
+        <v>6859011</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13708,76 +13708,76 @@
         <v>45220.375</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K149">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N149">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
+        <v>1.75</v>
+      </c>
+      <c r="S149">
+        <v>1.95</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.8</v>
+      </c>
+      <c r="V149">
         <v>2</v>
       </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>1.975</v>
-      </c>
-      <c r="V149">
-        <v>1.825</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y149">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
+        <v>0.475</v>
+      </c>
+      <c r="AB149">
         <v>0.8</v>
       </c>
-      <c r="AB149">
-        <v>0.4875</v>
-      </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6859008</v>
+        <v>6859010</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,73 +13797,73 @@
         <v>45220.375</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K150">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M150">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N150">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6859011</v>
+        <v>6859008</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,10 +13886,10 @@
         <v>45220.375</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13901,31 +13901,31 @@
         <v>46</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
         <v>2.5</v>
@@ -13940,16 +13940,16 @@
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA151">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>0.8</v>
@@ -14319,7 +14319,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,76 +14331,76 @@
         <v>45227.375</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N156">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
         <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y156">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB156">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14408,7 +14408,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14420,76 +14420,76 @@
         <v>45227.375</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K157">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14853,7 +14853,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6859035</v>
+        <v>6859037</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14865,58 +14865,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162">
         <v>2</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>45</v>
       </c>
       <c r="K162">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N162">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P162">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>2.3</v>
+        <v>0.363</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14925,13 +14925,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB162">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14942,7 +14942,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6859037</v>
+        <v>6859035</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14954,58 +14954,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>45</v>
       </c>
       <c r="K163">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O163">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>2.3</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15014,13 +15014,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15832,7 +15832,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6859067</v>
+        <v>6859059</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15844,73 +15844,73 @@
         <v>45248.375</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K173">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M173">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N173">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z173">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB173">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15921,7 +15921,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6859059</v>
+        <v>6859067</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15933,73 +15933,73 @@
         <v>45248.375</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N174">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q174">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA174">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC174">
         <v>-1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5235009</v>
+        <v>5235066</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N24">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5235066</v>
+        <v>5235009</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,76 +2672,76 @@
         <v>45022.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>1.833</v>
+      </c>
+      <c r="N25">
+        <v>4.333</v>
+      </c>
+      <c r="O25">
+        <v>3.3</v>
+      </c>
+      <c r="P25">
+        <v>1.85</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
+      </c>
+      <c r="R25">
         <v>1.95</v>
       </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>3.4</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
-      <c r="O25">
-        <v>3.4</v>
-      </c>
-      <c r="P25">
-        <v>3.1</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5235067</v>
+        <v>5235068</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2761,76 +2761,76 @@
         <v>45022.375</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N26">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5235068</v>
+        <v>5235067</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45022.375</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
+        <v>2.8</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
         <v>2.5</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
+      <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="S27">
-        <v>1.925</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>2.025</v>
-      </c>
-      <c r="V27">
-        <v>1.775</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>0.925</v>
       </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5235070</v>
+        <v>5237818</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,76 +2939,76 @@
         <v>45026.375</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>2.8</v>
+      </c>
+      <c r="L28">
+        <v>3.75</v>
+      </c>
+      <c r="M28">
+        <v>2.1</v>
+      </c>
+      <c r="N28">
+        <v>2.9</v>
+      </c>
+      <c r="O28">
+        <v>3.75</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>0.25</v>
+      </c>
+      <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.825</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28">
-        <v>1.533</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="N28">
-        <v>1.65</v>
-      </c>
-      <c r="O28">
-        <v>3.8</v>
-      </c>
-      <c r="P28">
-        <v>4.333</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
+      <c r="U28">
+        <v>2.15</v>
+      </c>
+      <c r="V28">
+        <v>1.675</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>2.75</v>
       </c>
-      <c r="U28">
-        <v>1.925</v>
-      </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
-      <c r="W28">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5237818</v>
+        <v>5235070</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45026.375</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
+        <v>4.333</v>
+      </c>
+      <c r="Q29">
+        <v>-0.75</v>
+      </c>
+      <c r="R29">
+        <v>1.8</v>
+      </c>
+      <c r="S29">
         <v>2</v>
       </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.975</v>
-      </c>
-      <c r="S29">
-        <v>1.825</v>
-      </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.675</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X29">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>0.675</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5244467</v>
+        <v>5244468</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,10 +3117,10 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,25 +3132,25 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
         <v>1.975</v>
@@ -3162,31 +3162,31 @@
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244468</v>
+        <v>5244467</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,10 +3295,10 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3310,25 +3310,25 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P32">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R32">
         <v>1.975</v>
@@ -3340,31 +3340,31 @@
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8917,40 +8917,40 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M95">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N95">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC95">
         <v>-0.5</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L96">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858912</v>
+        <v>6858913</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
         <v>3.5</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N97">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q97">
+        <v>-0.25</v>
+      </c>
+      <c r="R97">
+        <v>1.925</v>
+      </c>
+      <c r="S97">
+        <v>1.875</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.875</v>
+      </c>
+      <c r="V97">
+        <v>1.925</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>1.9</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.875</v>
+      </c>
+      <c r="AB97">
+        <v>0.4375</v>
+      </c>
+      <c r="AC97">
         <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
-      <c r="W97">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>0.875</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.925</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -121,16 +121,16 @@
     <t>Hellerup IK</t>
   </si>
   <si>
+    <t>Thisted FC</t>
+  </si>
+  <si>
     <t>FC Roskilde</t>
   </si>
   <si>
-    <t>Thisted FC</t>
+    <t>Frem</t>
   </si>
   <si>
     <t>Brabrand</t>
-  </si>
-  <si>
-    <t>Frem</t>
   </si>
   <si>
     <t>AB Copenhagen</t>
@@ -806,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5235059</v>
+        <v>5235060</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,52 +1251,52 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
+        <v>3.1</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+      <c r="M9">
+        <v>2.1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
         <v>3.6</v>
       </c>
-      <c r="L9">
-        <v>3.6</v>
-      </c>
-      <c r="M9">
-        <v>1.833</v>
-      </c>
-      <c r="N9">
-        <v>2.875</v>
-      </c>
-      <c r="O9">
-        <v>3.3</v>
-      </c>
       <c r="P9">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1305,19 +1305,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5235060</v>
+        <v>5235059</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,53 +1340,53 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
+        <v>1.85</v>
+      </c>
+      <c r="S10">
+        <v>1.95</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.975</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>1.8</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1394,19 +1394,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5235003</v>
+        <v>5244465</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,73 +1429,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N11">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5244465</v>
+        <v>5235003</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q12">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2052,7 +2052,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5237820</v>
+        <v>5235007</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,13 +2316,13 @@
         <v>45017.375</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2331,25 +2331,25 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.925</v>
@@ -2361,13 +2361,13 @@
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,7 +2385,7 @@
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5235007</v>
+        <v>5237820</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,13 +2405,13 @@
         <v>45017.375</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2420,25 +2420,25 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
         <v>1.925</v>
@@ -2450,13 +2450,13 @@
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2474,7 +2474,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5235068</v>
+        <v>5235067</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2761,76 +2761,76 @@
         <v>45022.375</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
+        <v>2.8</v>
+      </c>
+      <c r="Q26">
+        <v>-0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
         <v>2.5</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>2.025</v>
-      </c>
-      <c r="V26">
-        <v>1.775</v>
-      </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.925</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5235067</v>
+        <v>5235068</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45022.375</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5237818</v>
+        <v>5244467</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,40 +2939,40 @@
         <v>45026.375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
       </c>
       <c r="K28">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N28">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
         <v>1.975</v>
@@ -2981,34 +2981,34 @@
         <v>1.825</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2.15</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.675</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.675</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5235070</v>
+        <v>5237818</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45026.375</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>2.8</v>
+      </c>
+      <c r="L29">
+        <v>3.75</v>
+      </c>
+      <c r="M29">
+        <v>2.1</v>
+      </c>
+      <c r="N29">
+        <v>2.9</v>
+      </c>
+      <c r="O29">
+        <v>3.75</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>0.25</v>
+      </c>
+      <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.825</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29">
-        <v>1.533</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>5</v>
-      </c>
-      <c r="N29">
-        <v>1.65</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
-      <c r="P29">
-        <v>4.333</v>
-      </c>
-      <c r="Q29">
-        <v>-0.75</v>
-      </c>
-      <c r="R29">
-        <v>1.8</v>
-      </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
+      <c r="U29">
+        <v>2.15</v>
+      </c>
+      <c r="V29">
+        <v>1.675</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>2.75</v>
       </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
-      <c r="W29">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5244468</v>
+        <v>5235070</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45026.375</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X30">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>45026.375</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5244467</v>
+        <v>5244468</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,10 +3295,10 @@
         <v>45026.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3310,25 +3310,25 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
         <v>1.975</v>
@@ -3340,31 +3340,31 @@
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>45031.375</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3473,7 +3473,7 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3740,7 +3740,7 @@
         <v>45032.4375</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3995,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6532911</v>
+        <v>6529375</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4007,58 +4007,58 @@
         <v>45038.375</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>1.4</v>
+      </c>
+      <c r="O40">
         <v>4</v>
       </c>
-      <c r="N40">
-        <v>1.727</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
       <c r="P40">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4067,16 +4067,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
+        <v>0.425</v>
+      </c>
+      <c r="AB40">
+        <v>0.425</v>
+      </c>
+      <c r="AC40">
         <v>-0.5</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
-      <c r="AC40">
-        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6529375</v>
+        <v>6532911</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,58 +4096,58 @@
         <v>45038.375</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>45</v>
       </c>
       <c r="K41">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L41">
+        <v>3.5</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>1.727</v>
+      </c>
+      <c r="O41">
         <v>3.6</v>
       </c>
-      <c r="M41">
-        <v>5</v>
-      </c>
-      <c r="N41">
-        <v>1.4</v>
-      </c>
-      <c r="O41">
+      <c r="P41">
         <v>4</v>
       </c>
-      <c r="P41">
-        <v>7.5</v>
-      </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4156,16 +4156,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.4875</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.425</v>
-      </c>
       <c r="AB41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -4363,7 +4363,7 @@
         <v>45045.375</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
@@ -4452,10 +4452,10 @@
         <v>45045.375</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4897,10 +4897,10 @@
         <v>45052.375</v>
       </c>
       <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
         <v>37</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6529379</v>
+        <v>6529380</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,55 +4986,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O51">
         <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5043,19 +5043,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6529380</v>
+        <v>6529379</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,55 +5075,55 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
         <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5132,19 +5132,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5253,10 +5253,10 @@
         <v>45059.375</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5597,7 +5597,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6529277</v>
+        <v>6533529</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5609,73 +5609,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N58">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6533529</v>
+        <v>6529277</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,73 +5698,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L59">
         <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N59">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5876,7 +5876,7 @@
         <v>45067.375</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6057,7 +6057,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6533530</v>
+        <v>6529280</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,37 +6146,37 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N64">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
         <v>1.825</v>
@@ -6188,31 +6188,31 @@
         <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
+        <v>0.425</v>
+      </c>
+      <c r="AC64">
         <v>-0.5</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6529280</v>
+        <v>6533530</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,37 +6324,37 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
+        <v>2.5</v>
+      </c>
+      <c r="L66">
+        <v>3.5</v>
+      </c>
+      <c r="M66">
         <v>2.4</v>
       </c>
-      <c r="L66">
-        <v>3.6</v>
-      </c>
-      <c r="M66">
-        <v>2.45</v>
-      </c>
       <c r="N66">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
         <v>1.825</v>
@@ -6366,31 +6366,31 @@
         <v>2.75</v>
       </c>
       <c r="U66">
+        <v>1.95</v>
+      </c>
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="V66">
-        <v>1.95</v>
-      </c>
       <c r="W66">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,73 +6499,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
         <v>1.8</v>
       </c>
-      <c r="V68">
-        <v>2</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X68">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6576,7 +6576,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6588,73 +6588,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
+        <v>1.444</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>6.25</v>
+      </c>
+      <c r="N69">
+        <v>1.5</v>
+      </c>
+      <c r="O69">
+        <v>4.2</v>
+      </c>
+      <c r="P69">
+        <v>5</v>
+      </c>
+      <c r="Q69">
+        <v>-1</v>
+      </c>
+      <c r="R69">
         <v>1.85</v>
       </c>
-      <c r="L69">
-        <v>3.5</v>
-      </c>
-      <c r="M69">
-        <v>3.75</v>
-      </c>
-      <c r="N69">
-        <v>1.85</v>
-      </c>
-      <c r="O69">
-        <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>3.8</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.825</v>
-      </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U69">
+        <v>1.8</v>
+      </c>
+      <c r="V69">
         <v>2</v>
       </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
       <c r="W69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6858,7 +6858,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6947,7 +6947,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7033,7 +7033,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -7122,7 +7122,7 @@
         <v>45087.5</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6532919</v>
+        <v>6533424</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,76 +7389,76 @@
         <v>45094.375</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K78">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N78">
+        <v>2.25</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78">
+        <v>2.5</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1.775</v>
+      </c>
+      <c r="S78">
+        <v>2.025</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.9</v>
+      </c>
+      <c r="V78">
+        <v>1.9</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>1.5</v>
       </c>
-      <c r="O78">
-        <v>4.333</v>
-      </c>
-      <c r="P78">
-        <v>5</v>
-      </c>
-      <c r="Q78">
-        <v>-1</v>
-      </c>
-      <c r="R78">
-        <v>1.8</v>
-      </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
-      <c r="T78">
-        <v>3.25</v>
-      </c>
-      <c r="U78">
-        <v>1.95</v>
-      </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
-      <c r="W78">
-        <v>0.5</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6533424</v>
+        <v>6532919</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,76 +7478,76 @@
         <v>45094.375</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K79">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L79">
+        <v>3.8</v>
+      </c>
+      <c r="M79">
         <v>3.75</v>
       </c>
-      <c r="M79">
-        <v>2.3</v>
-      </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P79">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7656,10 +7656,10 @@
         <v>45094.375</v>
       </c>
       <c r="F81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" t="s">
         <v>38</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8012,7 +8012,7 @@
         <v>45143.375</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>43</v>
@@ -8101,10 +8101,10 @@
         <v>45143.375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,73 +8457,73 @@
         <v>45150.375</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L90">
         <v>3.6</v>
       </c>
       <c r="M90">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N90">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
         <v>1.925</v>
-      </c>
-      <c r="S90">
-        <v>1.875</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
         <v>0.925</v>
       </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,73 +8546,73 @@
         <v>45150.375</v>
       </c>
       <c r="F91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s">
         <v>36</v>
       </c>
-      <c r="G91" t="s">
-        <v>40</v>
-      </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L91">
         <v>3.6</v>
       </c>
       <c r="M91">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N91">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
         <v>1.875</v>
-      </c>
-      <c r="S91">
-        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8638,7 +8638,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8917,40 +8917,40 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L95">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC95">
         <v>-0.5</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,10 +9080,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9095,40 +9095,40 @@
         <v>44</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M97">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N97">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9137,16 +9137,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC97">
         <v>-0.5</v>
@@ -9169,7 +9169,7 @@
         <v>45157.375</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -9261,7 +9261,7 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9350,7 +9350,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,76 +9614,76 @@
         <v>45164.375</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N103">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>1.925</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
         <v>1.9</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.9</v>
       </c>
-      <c r="T103">
-        <v>2.75</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45164.375</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
+        <v>2.1</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>2.9</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.9</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>3.3</v>
-      </c>
-      <c r="Q104">
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.5</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>1.875</v>
-      </c>
-      <c r="S104">
-        <v>1.925</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
-      <c r="U104">
-        <v>1.9</v>
-      </c>
-      <c r="V104">
-        <v>1.9</v>
-      </c>
-      <c r="W104">
+      <c r="AA104">
+        <v>0.45</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0.875</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -9884,7 +9884,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10059,7 +10059,7 @@
         <v>45171.375</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6858927</v>
+        <v>6858925</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,13 +10148,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -10166,19 +10166,19 @@
         <v>4.333</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>1.7</v>
+        <v>1.625</v>
       </c>
       <c r="N109">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="Q109">
         <v>0.75</v>
@@ -10190,13 +10190,13 @@
         <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10205,7 +10205,7 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="Z109">
         <v>-1</v>
@@ -10214,10 +10214,10 @@
         <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6858926</v>
+        <v>6858927</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,40 +10237,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L110">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="N110">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
         <v>2</v>
@@ -10282,31 +10282,31 @@
         <v>3</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10314,7 +10314,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6858925</v>
+        <v>6858926</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10326,40 +10326,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>1.625</v>
+        <v>2.35</v>
       </c>
       <c r="N111">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R111">
         <v>2</v>
@@ -10368,34 +10368,34 @@
         <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y111">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,31 +10507,31 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L113">
         <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
         <v>2.55</v>
@@ -10540,40 +10540,40 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,31 +10596,31 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
         <v>3.5</v>
       </c>
       <c r="M114">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
         <v>2.55</v>
@@ -10629,40 +10629,40 @@
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6858933</v>
+        <v>6858934</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,73 +10771,73 @@
         <v>45179.375</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
       <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>1.55</v>
+      </c>
+      <c r="L116">
         <v>4</v>
       </c>
-      <c r="J116" t="s">
-        <v>44</v>
-      </c>
-      <c r="K116">
-        <v>1.35</v>
-      </c>
-      <c r="L116">
+      <c r="M116">
         <v>5</v>
       </c>
-      <c r="M116">
-        <v>6.5</v>
-      </c>
       <c r="N116">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O116">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>3</v>
+      </c>
+      <c r="U116">
         <v>1.9</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.9</v>
       </c>
-      <c r="T116">
-        <v>3.25</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB116">
-        <v>0.925</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10848,7 +10848,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6858934</v>
+        <v>6858933</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10860,73 +10860,73 @@
         <v>45179.375</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M117">
+        <v>6.5</v>
+      </c>
+      <c r="N117">
+        <v>1.333</v>
+      </c>
+      <c r="O117">
+        <v>5.5</v>
+      </c>
+      <c r="P117">
+        <v>6</v>
+      </c>
+      <c r="Q117">
+        <v>-1.5</v>
+      </c>
+      <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.9</v>
+      </c>
+      <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>1.925</v>
+      </c>
+      <c r="V117">
+        <v>1.875</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
         <v>5</v>
       </c>
-      <c r="N117">
-        <v>1.5</v>
-      </c>
-      <c r="O117">
-        <v>4.2</v>
-      </c>
-      <c r="P117">
-        <v>5.25</v>
-      </c>
-      <c r="Q117">
-        <v>-1</v>
-      </c>
-      <c r="R117">
-        <v>1.8</v>
-      </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.9</v>
-      </c>
-      <c r="V117">
-        <v>1.9</v>
-      </c>
-      <c r="W117">
-        <v>0.5</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>-1</v>
-      </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11041,7 +11041,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11216,10 +11216,10 @@
         <v>45185.375</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
         <v>34</v>
@@ -11750,7 +11750,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11842,7 +11842,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>45199.375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12284,7 +12284,7 @@
         <v>45199.375</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>29</v>
@@ -12376,7 +12376,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12554,7 +12554,7 @@
         <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12818,7 +12818,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>43</v>
@@ -12910,7 +12910,7 @@
         <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,55 +13263,55 @@
         <v>45213.375</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N144">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,73 +13352,73 @@
         <v>45213.375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N145">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O145">
+        <v>3.8</v>
+      </c>
+      <c r="P145">
+        <v>4.75</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
+        <v>1.8</v>
+      </c>
+      <c r="V145">
+        <v>2</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
         <v>3.75</v>
       </c>
-      <c r="P145">
-        <v>1.909</v>
-      </c>
-      <c r="Q145">
-        <v>0.5</v>
-      </c>
-      <c r="R145">
-        <v>1.825</v>
-      </c>
-      <c r="S145">
-        <v>1.975</v>
-      </c>
-      <c r="T145">
-        <v>3.25</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
-      <c r="V145">
-        <v>1.875</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>0.909</v>
-      </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13444,7 +13444,7 @@
         <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13607,7 +13607,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6859007</v>
+        <v>6859008</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13619,76 +13619,76 @@
         <v>45220.375</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>3.6</v>
       </c>
       <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
+        <v>1.85</v>
+      </c>
+      <c r="N148">
         <v>3.4</v>
       </c>
-      <c r="M148">
+      <c r="O148">
+        <v>3.6</v>
+      </c>
+      <c r="P148">
         <v>1.909</v>
       </c>
-      <c r="N148">
-        <v>3.2</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
-      <c r="P148">
-        <v>2.05</v>
-      </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>1.8</v>
+      </c>
+      <c r="V148">
         <v>2</v>
       </c>
-      <c r="S148">
-        <v>1.8</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.975</v>
-      </c>
-      <c r="V148">
-        <v>1.825</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y148">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
         <v>0.8</v>
       </c>
-      <c r="AB148">
-        <v>0.4875</v>
-      </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13696,7 +13696,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6859011</v>
+        <v>6859010</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13708,73 +13708,73 @@
         <v>45220.375</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L149">
+        <v>6.5</v>
+      </c>
+      <c r="M149">
+        <v>9</v>
+      </c>
+      <c r="N149">
+        <v>1.2</v>
+      </c>
+      <c r="O149">
+        <v>6.5</v>
+      </c>
+      <c r="P149">
+        <v>10</v>
+      </c>
+      <c r="Q149">
+        <v>-2</v>
+      </c>
+      <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
         <v>3.5</v>
       </c>
-      <c r="M149">
-        <v>3.3</v>
-      </c>
-      <c r="N149">
-        <v>2</v>
-      </c>
-      <c r="O149">
-        <v>3.5</v>
-      </c>
-      <c r="P149">
-        <v>3.3</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.75</v>
-      </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6859010</v>
+        <v>6859011</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,73 +13797,73 @@
         <v>45220.375</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L150">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N150">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q150">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB150">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,76 +13886,76 @@
         <v>45220.375</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.6</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N151">
+        <v>3.2</v>
+      </c>
+      <c r="O151">
         <v>3.4</v>
       </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
       <c r="P151">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>1.8</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>1.975</v>
+      </c>
+      <c r="V151">
         <v>1.825</v>
       </c>
-      <c r="S151">
-        <v>1.975</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.8</v>
-      </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13975,7 +13975,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
         <v>34</v>
@@ -14331,10 +14331,10 @@
         <v>45227.375</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>4</v>
@@ -14598,7 +14598,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>39</v>
@@ -14690,7 +14690,7 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14954,7 +14954,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
         <v>42</v>
@@ -15046,7 +15046,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15209,7 +15209,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15221,13 +15221,13 @@
         <v>45240.625</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15236,43 +15236,43 @@
         <v>45</v>
       </c>
       <c r="K166">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N166">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15281,16 +15281,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15298,7 +15298,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15310,13 +15310,13 @@
         <v>45240.625</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15325,43 +15325,43 @@
         <v>45</v>
       </c>
       <c r="K167">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N167">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15370,16 +15370,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15832,7 +15832,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6859059</v>
+        <v>6859067</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15844,73 +15844,73 @@
         <v>45248.375</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N173">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P173">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q173">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15921,7 +15921,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6859067</v>
+        <v>6859059</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15933,73 +15933,73 @@
         <v>45248.375</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K174">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M174">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N174">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z174">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB174">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16010,7 +16010,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6859062</v>
+        <v>6859064</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16022,76 +16022,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K175">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="L175">
         <v>3.6</v>
       </c>
       <c r="M175">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N175">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="Q175">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
         <v>1.9</v>
       </c>
-      <c r="S175">
+      <c r="V175">
         <v>1.9</v>
       </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.8</v>
-      </c>
-      <c r="V175">
-        <v>2</v>
-      </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
-      <c r="AC175">
-        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16099,7 +16099,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6859064</v>
+        <v>6859062</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16111,76 +16111,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="L176">
         <v>3.6</v>
       </c>
       <c r="M176">
+        <v>1.615</v>
+      </c>
+      <c r="N176">
         <v>5.25</v>
       </c>
-      <c r="N176">
-        <v>1.666</v>
-      </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P176">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y176">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16200,10 +16200,10 @@
         <v>45248.45833333334</v>
       </c>
       <c r="F177" t="s">
+        <v>35</v>
+      </c>
+      <c r="G177" t="s">
         <v>36</v>
-      </c>
-      <c r="G177" t="s">
-        <v>35</v>
       </c>
       <c r="H177">
         <v>1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6529391</v>
+        <v>6532919</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6532919</v>
+        <v>6529284</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,49 +1604,49 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L13">
         <v>3.8</v>
       </c>
       <c r="M13">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>1.95</v>
@@ -1655,25 +1655,25 @@
         <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6529284</v>
+        <v>6533424</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N14">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6533424</v>
+        <v>6529391</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P15">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>3.75</v>
+      </c>
+      <c r="L18">
+        <v>3.75</v>
+      </c>
+      <c r="M18">
+        <v>1.727</v>
+      </c>
+      <c r="N18">
+        <v>4.333</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>1.6</v>
+      </c>
+      <c r="Q18">
+        <v>0.75</v>
+      </c>
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>1.833</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.4</v>
-      </c>
-      <c r="N18">
-        <v>1.833</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
-      </c>
-      <c r="Q18">
-        <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>4.75</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>1.6</v>
+      </c>
+      <c r="N31">
         <v>5</v>
       </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31">
-        <v>1.85</v>
-      </c>
-      <c r="L31">
-        <v>3.5</v>
-      </c>
-      <c r="M31">
-        <v>3.75</v>
-      </c>
-      <c r="N31">
-        <v>1.85</v>
-      </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1.8</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.75</v>
+      </c>
+      <c r="V31">
+        <v>1.95</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>0.571</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>-0</v>
+      </c>
+      <c r="AB31">
+        <v>0.375</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.925</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.875</v>
-      </c>
-      <c r="W31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>0.875</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>0.925</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,73 +3562,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.85</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1.95</v>
       </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.9</v>
-      </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3639,7 +3639,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3651,73 +3651,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
         <v>3.6</v>
       </c>
       <c r="M36">
+        <v>2.4</v>
+      </c>
+      <c r="N36">
+        <v>2.375</v>
+      </c>
+      <c r="O36">
+        <v>3.8</v>
+      </c>
+      <c r="P36">
+        <v>2.4</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
         <v>1.9</v>
       </c>
-      <c r="N36">
-        <v>2.875</v>
-      </c>
-      <c r="O36">
-        <v>3.6</v>
-      </c>
-      <c r="P36">
-        <v>2.1</v>
-      </c>
-      <c r="Q36">
-        <v>0.25</v>
-      </c>
-      <c r="R36">
-        <v>1.925</v>
-      </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z36">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858924</v>
+        <v>6858923</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,22 +4096,22 @@
         <v>45171.375</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
         <v>3.5</v>
@@ -4120,52 +4120,52 @@
         <v>2.9</v>
       </c>
       <c r="N41">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y41">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858923</v>
+        <v>6858924</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,22 +4185,22 @@
         <v>45171.375</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L42">
         <v>3.5</v>
@@ -4209,52 +4209,52 @@
         <v>2.9</v>
       </c>
       <c r="N42">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858926</v>
+        <v>6858927</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4408,31 +4408,31 @@
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858927</v>
+        <v>6858926</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,40 +4452,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="N45">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4497,31 +4497,31 @@
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,34 +4541,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
         <v>2.55</v>
@@ -4577,40 +4577,40 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858928</v>
+        <v>6858929</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,10 +4630,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4645,25 +4645,25 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O47">
         <v>3.4</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>1.85</v>
@@ -4672,16 +4672,16 @@
         <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
+        <v>1.875</v>
+      </c>
+      <c r="V47">
         <v>1.925</v>
       </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4699,7 +4699,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6858930</v>
+        <v>6858928</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,76 +4719,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L48">
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N48">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X48">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6858934</v>
+        <v>6858933</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,73 +4897,73 @@
         <v>45179.375</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>6.5</v>
+      </c>
+      <c r="N50">
+        <v>1.333</v>
+      </c>
+      <c r="O50">
+        <v>5.5</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>-1.5</v>
+      </c>
+      <c r="R50">
+        <v>1.9</v>
+      </c>
+      <c r="S50">
+        <v>1.9</v>
+      </c>
+      <c r="T50">
+        <v>3.25</v>
+      </c>
+      <c r="U50">
+        <v>1.925</v>
+      </c>
+      <c r="V50">
+        <v>1.875</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
         <v>5</v>
       </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4.2</v>
-      </c>
-      <c r="P50">
-        <v>5.25</v>
-      </c>
-      <c r="Q50">
-        <v>-1</v>
-      </c>
-      <c r="R50">
-        <v>1.8</v>
-      </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
-      <c r="W50">
-        <v>0.5</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6858933</v>
+        <v>6858934</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,73 +4986,73 @@
         <v>45179.375</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51">
+        <v>1.55</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>46</v>
-      </c>
-      <c r="K51">
-        <v>1.35</v>
-      </c>
-      <c r="L51">
+      <c r="M51">
         <v>5</v>
       </c>
-      <c r="M51">
-        <v>6.5</v>
-      </c>
       <c r="N51">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
         <v>1.9</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.9</v>
       </c>
-      <c r="T51">
-        <v>3.25</v>
-      </c>
-      <c r="U51">
-        <v>1.925</v>
-      </c>
-      <c r="V51">
-        <v>1.875</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB51">
-        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N66">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6363,7 +6363,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.825</v>
@@ -6372,10 +6372,10 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,40 +6410,40 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6452,7 +6452,7 @@
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6461,10 +6461,10 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,10 +6476,10 @@
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,73 +7389,73 @@
         <v>45213.375</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O78">
+        <v>3.8</v>
+      </c>
+      <c r="P78">
+        <v>4.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.8</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>3.75</v>
       </c>
-      <c r="P78">
-        <v>1.909</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.825</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>3.25</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>0.909</v>
-      </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,55 +7478,55 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,10 +7567,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,46 +7582,46 @@
         <v>44</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7630,13 +7630,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,10 +7656,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7671,46 +7671,46 @@
         <v>44</v>
       </c>
       <c r="K81">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L81">
+        <v>3.8</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>1.65</v>
+      </c>
+      <c r="O81">
         <v>3.6</v>
       </c>
-      <c r="M81">
-        <v>4.2</v>
-      </c>
-      <c r="N81">
-        <v>1.615</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q81">
         <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7719,13 +7719,13 @@
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859007</v>
+        <v>6859011</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
         <v>2</v>
       </c>
-      <c r="S82">
-        <v>1.8</v>
-      </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.975</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
+        <v>0.475</v>
+      </c>
+      <c r="AB82">
         <v>0.8</v>
       </c>
-      <c r="AB82">
-        <v>0.4875</v>
-      </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859011</v>
+        <v>6859010</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,73 +7834,73 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L83">
+        <v>6.5</v>
+      </c>
+      <c r="M83">
+        <v>9</v>
+      </c>
+      <c r="N83">
+        <v>1.2</v>
+      </c>
+      <c r="O83">
+        <v>6.5</v>
+      </c>
+      <c r="P83">
+        <v>10</v>
+      </c>
+      <c r="Q83">
+        <v>-2</v>
+      </c>
+      <c r="R83">
+        <v>1.9</v>
+      </c>
+      <c r="S83">
+        <v>1.9</v>
+      </c>
+      <c r="T83">
         <v>3.5</v>
       </c>
-      <c r="M83">
-        <v>3.3</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>3.3</v>
-      </c>
-      <c r="Q83">
-        <v>-0.25</v>
-      </c>
-      <c r="R83">
-        <v>1.75</v>
-      </c>
-      <c r="S83">
-        <v>1.95</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859010</v>
+        <v>6859007</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N85">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="O85">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,76 +8457,76 @@
         <v>45227.375</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y90">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N91">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,49 +8635,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N92">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
         <v>1.9</v>
@@ -8692,19 +8692,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859037</v>
+        <v>6859035</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,58 +8902,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>45</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.363</v>
+        <v>2.3</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859041</v>
+        <v>6859037</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,40 +8991,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>2</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>45</v>
       </c>
       <c r="K96">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N96">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
         <v>1.775</v>
@@ -9033,16 +9033,16 @@
         <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859035</v>
+        <v>6859041</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,10 +9080,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9095,43 +9095,43 @@
         <v>45</v>
       </c>
       <c r="K97">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N97">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>2.3</v>
+        <v>0.571</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9140,13 +9140,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,13 +9347,13 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9362,43 +9362,43 @@
         <v>45</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N100">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9407,16 +9407,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,13 +9436,13 @@
         <v>45240.625</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9451,43 +9451,43 @@
         <v>45</v>
       </c>
       <c r="K101">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9496,16 +9496,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6859064</v>
+        <v>6859062</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K109">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
+        <v>1.615</v>
+      </c>
+      <c r="N109">
         <v>5.25</v>
       </c>
-      <c r="N109">
-        <v>1.666</v>
-      </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y109">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6859062</v>
+        <v>6859064</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,76 +10237,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N110">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
         <v>1.9</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.9</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -103,10 +103,10 @@
     <t>Denmark Division 2</t>
   </si>
   <si>
-    <t>B93 Copenhagen</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>B93 Copenhagen</t>
   </si>
   <si>
     <t>Skive</t>
@@ -148,10 +148,10 @@
     <t>FA 2000</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -628,70 +628,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.8</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -717,70 +717,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
+        <v>1.444</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>6.25</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+      <c r="O3">
+        <v>4.2</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
         <v>1.85</v>
       </c>
-      <c r="L3">
-        <v>3.5</v>
-      </c>
-      <c r="M3">
-        <v>3.75</v>
-      </c>
-      <c r="N3">
-        <v>1.85</v>
-      </c>
-      <c r="O3">
-        <v>3.4</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
         <v>2</v>
       </c>
-      <c r="V3">
-        <v>1.8</v>
-      </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.285</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>1.95</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>1.9</v>
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6532919</v>
+        <v>6529391</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>2.375</v>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6533424</v>
+        <v>6532919</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
+        <v>3.8</v>
+      </c>
+      <c r="M14">
         <v>3.75</v>
       </c>
-      <c r="M14">
-        <v>2.3</v>
-      </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6529391</v>
+        <v>6533424</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>1.727</v>
+      </c>
+      <c r="N17">
+        <v>4.333</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>1.6</v>
+      </c>
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
-        <v>1.833</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>3.4</v>
-      </c>
-      <c r="N17">
-        <v>1.833</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>3.4</v>
-      </c>
-      <c r="Q17">
-        <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.875</v>
-      </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2138,76 +2138,76 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N19">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.875</v>
+      </c>
+      <c r="V19">
+        <v>1.925</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2227,76 +2227,76 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>1.571</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>4.75</v>
+      </c>
+      <c r="N20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
+        <v>3.8</v>
+      </c>
+      <c r="P20">
+        <v>5.25</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>1.9</v>
+      </c>
+      <c r="S20">
+        <v>1.9</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
         <v>2</v>
       </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>2.3</v>
-      </c>
-      <c r="L20">
-        <v>3.3</v>
-      </c>
-      <c r="M20">
-        <v>2.625</v>
-      </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2.8</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2586,7 +2586,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>1.7</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>1.7</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,10 +3028,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,40 +3043,40 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC29">
         <v>-0.5</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858912</v>
+        <v>6858913</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q30">
+        <v>-0.25</v>
+      </c>
+      <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
+        <v>1.925</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>1.9</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
+        <v>0.875</v>
+      </c>
+      <c r="AB30">
+        <v>0.4375</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
-      <c r="W30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
-        <v>0.875</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,73 +3562,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
+        <v>2.4</v>
+      </c>
+      <c r="N35">
+        <v>2.375</v>
+      </c>
+      <c r="O35">
+        <v>3.8</v>
+      </c>
+      <c r="P35">
+        <v>2.4</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
         <v>1.9</v>
       </c>
-      <c r="N35">
-        <v>2.875</v>
-      </c>
-      <c r="O35">
-        <v>3.6</v>
-      </c>
-      <c r="P35">
-        <v>2.1</v>
-      </c>
-      <c r="Q35">
-        <v>0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.925</v>
-      </c>
-      <c r="S35">
-        <v>1.875</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.85</v>
-      </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z35">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3639,7 +3639,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3651,73 +3651,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
         <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.9</v>
-      </c>
-      <c r="V36">
-        <v>1.9</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
       <c r="K37">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
         <v>1.9</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.9</v>
       </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.95</v>
-      </c>
-      <c r="V37">
-        <v>1.85</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>45</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
+        <v>2.1</v>
+      </c>
+      <c r="O38">
+        <v>3.5</v>
+      </c>
+      <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>3.3</v>
-      </c>
-      <c r="Q38">
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>2.5</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.875</v>
-      </c>
-      <c r="S38">
-        <v>1.925</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.9</v>
-      </c>
-      <c r="W38">
+      <c r="AA38">
+        <v>0.45</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.875</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>1.3</v>
@@ -4010,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858923</v>
+        <v>6858924</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,22 +4096,22 @@
         <v>45171.375</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L41">
         <v>3.5</v>
@@ -4120,52 +4120,52 @@
         <v>2.9</v>
       </c>
       <c r="N41">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858924</v>
+        <v>6858923</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,22 +4185,22 @@
         <v>45171.375</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
         <v>3.5</v>
@@ -4209,52 +4209,52 @@
         <v>2.9</v>
       </c>
       <c r="N42">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y42">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4262,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6858925</v>
+        <v>6858927</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4274,13 +4274,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -4292,19 +4292,19 @@
         <v>4.333</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="N43">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="Q43">
         <v>0.75</v>
@@ -4316,13 +4316,13 @@
         <v>1.8</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4331,7 +4331,7 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4340,10 +4340,10 @@
         <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858927</v>
+        <v>6858926</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="N44">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4408,31 +4408,31 @@
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,40 +4452,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4494,34 +4494,34 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,13 +4541,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4556,19 +4556,19 @@
         <v>44</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N46">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
         <v>2.55</v>
@@ -4577,40 +4577,40 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,13 +4630,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4645,19 +4645,19 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N47">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
         <v>2.55</v>
@@ -4666,40 +4666,40 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.2</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>1.65</v>
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5345,7 +5345,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5609,7 +5609,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.615</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,58 +5698,58 @@
         <v>45192.375</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
+        <v>5.5</v>
+      </c>
+      <c r="N59">
+        <v>1.444</v>
+      </c>
+      <c r="O59">
+        <v>4.2</v>
+      </c>
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+      <c r="R59">
+        <v>1.725</v>
+      </c>
+      <c r="S59">
+        <v>2.075</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="N59">
-        <v>2.1</v>
-      </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>3</v>
-      </c>
-      <c r="Q59">
-        <v>-0.25</v>
-      </c>
-      <c r="R59">
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5758,16 +5758,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,58 +5787,58 @@
         <v>45192.375</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5847,16 +5847,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>1.222</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>3.6</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>4.5</v>
@@ -6321,7 +6321,7 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -6333,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.55</v>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6689,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>1.6</v>
@@ -6769,7 +6769,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.25</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,55 +7389,55 @@
         <v>45213.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7446,16 +7446,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,73 +7478,73 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O79">
+        <v>3.8</v>
+      </c>
+      <c r="P79">
+        <v>4.75</v>
+      </c>
+      <c r="Q79">
+        <v>-0.75</v>
+      </c>
+      <c r="R79">
+        <v>1.8</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
+        <v>1.8</v>
+      </c>
+      <c r="V79">
+        <v>2</v>
+      </c>
+      <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
         <v>3.75</v>
       </c>
-      <c r="P79">
-        <v>1.909</v>
-      </c>
-      <c r="Q79">
-        <v>0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.825</v>
-      </c>
-      <c r="S79">
-        <v>1.975</v>
-      </c>
-      <c r="T79">
-        <v>3.25</v>
-      </c>
-      <c r="U79">
-        <v>1.925</v>
-      </c>
-      <c r="V79">
-        <v>1.875</v>
-      </c>
-      <c r="W79">
-        <v>-1</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>0.909</v>
-      </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.7</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.571</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859011</v>
+        <v>6859008</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,10 +7745,10 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7757,34 +7757,34 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
         <v>2.5</v>
@@ -7799,16 +7799,16 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>0.8</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>1.222</v>
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859008</v>
+        <v>6859011</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,10 +7923,10 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7935,34 +7935,34 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N84">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
         <v>2.5</v>
@@ -7977,16 +7977,16 @@
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB84">
         <v>0.8</v>
@@ -8015,7 +8015,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.6</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>2.15</v>
@@ -8457,7 +8457,7 @@
         <v>45227.375</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8469,7 +8469,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.533</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859035</v>
+        <v>6859037</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,58 +8902,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
         <v>2</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>2.3</v>
+        <v>0.363</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859037</v>
+        <v>6859035</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,58 +8991,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96">
+        <v>3.3</v>
+      </c>
+      <c r="L96">
+        <v>3.4</v>
+      </c>
+      <c r="M96">
         <v>2</v>
       </c>
-      <c r="J96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K96">
-        <v>1.5</v>
-      </c>
-      <c r="L96">
-        <v>4</v>
-      </c>
-      <c r="M96">
-        <v>5.5</v>
-      </c>
       <c r="N96">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.363</v>
+        <v>2.3</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>1.65</v>
@@ -9172,7 +9172,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,58 +9347,58 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9407,16 +9407,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,58 +9436,58 @@
         <v>45240.625</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N101">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9496,16 +9496,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC101">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>1.4</v>
@@ -10071,7 +10071,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>1.727</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>5</v>
@@ -10329,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6529391</v>
+        <v>6532919</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6529284</v>
+        <v>6533424</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,73 +1607,73 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N13">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC13">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6532919</v>
+        <v>6529391</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6533424</v>
+        <v>6529284</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,73 +1785,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
+        <v>2.375</v>
+      </c>
+      <c r="N15">
+        <v>2.4</v>
+      </c>
+      <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
         <v>2.3</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>3.75</v>
+      </c>
+      <c r="L18">
+        <v>3.75</v>
+      </c>
+      <c r="M18">
+        <v>1.727</v>
+      </c>
+      <c r="N18">
+        <v>4.333</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>1.6</v>
+      </c>
+      <c r="Q18">
+        <v>0.75</v>
+      </c>
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>1.833</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.4</v>
-      </c>
-      <c r="N18">
-        <v>1.833</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
-      </c>
-      <c r="Q18">
-        <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2138,76 +2138,76 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>1.571</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>4.75</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <v>3.8</v>
+      </c>
+      <c r="P19">
+        <v>5.25</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>1.9</v>
+      </c>
+      <c r="S19">
+        <v>1.9</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.8</v>
+      </c>
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>2.3</v>
-      </c>
-      <c r="L19">
-        <v>3.3</v>
-      </c>
-      <c r="M19">
-        <v>2.625</v>
-      </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>2.8</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>1.875</v>
-      </c>
-      <c r="V19">
-        <v>1.925</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2227,76 +2227,76 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N20">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
+        <v>1.875</v>
+      </c>
+      <c r="V20">
+        <v>1.925</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>1.8</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>0.5</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,73 +2583,73 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
         <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.925</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,73 +2672,73 @@
         <v>45150.375</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N25">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
         <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,73 +3562,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.85</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1.95</v>
       </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.9</v>
-      </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3639,7 +3639,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3651,73 +3651,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
         <v>3.6</v>
       </c>
       <c r="M36">
+        <v>2.4</v>
+      </c>
+      <c r="N36">
+        <v>2.375</v>
+      </c>
+      <c r="O36">
+        <v>3.8</v>
+      </c>
+      <c r="P36">
+        <v>2.4</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
         <v>1.9</v>
       </c>
-      <c r="N36">
-        <v>2.875</v>
-      </c>
-      <c r="O36">
-        <v>3.6</v>
-      </c>
-      <c r="P36">
-        <v>2.1</v>
-      </c>
-      <c r="Q36">
-        <v>0.25</v>
-      </c>
-      <c r="R36">
-        <v>1.925</v>
-      </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z36">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N37">
+        <v>2.1</v>
+      </c>
+      <c r="O37">
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>4</v>
-      </c>
-      <c r="P37">
-        <v>3.3</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>2.5</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.925</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
-      <c r="W37">
+      <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
         <v>1.9</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.9</v>
       </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4405,34 +4405,34 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858925</v>
+        <v>6858926</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,40 +4452,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.625</v>
+        <v>2.35</v>
       </c>
       <c r="N45">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4494,34 +4494,34 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,34 +4541,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
         <v>2.55</v>
@@ -4577,40 +4577,40 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,34 +4630,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N47">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
         <v>2.55</v>
@@ -4666,40 +4666,40 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X47">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6858933</v>
+        <v>6858934</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,73 +4897,73 @@
         <v>45179.375</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50">
+        <v>1.55</v>
+      </c>
+      <c r="L50">
         <v>4</v>
       </c>
-      <c r="J50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50">
-        <v>1.35</v>
-      </c>
-      <c r="L50">
+      <c r="M50">
         <v>5</v>
       </c>
-      <c r="M50">
-        <v>6.5</v>
-      </c>
       <c r="N50">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P50">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q50">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
         <v>1.9</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>1.9</v>
       </c>
-      <c r="T50">
-        <v>3.25</v>
-      </c>
-      <c r="U50">
-        <v>1.925</v>
-      </c>
-      <c r="V50">
-        <v>1.875</v>
-      </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB50">
-        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6858934</v>
+        <v>6858933</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,73 +4986,73 @@
         <v>45179.375</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.333</v>
+      </c>
+      <c r="O51">
+        <v>5.5</v>
+      </c>
+      <c r="P51">
+        <v>6</v>
+      </c>
+      <c r="Q51">
+        <v>-1.5</v>
+      </c>
+      <c r="R51">
+        <v>1.9</v>
+      </c>
+      <c r="S51">
+        <v>1.9</v>
+      </c>
+      <c r="T51">
+        <v>3.25</v>
+      </c>
+      <c r="U51">
+        <v>1.925</v>
+      </c>
+      <c r="V51">
+        <v>1.875</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
         <v>5</v>
       </c>
-      <c r="N51">
-        <v>1.5</v>
-      </c>
-      <c r="O51">
-        <v>4.2</v>
-      </c>
-      <c r="P51">
-        <v>5.25</v>
-      </c>
-      <c r="Q51">
-        <v>-1</v>
-      </c>
-      <c r="R51">
-        <v>1.8</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
-      <c r="W51">
-        <v>0.5</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>-1</v>
-      </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,13 +5698,13 @@
         <v>45192.375</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5713,43 +5713,43 @@
         <v>44</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5758,16 +5758,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,13 +5787,13 @@
         <v>45192.375</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5802,43 +5802,43 @@
         <v>44</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
+        <v>5.5</v>
+      </c>
+      <c r="N60">
+        <v>1.444</v>
+      </c>
+      <c r="O60">
+        <v>4.2</v>
+      </c>
+      <c r="P60">
+        <v>6</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <v>1.725</v>
+      </c>
+      <c r="S60">
+        <v>2.075</v>
+      </c>
+      <c r="T60">
         <v>3</v>
       </c>
-      <c r="N60">
-        <v>2.1</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
-      <c r="P60">
-        <v>3</v>
-      </c>
-      <c r="Q60">
-        <v>-0.25</v>
-      </c>
-      <c r="R60">
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="S60">
-        <v>1.95</v>
-      </c>
-      <c r="T60">
-        <v>2.5</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
       <c r="W60">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5847,16 +5847,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6363,7 +6363,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
         <v>1.825</v>
@@ -6372,10 +6372,10 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,40 +6410,40 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6452,7 +6452,7 @@
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6461,10 +6461,10 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,10 +6476,10 @@
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6858955</v>
+        <v>6858954</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,40 +6677,40 @@
         <v>45206.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N70">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
         <v>1.975</v>
@@ -6719,22 +6719,22 @@
         <v>1.825</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z70">
         <v>-1</v>
@@ -6746,7 +6746,7 @@
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858954</v>
+        <v>6858953</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,55 +6766,55 @@
         <v>45206.375</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>46</v>
       </c>
       <c r="K71">
+        <v>2.875</v>
+      </c>
+      <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
         <v>2.15</v>
       </c>
-      <c r="L71">
+      <c r="N71">
+        <v>3.4</v>
+      </c>
+      <c r="O71">
         <v>3.5</v>
       </c>
-      <c r="M71">
-        <v>2.875</v>
-      </c>
-      <c r="N71">
-        <v>2.2</v>
-      </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6823,19 +6823,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6843,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6858953</v>
+        <v>6858955</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6855,76 +6855,76 @@
         <v>45206.375</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72">
+        <v>1.6</v>
+      </c>
+      <c r="L72">
+        <v>3.75</v>
+      </c>
+      <c r="M72">
+        <v>4.75</v>
+      </c>
+      <c r="N72">
+        <v>1.444</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>6.5</v>
+      </c>
+      <c r="Q72">
+        <v>-1.25</v>
+      </c>
+      <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
+        <v>1.825</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1.8</v>
+      </c>
+      <c r="V72">
         <v>2</v>
       </c>
-      <c r="J72" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72">
-        <v>2.875</v>
-      </c>
-      <c r="L72">
-        <v>3.6</v>
-      </c>
-      <c r="M72">
-        <v>2.15</v>
-      </c>
-      <c r="N72">
-        <v>3.4</v>
-      </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>1.909</v>
-      </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>1.95</v>
-      </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
-      <c r="U72">
-        <v>1.95</v>
-      </c>
-      <c r="V72">
-        <v>1.85</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y72">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,10 +7567,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,46 +7582,46 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
+        <v>3.8</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>1.65</v>
+      </c>
+      <c r="O80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>4.2</v>
-      </c>
-      <c r="N80">
-        <v>1.615</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
       <c r="P80">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7630,13 +7630,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,10 +7656,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7671,46 +7671,46 @@
         <v>45</v>
       </c>
       <c r="K81">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L81">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N81">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
         <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7719,13 +7719,13 @@
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859008</v>
+        <v>6859011</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,10 +7745,10 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7760,31 +7760,31 @@
         <v>45</v>
       </c>
       <c r="K82">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>2.5</v>
@@ -7799,16 +7799,16 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB82">
         <v>0.8</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859010</v>
+        <v>6859007</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859011</v>
+        <v>6859008</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,10 +7923,10 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7938,31 +7938,31 @@
         <v>45</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2.5</v>
@@ -7977,16 +7977,16 @@
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>0.8</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859007</v>
+        <v>6859010</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P85">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,76 +8457,76 @@
         <v>45227.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N90">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M91">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y91">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,49 +8635,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
         <v>1.9</v>
@@ -8692,19 +8692,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859037</v>
+        <v>6859035</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,58 +8902,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.363</v>
+        <v>2.3</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859035</v>
+        <v>6859037</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,58 +8991,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>2</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N96">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>2.3</v>
+        <v>0.363</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6859062</v>
+        <v>6859064</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
         <v>1.9</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>1.9</v>
       </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
-      <c r="V109">
-        <v>2</v>
-      </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6859064</v>
+        <v>6859062</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,76 +10237,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
+        <v>1.615</v>
+      </c>
+      <c r="N110">
         <v>5.25</v>
       </c>
-      <c r="N110">
-        <v>1.666</v>
-      </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y110">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -103,10 +103,10 @@
     <t>Denmark Division 2</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>B93 Copenhagen</t>
   </si>
   <si>
-    <t>B93 Copenhagen</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
     <t>Skive</t>
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -148,10 +148,10 @@
     <t>FA 2000</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -628,70 +628,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2">
+        <v>1.444</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>6.25</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
+        <v>4.2</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
         <v>1.85</v>
       </c>
-      <c r="L2">
-        <v>3.5</v>
-      </c>
-      <c r="M2">
-        <v>3.75</v>
-      </c>
-      <c r="N2">
-        <v>1.85</v>
-      </c>
-      <c r="O2">
-        <v>3.4</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U2">
+        <v>1.8</v>
+      </c>
+      <c r="V2">
         <v>2</v>
       </c>
-      <c r="V2">
-        <v>1.8</v>
-      </c>
       <c r="W2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -717,70 +717,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>1.8</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.285</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>1.95</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>1.9</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6532919</v>
+        <v>6529284</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,49 +1515,49 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L12">
         <v>3.8</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>1.95</v>
@@ -1566,25 +1566,25 @@
         <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6533424</v>
+        <v>6529391</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y13">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6529391</v>
+        <v>6532919</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N14">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6529284</v>
+        <v>6533424</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,73 +1785,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.833</v>
@@ -2138,7 +2138,7 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,73 +2583,73 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,73 +2672,73 @@
         <v>45150.375</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
         <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
         <v>0.925</v>
       </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.7</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,10 +3028,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,40 +3043,40 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC29">
         <v>-0.5</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858913</v>
+        <v>6858912</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
         <v>1.925</v>
       </c>
-      <c r="S30">
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
         <v>1.875</v>
       </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.875</v>
-      </c>
-      <c r="V30">
-        <v>1.925</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>4.75</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>1.6</v>
+      </c>
+      <c r="N31">
         <v>5</v>
       </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31">
-        <v>1.85</v>
-      </c>
-      <c r="L31">
-        <v>3.5</v>
-      </c>
-      <c r="M31">
-        <v>3.75</v>
-      </c>
-      <c r="N31">
-        <v>1.85</v>
-      </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1.8</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.75</v>
+      </c>
+      <c r="V31">
+        <v>1.95</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>0.571</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>-0</v>
+      </c>
+      <c r="AB31">
+        <v>0.375</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.925</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.875</v>
-      </c>
-      <c r="W31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>0.875</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>0.925</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3574,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>3.4</v>
@@ -3740,7 +3740,7 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>1.769</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.3</v>
@@ -4010,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4262,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6858927</v>
+        <v>6858925</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4274,13 +4274,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -4292,19 +4292,19 @@
         <v>4.333</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>1.7</v>
+        <v>1.625</v>
       </c>
       <c r="N43">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="Q43">
         <v>0.75</v>
@@ -4316,13 +4316,13 @@
         <v>1.8</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4331,7 +4331,7 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4340,10 +4340,10 @@
         <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858925</v>
+        <v>6858927</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,13 +4363,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -4381,19 +4381,19 @@
         <v>4.333</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="N44">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="Q44">
         <v>0.75</v>
@@ -4405,13 +4405,13 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4420,7 +4420,7 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z44">
         <v>-1</v>
@@ -4429,10 +4429,10 @@
         <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>2.6</v>
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858930</v>
+        <v>6858928</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,13 +4541,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4556,61 +4556,61 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4630,7 +4630,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2.45</v>
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6858928</v>
+        <v>6858930</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,13 +4719,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4734,61 +4734,61 @@
         <v>44</v>
       </c>
       <c r="K48">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N48">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
+        <v>1.775</v>
+      </c>
+      <c r="S48">
+        <v>2.025</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
         <v>1.85</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.925</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.65</v>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.55</v>
@@ -5345,7 +5345,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5609,7 +5609,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>1.615</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>1.222</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>3.6</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>4.5</v>
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
       <c r="K66">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N66">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6363,7 +6363,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.825</v>
@@ -6372,10 +6372,10 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,40 +6410,40 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6452,7 +6452,7 @@
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6461,10 +6461,10 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,10 +6476,10 @@
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6680,7 +6680,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>1.6</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.25</v>
@@ -7478,7 +7478,7 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,10 +7567,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7579,49 +7579,49 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7630,13 +7630,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,10 +7656,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7668,49 +7668,49 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L81">
+        <v>3.8</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>1.65</v>
+      </c>
+      <c r="O81">
         <v>3.6</v>
       </c>
-      <c r="M81">
-        <v>4.2</v>
-      </c>
-      <c r="N81">
-        <v>1.615</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q81">
         <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7719,13 +7719,13 @@
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7935,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>3.6</v>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.222</v>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.6</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>2.15</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,76 +8457,76 @@
         <v>45227.375</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y90">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N91">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,49 +8635,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N92">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
         <v>1.9</v>
@@ -8692,19 +8692,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>3.3</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859037</v>
+        <v>6859041</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,40 +8991,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N96">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>1.775</v>
@@ -9033,16 +9033,16 @@
         <v>2.025</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.3875</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.5125</v>
-      </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859041</v>
+        <v>6859037</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,40 +9080,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>2</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
         <v>1.775</v>
@@ -9122,16 +9122,16 @@
         <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9140,13 +9140,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9172,7 +9172,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9347,7 +9347,7 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.833</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>3.2</v>
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>1.4</v>
@@ -10071,7 +10071,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.727</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K110">
         <v>5</v>
@@ -10329,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Denmark Division 2</t>
   </si>
   <si>
-    <t>B93 Copenhagen</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>B93 Copenhagen</t>
   </si>
   <si>
     <t>Skive</t>
@@ -148,10 +148,10 @@
     <t>FA 2000</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -628,70 +628,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.8</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -717,70 +717,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
+        <v>1.444</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>6.25</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+      <c r="O3">
+        <v>4.2</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
         <v>1.85</v>
       </c>
-      <c r="L3">
-        <v>3.5</v>
-      </c>
-      <c r="M3">
-        <v>3.75</v>
-      </c>
-      <c r="N3">
-        <v>1.85</v>
-      </c>
-      <c r="O3">
-        <v>3.4</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
         <v>2</v>
       </c>
-      <c r="V3">
-        <v>1.8</v>
-      </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.285</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>1.95</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>1.9</v>
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>2.375</v>
@@ -1604,7 +1604,7 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.3</v>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6532919</v>
+        <v>6533424</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N14">
+        <v>2.25</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.775</v>
+      </c>
+      <c r="S14">
+        <v>2.025</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.9</v>
+      </c>
+      <c r="V14">
+        <v>1.9</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
         <v>1.5</v>
       </c>
-      <c r="O14">
-        <v>4.333</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>-1</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>3.25</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.85</v>
-      </c>
-      <c r="W14">
-        <v>0.5</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6533424</v>
+        <v>6532919</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
+        <v>3.8</v>
+      </c>
+      <c r="M15">
         <v>3.75</v>
       </c>
-      <c r="M15">
-        <v>2.3</v>
-      </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.833</v>
@@ -2138,7 +2138,7 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,73 +2583,73 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
         <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.925</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,73 +2672,73 @@
         <v>45150.375</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N25">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
         <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>1.7</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858913</v>
+        <v>6858912</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.875</v>
+      </c>
+      <c r="S29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1.925</v>
+      </c>
+      <c r="V29">
         <v>1.875</v>
       </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.875</v>
-      </c>
-      <c r="V29">
-        <v>1.925</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>4.75</v>
+      </c>
+      <c r="L30">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <v>1.6</v>
+      </c>
+      <c r="N30">
         <v>5</v>
       </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30">
-        <v>1.85</v>
-      </c>
-      <c r="L30">
-        <v>3.5</v>
-      </c>
-      <c r="M30">
-        <v>3.75</v>
-      </c>
-      <c r="N30">
-        <v>1.85</v>
-      </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.75</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>0.571</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>-0</v>
+      </c>
+      <c r="AB30">
+        <v>0.375</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
-      <c r="W30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
-        <v>0.875</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,10 +3206,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3221,40 +3221,40 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC31">
         <v>-0.5</v>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3574,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>3.4</v>
@@ -3740,7 +3740,7 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>1.769</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>1.3</v>
@@ -4010,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858924</v>
+        <v>6858923</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,22 +4096,22 @@
         <v>45171.375</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
         <v>3.5</v>
@@ -4120,52 +4120,52 @@
         <v>2.9</v>
       </c>
       <c r="N41">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y41">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858923</v>
+        <v>6858924</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,22 +4185,22 @@
         <v>45171.375</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L42">
         <v>3.5</v>
@@ -4209,52 +4209,52 @@
         <v>2.9</v>
       </c>
       <c r="N42">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4262,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6858925</v>
+        <v>6858927</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4274,13 +4274,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -4292,19 +4292,19 @@
         <v>4.333</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="N43">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="Q43">
         <v>0.75</v>
@@ -4316,13 +4316,13 @@
         <v>1.8</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4331,7 +4331,7 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4340,10 +4340,10 @@
         <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858927</v>
+        <v>6858926</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="N44">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4408,31 +4408,31 @@
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,40 +4452,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4494,34 +4494,34 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
         <v>2.2</v>
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,13 +4630,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4645,19 +4645,19 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N47">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
         <v>2.55</v>
@@ -4666,40 +4666,40 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,13 +4719,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4734,19 +4734,19 @@
         <v>44</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L48">
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N48">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
         <v>2.55</v>
@@ -4755,40 +4755,40 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X48">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>1.65</v>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.55</v>
@@ -5345,7 +5345,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5609,7 +5609,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.615</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>1.222</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>3.6</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>4.5</v>
@@ -6321,7 +6321,7 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -6333,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.55</v>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6858954</v>
+        <v>6858953</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,55 +6677,55 @@
         <v>45206.375</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>46</v>
       </c>
       <c r="K70">
+        <v>2.875</v>
+      </c>
+      <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
         <v>2.15</v>
       </c>
-      <c r="L70">
+      <c r="N70">
+        <v>3.4</v>
+      </c>
+      <c r="O70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>2.875</v>
-      </c>
-      <c r="N70">
-        <v>2.2</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
       <c r="P70">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6734,19 +6734,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858953</v>
+        <v>6858954</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,55 +6766,55 @@
         <v>45206.375</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>46</v>
       </c>
       <c r="K71">
+        <v>2.15</v>
+      </c>
+      <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
         <v>2.875</v>
       </c>
-      <c r="L71">
-        <v>3.6</v>
-      </c>
-      <c r="M71">
-        <v>2.15</v>
-      </c>
       <c r="N71">
+        <v>2.2</v>
+      </c>
+      <c r="O71">
         <v>3.4</v>
       </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
       <c r="P71">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6823,19 +6823,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.909</v>
+        <v>1.875</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>1.6</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.25</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,73 +7389,73 @@
         <v>45213.375</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O78">
+        <v>3.8</v>
+      </c>
+      <c r="P78">
+        <v>4.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.8</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>3.75</v>
       </c>
-      <c r="P78">
-        <v>1.909</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.825</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>3.25</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>0.909</v>
-      </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,55 +7478,55 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.7</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.571</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859011</v>
+        <v>6859010</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,73 +7745,73 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>44</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L82">
+        <v>6.5</v>
+      </c>
+      <c r="M82">
+        <v>9</v>
+      </c>
+      <c r="N82">
+        <v>1.2</v>
+      </c>
+      <c r="O82">
+        <v>6.5</v>
+      </c>
+      <c r="P82">
+        <v>10</v>
+      </c>
+      <c r="Q82">
+        <v>-2</v>
+      </c>
+      <c r="R82">
+        <v>1.9</v>
+      </c>
+      <c r="S82">
+        <v>1.9</v>
+      </c>
+      <c r="T82">
         <v>3.5</v>
       </c>
-      <c r="M82">
-        <v>3.3</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>3.3</v>
-      </c>
-      <c r="Q82">
-        <v>-0.25</v>
-      </c>
-      <c r="R82">
-        <v>1.75</v>
-      </c>
-      <c r="S82">
-        <v>1.95</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859007</v>
+        <v>6859008</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>3.6</v>
       </c>
       <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>1.85</v>
+      </c>
+      <c r="N83">
         <v>3.4</v>
       </c>
-      <c r="M83">
+      <c r="O83">
+        <v>3.6</v>
+      </c>
+      <c r="P83">
         <v>1.909</v>
       </c>
-      <c r="N83">
-        <v>3.2</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
-      </c>
-      <c r="P83">
-        <v>2.05</v>
-      </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.8</v>
+      </c>
+      <c r="V83">
         <v>2</v>
       </c>
-      <c r="S83">
-        <v>1.8</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.975</v>
-      </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>0.8</v>
       </c>
-      <c r="AB83">
-        <v>0.4875</v>
-      </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>3.6</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N84">
+        <v>3.2</v>
+      </c>
+      <c r="O84">
         <v>3.4</v>
       </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
       <c r="P84">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>1.8</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
+        <v>1.975</v>
+      </c>
+      <c r="V84">
         <v>1.825</v>
       </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>1.8</v>
-      </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859010</v>
+        <v>6859011</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,73 +8012,73 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.6</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>2.15</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,76 +8457,76 @@
         <v>45227.375</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K90">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N90">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M91">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y91">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859035</v>
+        <v>6859037</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,58 +8902,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
         <v>2</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>2.3</v>
+        <v>0.363</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>1.65</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859037</v>
+        <v>6859035</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,58 +9080,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>44</v>
+      </c>
+      <c r="K97">
+        <v>3.3</v>
+      </c>
+      <c r="L97">
+        <v>3.4</v>
+      </c>
+      <c r="M97">
         <v>2</v>
       </c>
-      <c r="J97" t="s">
-        <v>45</v>
-      </c>
-      <c r="K97">
-        <v>1.5</v>
-      </c>
-      <c r="L97">
-        <v>4</v>
-      </c>
-      <c r="M97">
-        <v>5.5</v>
-      </c>
       <c r="N97">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O97">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>0.363</v>
+        <v>2.3</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9140,13 +9140,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9172,7 +9172,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9347,7 +9347,7 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>1.833</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>3.2</v>
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>1.4</v>
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6859059</v>
+        <v>6859067</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,73 +9970,73 @@
         <v>45248.375</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="L107">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N107">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="O107">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6859067</v>
+        <v>6859059</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,73 +10059,73 @@
         <v>45248.375</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N108">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6859064</v>
+        <v>6859062</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
+        <v>1.615</v>
+      </c>
+      <c r="N109">
         <v>5.25</v>
       </c>
-      <c r="N109">
-        <v>1.666</v>
-      </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y109">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6859062</v>
+        <v>6859064</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,76 +10237,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N110">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
         <v>1.9</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.9</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10396,6 +10396,80 @@
       </c>
       <c r="AC111">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>6859073</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112">
+        <v>1.45</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>6</v>
+      </c>
+      <c r="N112">
+        <v>1.444</v>
+      </c>
+      <c r="O112">
+        <v>4</v>
+      </c>
+      <c r="P112">
+        <v>6</v>
+      </c>
+      <c r="Q112">
+        <v>-1.25</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.8</v>
+      </c>
+      <c r="V112">
+        <v>2</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Denmark Division 2</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>B93 Copenhagen</t>
   </si>
   <si>
-    <t>B93 Copenhagen</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
     <t>Skive</t>
@@ -148,10 +148,10 @@
     <t>FA 2000</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -628,70 +628,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2">
+        <v>1.444</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>6.25</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
+        <v>4.2</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
         <v>1.85</v>
       </c>
-      <c r="L2">
-        <v>3.5</v>
-      </c>
-      <c r="M2">
-        <v>3.75</v>
-      </c>
-      <c r="N2">
-        <v>1.85</v>
-      </c>
-      <c r="O2">
-        <v>3.4</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U2">
+        <v>1.8</v>
+      </c>
+      <c r="V2">
         <v>2</v>
       </c>
-      <c r="V2">
-        <v>1.8</v>
-      </c>
       <c r="W2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -717,70 +717,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>1.8</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.285</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>1.95</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>1.9</v>
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>2.375</v>
@@ -1604,7 +1604,7 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>1.3</v>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6533424</v>
+        <v>6532919</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
+        <v>3.8</v>
+      </c>
+      <c r="M14">
         <v>3.75</v>
       </c>
-      <c r="M14">
-        <v>2.3</v>
-      </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6532919</v>
+        <v>6533424</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
+        <v>2.25</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.775</v>
+      </c>
+      <c r="S15">
+        <v>2.025</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.9</v>
+      </c>
+      <c r="V15">
+        <v>1.9</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
         <v>1.5</v>
       </c>
-      <c r="O15">
-        <v>4.333</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
-      <c r="W15">
-        <v>0.5</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>1.727</v>
+      </c>
+      <c r="N17">
+        <v>4.333</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>1.6</v>
+      </c>
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>1.833</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>3.4</v>
-      </c>
-      <c r="N17">
-        <v>1.833</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>3.4</v>
-      </c>
-      <c r="Q17">
-        <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.875</v>
-      </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2675,7 +2675,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.7</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.7</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>4.75</v>
+      </c>
+      <c r="L29">
+        <v>3.8</v>
+      </c>
+      <c r="M29">
+        <v>1.6</v>
+      </c>
+      <c r="N29">
         <v>5</v>
       </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29">
-        <v>1.85</v>
-      </c>
-      <c r="L29">
-        <v>3.5</v>
-      </c>
-      <c r="M29">
-        <v>3.75</v>
-      </c>
-      <c r="N29">
-        <v>1.85</v>
-      </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1.8</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
+        <v>1.75</v>
+      </c>
+      <c r="V29">
+        <v>1.95</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
+        <v>0.571</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>-0</v>
+      </c>
+      <c r="AB29">
+        <v>0.375</v>
+      </c>
+      <c r="AC29">
         <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>1.875</v>
-      </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
-      <c r="W29">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>-1</v>
-      </c>
-      <c r="Z29">
-        <v>0.875</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.925</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3574,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>3.4</v>
@@ -3740,7 +3740,7 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>1.769</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.3</v>
@@ -4010,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>2.1</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>2.6</v>
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858928</v>
+        <v>6858930</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,13 +4541,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4556,61 +4556,61 @@
         <v>44</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
+        <v>1.775</v>
+      </c>
+      <c r="S46">
+        <v>2.025</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
         <v>1.85</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.95</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858930</v>
+        <v>6858928</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,13 +4630,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4645,61 +4645,61 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N47">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X47">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.45</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.65</v>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.55</v>
@@ -5345,7 +5345,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5609,7 +5609,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>1.615</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,58 +5698,58 @@
         <v>45192.375</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
+        <v>5.5</v>
+      </c>
+      <c r="N59">
+        <v>1.444</v>
+      </c>
+      <c r="O59">
+        <v>4.2</v>
+      </c>
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+      <c r="R59">
+        <v>1.725</v>
+      </c>
+      <c r="S59">
+        <v>2.075</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="N59">
-        <v>2.1</v>
-      </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>3</v>
-      </c>
-      <c r="Q59">
-        <v>-0.25</v>
-      </c>
-      <c r="R59">
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5758,16 +5758,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,58 +5787,58 @@
         <v>45192.375</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5847,16 +5847,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>1.222</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>3.6</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>4.5</v>
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>45</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6363,7 +6363,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
         <v>1.825</v>
@@ -6372,10 +6372,10 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,40 +6410,40 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6452,7 +6452,7 @@
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6461,10 +6461,10 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,10 +6476,10 @@
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858954</v>
+        <v>6858955</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,40 +6766,40 @@
         <v>45206.375</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N71">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
         <v>1.975</v>
@@ -6808,22 +6808,22 @@
         <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y71">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
         <v>-1</v>
@@ -6835,7 +6835,7 @@
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6843,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6858955</v>
+        <v>6858954</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6855,40 +6855,40 @@
         <v>45206.375</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.975</v>
@@ -6897,22 +6897,22 @@
         <v>1.825</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -6924,7 +6924,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.25</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,55 +7389,55 @@
         <v>45213.375</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7446,16 +7446,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,73 +7478,73 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O79">
+        <v>3.8</v>
+      </c>
+      <c r="P79">
+        <v>4.75</v>
+      </c>
+      <c r="Q79">
+        <v>-0.75</v>
+      </c>
+      <c r="R79">
+        <v>1.8</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
+        <v>1.8</v>
+      </c>
+      <c r="V79">
+        <v>2</v>
+      </c>
+      <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
         <v>3.75</v>
       </c>
-      <c r="P79">
-        <v>1.909</v>
-      </c>
-      <c r="Q79">
-        <v>0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.825</v>
-      </c>
-      <c r="S79">
-        <v>1.975</v>
-      </c>
-      <c r="T79">
-        <v>3.25</v>
-      </c>
-      <c r="U79">
-        <v>1.925</v>
-      </c>
-      <c r="V79">
-        <v>1.875</v>
-      </c>
-      <c r="W79">
-        <v>-1</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>0.909</v>
-      </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,10 +7567,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7579,49 +7579,49 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
+        <v>3.8</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>1.65</v>
+      </c>
+      <c r="O80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>4.2</v>
-      </c>
-      <c r="N80">
-        <v>1.615</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
       <c r="P80">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7630,13 +7630,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,10 +7656,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7668,49 +7668,49 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L81">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N81">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
         <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7719,13 +7719,13 @@
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>1.222</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859008</v>
+        <v>6859011</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,10 +7834,10 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7846,34 +7846,34 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N83">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
         <v>2.5</v>
@@ -7888,16 +7888,16 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB83">
         <v>0.8</v>
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859007</v>
+        <v>6859008</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>3.6</v>
       </c>
       <c r="L84">
+        <v>3.6</v>
+      </c>
+      <c r="M84">
+        <v>1.85</v>
+      </c>
+      <c r="N84">
         <v>3.4</v>
       </c>
-      <c r="M84">
+      <c r="O84">
+        <v>3.6</v>
+      </c>
+      <c r="P84">
         <v>1.909</v>
       </c>
-      <c r="N84">
-        <v>3.2</v>
-      </c>
-      <c r="O84">
-        <v>3.4</v>
-      </c>
-      <c r="P84">
-        <v>2.05</v>
-      </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.8</v>
+      </c>
+      <c r="V84">
         <v>2</v>
       </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.975</v>
-      </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.8</v>
       </c>
-      <c r="AB84">
-        <v>0.4875</v>
-      </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859011</v>
+        <v>6859007</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
+        <v>3.6</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>1.909</v>
+      </c>
+      <c r="N85">
+        <v>3.2</v>
+      </c>
+      <c r="O85">
+        <v>3.4</v>
+      </c>
+      <c r="P85">
+        <v>2.05</v>
+      </c>
+      <c r="Q85">
+        <v>0.25</v>
+      </c>
+      <c r="R85">
         <v>2</v>
       </c>
-      <c r="L85">
-        <v>3.5</v>
-      </c>
-      <c r="M85">
-        <v>3.3</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <v>3.5</v>
-      </c>
-      <c r="P85">
-        <v>3.3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.75</v>
-      </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
+        <v>0.8</v>
+      </c>
+      <c r="AB85">
+        <v>0.4875</v>
+      </c>
+      <c r="AC85">
         <v>-0.5</v>
-      </c>
-      <c r="AA85">
-        <v>0.475</v>
-      </c>
-      <c r="AB85">
-        <v>0.8</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.6</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>2.15</v>
@@ -8546,7 +8546,7 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -8558,7 +8558,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.533</v>
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,49 +8635,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
         <v>1.9</v>
@@ -8692,19 +8692,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859037</v>
+        <v>6859041</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,40 +8902,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N95">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P95">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
         <v>1.775</v>
@@ -8944,16 +8944,16 @@
         <v>2.025</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
+        <v>0.3875</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="AA95">
-        <v>0.5125</v>
-      </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859041</v>
+        <v>6859035</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,10 +8991,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9003,46 +9003,46 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.571</v>
+        <v>2.3</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859035</v>
+        <v>6859037</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,58 +9080,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>2</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>2.3</v>
+        <v>0.363</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9140,13 +9140,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9172,7 +9172,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9347,7 +9347,7 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.833</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>3.2</v>
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>1.4</v>
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6859067</v>
+        <v>6859059</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,73 +9970,73 @@
         <v>45248.375</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N107">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z107">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6859059</v>
+        <v>6859067</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,73 +10059,73 @@
         <v>45248.375</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="L108">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N108">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>5</v>
@@ -10329,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10396,80 +10396,6 @@
       </c>
       <c r="AC111">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>6859073</v>
-      </c>
-      <c r="C112" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" t="s">
-        <v>28</v>
-      </c>
-      <c r="E112" s="2">
-        <v>45360.41666666666</v>
-      </c>
-      <c r="F112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>36</v>
-      </c>
-      <c r="K112">
-        <v>1.45</v>
-      </c>
-      <c r="L112">
-        <v>4</v>
-      </c>
-      <c r="M112">
-        <v>6</v>
-      </c>
-      <c r="N112">
-        <v>1.444</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
-      </c>
-      <c r="P112">
-        <v>6</v>
-      </c>
-      <c r="Q112">
-        <v>-1.25</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.8</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.8</v>
-      </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <v>0</v>
-      </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
-      <c r="AA112">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6529284</v>
+        <v>6533424</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6533424</v>
+        <v>6529284</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,73 +1785,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
+        <v>2.375</v>
+      </c>
+      <c r="N15">
+        <v>2.4</v>
+      </c>
+      <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
         <v>2.3</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>3.75</v>
+      </c>
+      <c r="L18">
+        <v>3.75</v>
+      </c>
+      <c r="M18">
+        <v>1.727</v>
+      </c>
+      <c r="N18">
+        <v>4.333</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>1.6</v>
+      </c>
+      <c r="Q18">
+        <v>0.75</v>
+      </c>
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>1.833</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.4</v>
-      </c>
-      <c r="N18">
-        <v>1.833</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
-      </c>
-      <c r="Q18">
-        <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
         <v>1.9</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.9</v>
       </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.95</v>
-      </c>
-      <c r="V37">
-        <v>1.85</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
+        <v>2.1</v>
+      </c>
+      <c r="O38">
+        <v>3.5</v>
+      </c>
+      <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>3.3</v>
-      </c>
-      <c r="Q38">
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>2.5</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.875</v>
-      </c>
-      <c r="S38">
-        <v>1.925</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.9</v>
-      </c>
-      <c r="W38">
+      <c r="AA38">
+        <v>0.45</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.875</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858923</v>
+        <v>6858924</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,22 +4096,22 @@
         <v>45171.375</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L41">
         <v>3.5</v>
@@ -4120,52 +4120,52 @@
         <v>2.9</v>
       </c>
       <c r="N41">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858924</v>
+        <v>6858923</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,22 +4185,22 @@
         <v>45171.375</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K42">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
         <v>3.5</v>
@@ -4209,52 +4209,52 @@
         <v>2.9</v>
       </c>
       <c r="N42">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y42">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4262,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6858927</v>
+        <v>6858926</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4274,40 +4274,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K43">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="N43">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -4319,31 +4319,31 @@
         <v>3</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y43">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858926</v>
+        <v>6858927</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4408,31 +4408,31 @@
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,34 +4541,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N46">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
         <v>2.55</v>
@@ -4577,40 +4577,40 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,34 +4719,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N48">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
         <v>2.55</v>
@@ -4755,40 +4755,40 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6858934</v>
+        <v>6858933</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,73 +4897,73 @@
         <v>45179.375</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>6.5</v>
+      </c>
+      <c r="N50">
+        <v>1.333</v>
+      </c>
+      <c r="O50">
+        <v>5.5</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>-1.5</v>
+      </c>
+      <c r="R50">
+        <v>1.9</v>
+      </c>
+      <c r="S50">
+        <v>1.9</v>
+      </c>
+      <c r="T50">
+        <v>3.25</v>
+      </c>
+      <c r="U50">
+        <v>1.925</v>
+      </c>
+      <c r="V50">
+        <v>1.875</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
         <v>5</v>
       </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4.2</v>
-      </c>
-      <c r="P50">
-        <v>5.25</v>
-      </c>
-      <c r="Q50">
-        <v>-1</v>
-      </c>
-      <c r="R50">
-        <v>1.8</v>
-      </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
-      <c r="W50">
-        <v>0.5</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6858933</v>
+        <v>6858934</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,73 +4986,73 @@
         <v>45179.375</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51">
+        <v>1.55</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>46</v>
-      </c>
-      <c r="K51">
-        <v>1.35</v>
-      </c>
-      <c r="L51">
+      <c r="M51">
         <v>5</v>
       </c>
-      <c r="M51">
-        <v>6.5</v>
-      </c>
       <c r="N51">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
         <v>1.9</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.9</v>
       </c>
-      <c r="T51">
-        <v>3.25</v>
-      </c>
-      <c r="U51">
-        <v>1.925</v>
-      </c>
-      <c r="V51">
-        <v>1.875</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB51">
-        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,13 +5698,13 @@
         <v>45192.375</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5713,43 +5713,43 @@
         <v>45</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5758,16 +5758,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,13 +5787,13 @@
         <v>45192.375</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5802,43 +5802,43 @@
         <v>45</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
+        <v>5.5</v>
+      </c>
+      <c r="N60">
+        <v>1.444</v>
+      </c>
+      <c r="O60">
+        <v>4.2</v>
+      </c>
+      <c r="P60">
+        <v>6</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <v>1.725</v>
+      </c>
+      <c r="S60">
+        <v>2.075</v>
+      </c>
+      <c r="T60">
         <v>3</v>
       </c>
-      <c r="N60">
-        <v>2.1</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
-      <c r="P60">
-        <v>3</v>
-      </c>
-      <c r="Q60">
-        <v>-0.25</v>
-      </c>
-      <c r="R60">
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="S60">
-        <v>1.95</v>
-      </c>
-      <c r="T60">
-        <v>2.5</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
       <c r="W60">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5847,16 +5847,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859010</v>
+        <v>6859008</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,73 +7745,73 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L82">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N82">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="O82">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859011</v>
+        <v>6859007</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K83">
+        <v>3.6</v>
+      </c>
+      <c r="L83">
+        <v>3.4</v>
+      </c>
+      <c r="M83">
+        <v>1.909</v>
+      </c>
+      <c r="N83">
+        <v>3.2</v>
+      </c>
+      <c r="O83">
+        <v>3.4</v>
+      </c>
+      <c r="P83">
+        <v>2.05</v>
+      </c>
+      <c r="Q83">
+        <v>0.25</v>
+      </c>
+      <c r="R83">
         <v>2</v>
       </c>
-      <c r="L83">
-        <v>3.5</v>
-      </c>
-      <c r="M83">
-        <v>3.3</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>3.3</v>
-      </c>
-      <c r="Q83">
-        <v>-0.25</v>
-      </c>
-      <c r="R83">
-        <v>1.75</v>
-      </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
+        <v>0.8</v>
+      </c>
+      <c r="AB83">
+        <v>0.4875</v>
+      </c>
+      <c r="AC83">
         <v>-0.5</v>
-      </c>
-      <c r="AA83">
-        <v>0.475</v>
-      </c>
-      <c r="AB83">
-        <v>0.8</v>
-      </c>
-      <c r="AC83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859008</v>
+        <v>6859011</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,10 +7923,10 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7938,31 +7938,31 @@
         <v>44</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N84">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
         <v>2.5</v>
@@ -7977,16 +7977,16 @@
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB84">
         <v>0.8</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859007</v>
+        <v>6859010</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P85">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -10396,6 +10396,540 @@
       </c>
       <c r="AC111">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>6859072</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45360.40625</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>45</v>
+      </c>
+      <c r="K112">
+        <v>2.1</v>
+      </c>
+      <c r="L112">
+        <v>3.5</v>
+      </c>
+      <c r="M112">
+        <v>2.9</v>
+      </c>
+      <c r="N112">
+        <v>1.95</v>
+      </c>
+      <c r="O112">
+        <v>3.6</v>
+      </c>
+      <c r="P112">
+        <v>3.2</v>
+      </c>
+      <c r="Q112">
+        <v>-0.5</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.5</v>
+      </c>
+      <c r="U112">
+        <v>1.85</v>
+      </c>
+      <c r="V112">
+        <v>1.95</v>
+      </c>
+      <c r="W112">
+        <v>0.95</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>1</v>
+      </c>
+      <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>6859074</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F113" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113">
+        <v>2.2</v>
+      </c>
+      <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>2.8</v>
+      </c>
+      <c r="N113">
+        <v>2.15</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
+        <v>2.875</v>
+      </c>
+      <c r="Q113">
+        <v>-0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>1.85</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.975</v>
+      </c>
+      <c r="V113">
+        <v>1.825</v>
+      </c>
+      <c r="W113">
+        <v>1.15</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0.95</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>6859073</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>45</v>
+      </c>
+      <c r="K114">
+        <v>1.45</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>6</v>
+      </c>
+      <c r="N114">
+        <v>1.333</v>
+      </c>
+      <c r="O114">
+        <v>4.75</v>
+      </c>
+      <c r="P114">
+        <v>7.5</v>
+      </c>
+      <c r="Q114">
+        <v>-1.5</v>
+      </c>
+      <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>1.925</v>
+      </c>
+      <c r="V114">
+        <v>1.875</v>
+      </c>
+      <c r="W114">
+        <v>0.333</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>6859070</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>41</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>44</v>
+      </c>
+      <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.6</v>
+      </c>
+      <c r="M115">
+        <v>2.9</v>
+      </c>
+      <c r="N115">
+        <v>1.85</v>
+      </c>
+      <c r="O115">
+        <v>3.8</v>
+      </c>
+      <c r="P115">
+        <v>3.4</v>
+      </c>
+      <c r="Q115">
+        <v>-0.5</v>
+      </c>
+      <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.925</v>
+      </c>
+      <c r="T115">
+        <v>2.25</v>
+      </c>
+      <c r="U115">
+        <v>1.925</v>
+      </c>
+      <c r="V115">
+        <v>1.875</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>2.8</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
+        <v>0.925</v>
+      </c>
+      <c r="AB115">
+        <v>-0.5</v>
+      </c>
+      <c r="AC115">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>6859071</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>1.714</v>
+      </c>
+      <c r="L116">
+        <v>3.75</v>
+      </c>
+      <c r="M116">
+        <v>3.9</v>
+      </c>
+      <c r="N116">
+        <v>1.85</v>
+      </c>
+      <c r="O116">
+        <v>3.6</v>
+      </c>
+      <c r="P116">
+        <v>3.4</v>
+      </c>
+      <c r="Q116">
+        <v>-0.5</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.85</v>
+      </c>
+      <c r="V116">
+        <v>1.95</v>
+      </c>
+      <c r="W116">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>6859069</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F117" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117">
+        <v>1.25</v>
+      </c>
+      <c r="L117">
+        <v>5.25</v>
+      </c>
+      <c r="M117">
+        <v>11</v>
+      </c>
+      <c r="N117">
+        <v>1.285</v>
+      </c>
+      <c r="O117">
+        <v>5.25</v>
+      </c>
+      <c r="P117">
+        <v>7.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.5</v>
+      </c>
+      <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
+        <v>1.85</v>
+      </c>
+      <c r="V117">
+        <v>1.95</v>
+      </c>
+      <c r="W117">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.925</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Denmark Division 2</t>
   </si>
   <si>
-    <t>B93 Copenhagen</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>B93 Copenhagen</t>
   </si>
   <si>
     <t>Skive</t>
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -148,10 +148,10 @@
     <t>FA 2000</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -628,70 +628,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.8</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -717,70 +717,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
+        <v>1.444</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>6.25</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+      <c r="O3">
+        <v>4.2</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
         <v>1.85</v>
       </c>
-      <c r="L3">
-        <v>3.5</v>
-      </c>
-      <c r="M3">
-        <v>3.75</v>
-      </c>
-      <c r="N3">
-        <v>1.85</v>
-      </c>
-      <c r="O3">
-        <v>3.4</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
         <v>2</v>
       </c>
-      <c r="V3">
-        <v>1.8</v>
-      </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.285</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>1.95</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>1.9</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6533424</v>
+        <v>6529284</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
+        <v>2.375</v>
+      </c>
+      <c r="N12">
+        <v>2.4</v>
+      </c>
+      <c r="O12">
+        <v>3.8</v>
+      </c>
+      <c r="P12">
         <v>2.3</v>
-      </c>
-      <c r="N12">
-        <v>2.25</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>2.5</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y12">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6529391</v>
+        <v>6533424</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N13">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>1.727</v>
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6529284</v>
+        <v>6529391</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,10 +1782,10 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1794,64 +1794,64 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
         <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.833</v>
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2138,76 +2138,76 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N19">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.875</v>
+      </c>
+      <c r="V19">
+        <v>1.925</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2227,76 +2227,76 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>1.571</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>4.75</v>
+      </c>
+      <c r="N20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
+        <v>3.8</v>
+      </c>
+      <c r="P20">
+        <v>5.25</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>1.9</v>
+      </c>
+      <c r="S20">
+        <v>1.9</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
         <v>2</v>
       </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>2.3</v>
-      </c>
-      <c r="L20">
-        <v>3.3</v>
-      </c>
-      <c r="M20">
-        <v>2.625</v>
-      </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2.8</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,73 +2583,73 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,73 +2672,73 @@
         <v>45150.375</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
         <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
         <v>0.925</v>
       </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>1.7</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,10 +3028,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,40 +3043,40 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC29">
         <v>-0.5</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>4.75</v>
+      </c>
+      <c r="L30">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <v>1.6</v>
+      </c>
+      <c r="N30">
         <v>5</v>
       </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30">
-        <v>1.85</v>
-      </c>
-      <c r="L30">
-        <v>3.5</v>
-      </c>
-      <c r="M30">
-        <v>3.75</v>
-      </c>
-      <c r="N30">
-        <v>1.85</v>
-      </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.75</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>0.571</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>-0</v>
+      </c>
+      <c r="AB30">
+        <v>0.375</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
-      <c r="W30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
-        <v>0.875</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858913</v>
+        <v>6858912</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
         <v>1.925</v>
       </c>
-      <c r="S31">
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1.925</v>
+      </c>
+      <c r="V31">
         <v>1.875</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3574,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>3.4</v>
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N37">
+        <v>2.1</v>
+      </c>
+      <c r="O37">
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>4</v>
-      </c>
-      <c r="P37">
-        <v>3.3</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>2.5</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.925</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
-      <c r="W37">
+      <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>44</v>
       </c>
       <c r="K38">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
         <v>1.9</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.9</v>
       </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>1.3</v>
@@ -4010,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4262,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4274,40 +4274,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -4316,34 +4316,34 @@
         <v>1.8</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858927</v>
+        <v>6858926</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="N44">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4408,31 +4408,31 @@
         <v>3</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858925</v>
+        <v>6858927</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,13 +4452,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -4470,19 +4470,19 @@
         <v>4.333</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="N45">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="Q45">
         <v>0.75</v>
@@ -4494,13 +4494,13 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4509,7 +4509,7 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z45">
         <v>-1</v>
@@ -4518,10 +4518,10 @@
         <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858929</v>
+        <v>6858928</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,10 +4541,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4553,28 +4553,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
         <v>1.85</v>
@@ -4583,16 +4583,16 @@
         <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
+        <v>1.925</v>
+      </c>
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="V46">
-        <v>1.925</v>
-      </c>
       <c r="W46">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4610,7 +4610,7 @@
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858928</v>
+        <v>6858929</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,10 +4630,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4642,28 +4642,28 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O47">
         <v>3.4</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>1.85</v>
@@ -4672,16 +4672,16 @@
         <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
+        <v>1.875</v>
+      </c>
+      <c r="V47">
         <v>1.925</v>
       </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4699,7 +4699,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.4</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>1.65</v>
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5345,7 +5345,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5609,7 +5609,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.615</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>1.222</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>3.6</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>4.5</v>
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
         <v>45</v>
       </c>
       <c r="K66">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N66">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6363,7 +6363,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.825</v>
@@ -6372,10 +6372,10 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,40 +6410,40 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6452,7 +6452,7 @@
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6461,10 +6461,10 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,10 +6476,10 @@
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6778,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>1.6</v>
@@ -6858,7 +6858,7 @@
         <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.25</v>
@@ -7478,7 +7478,7 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,10 +7567,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7579,49 +7579,49 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7630,13 +7630,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,10 +7656,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7668,49 +7668,49 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L81">
+        <v>3.8</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>1.65</v>
+      </c>
+      <c r="O81">
         <v>3.6</v>
       </c>
-      <c r="M81">
-        <v>4.2</v>
-      </c>
-      <c r="N81">
-        <v>1.615</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q81">
         <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7719,13 +7719,13 @@
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N82">
+        <v>3.2</v>
+      </c>
+      <c r="O82">
         <v>3.4</v>
       </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859007</v>
+        <v>6859008</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>3.6</v>
       </c>
       <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>1.85</v>
+      </c>
+      <c r="N83">
         <v>3.4</v>
       </c>
-      <c r="M83">
+      <c r="O83">
+        <v>3.6</v>
+      </c>
+      <c r="P83">
         <v>1.909</v>
       </c>
-      <c r="N83">
-        <v>3.2</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
-      </c>
-      <c r="P83">
-        <v>2.05</v>
-      </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.8</v>
+      </c>
+      <c r="V83">
         <v>2</v>
       </c>
-      <c r="S83">
-        <v>1.8</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.975</v>
-      </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>0.8</v>
       </c>
-      <c r="AB83">
-        <v>0.4875</v>
-      </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859011</v>
+        <v>6859010</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,73 +7923,73 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>44</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L84">
+        <v>6.5</v>
+      </c>
+      <c r="M84">
+        <v>9</v>
+      </c>
+      <c r="N84">
+        <v>1.2</v>
+      </c>
+      <c r="O84">
+        <v>6.5</v>
+      </c>
+      <c r="P84">
+        <v>10</v>
+      </c>
+      <c r="Q84">
+        <v>-2</v>
+      </c>
+      <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
         <v>3.5</v>
       </c>
-      <c r="M84">
-        <v>3.3</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <v>3.5</v>
-      </c>
-      <c r="P84">
-        <v>3.3</v>
-      </c>
-      <c r="Q84">
-        <v>-0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.75</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859010</v>
+        <v>6859011</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,73 +8012,73 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.6</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>2.15</v>
@@ -8546,7 +8546,7 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -8558,7 +8558,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>1.533</v>
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,49 +8635,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N92">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
         <v>1.9</v>
@@ -8692,19 +8692,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859041</v>
+        <v>6859035</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8914,46 +8914,46 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.571</v>
+        <v>2.3</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859035</v>
+        <v>6859041</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,10 +8991,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9003,46 +9003,46 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N96">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>2.3</v>
+        <v>0.571</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9092,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>1.5</v>
@@ -9172,7 +9172,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,58 +9347,58 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N100">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9407,16 +9407,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,58 +9436,58 @@
         <v>45240.625</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9496,16 +9496,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>1.4</v>
@@ -10071,7 +10071,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>1.727</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>5</v>
@@ -10329,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>2.1</v>
@@ -10504,7 +10504,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
         <v>40</v>
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.2</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>1.45</v>
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6859070</v>
+        <v>6859071</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,34 +10682,34 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>1.714</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N115">
         <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
         <v>3.4</v>
@@ -10718,40 +10718,40 @@
         <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X115">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6859071</v>
+        <v>6859070</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,34 +10771,34 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
         <v>45</v>
       </c>
       <c r="K116">
-        <v>1.714</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N116">
         <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
         <v>3.4</v>
@@ -10807,40 +10807,40 @@
         <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>1.25</v>
@@ -10930,6 +10930,510 @@
       </c>
       <c r="AC117">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>6859066</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F118" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>46</v>
+      </c>
+      <c r="K118">
+        <v>3.6</v>
+      </c>
+      <c r="L118">
+        <v>3.6</v>
+      </c>
+      <c r="M118">
+        <v>1.833</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
+        <v>3.8</v>
+      </c>
+      <c r="P118">
+        <v>1.615</v>
+      </c>
+      <c r="Q118">
+        <v>0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
+        <v>1.825</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
+        <v>1.925</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>0.615</v>
+      </c>
+      <c r="Z118">
+        <v>-0.5</v>
+      </c>
+      <c r="AA118">
+        <v>0.4125</v>
+      </c>
+      <c r="AB118">
+        <v>0.875</v>
+      </c>
+      <c r="AC118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>6859068</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F119" t="s">
+        <v>41</v>
+      </c>
+      <c r="G119" t="s">
+        <v>43</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>45</v>
+      </c>
+      <c r="K119">
+        <v>2.2</v>
+      </c>
+      <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
+        <v>2.9</v>
+      </c>
+      <c r="N119">
+        <v>2.15</v>
+      </c>
+      <c r="O119">
+        <v>3.4</v>
+      </c>
+      <c r="P119">
+        <v>2.9</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.925</v>
+      </c>
+      <c r="S119">
+        <v>1.875</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
+        <v>1.875</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>2.4</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>-0.5</v>
+      </c>
+      <c r="AA119">
+        <v>0.4375</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>6859063</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45367.41666666666</v>
+      </c>
+      <c r="F120" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" t="s">
+        <v>40</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>45</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>3.5</v>
+      </c>
+      <c r="M120">
+        <v>1.769</v>
+      </c>
+      <c r="N120">
+        <v>4.333</v>
+      </c>
+      <c r="O120">
+        <v>3.6</v>
+      </c>
+      <c r="P120">
+        <v>1.666</v>
+      </c>
+      <c r="Q120">
+        <v>0.75</v>
+      </c>
+      <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
+        <v>1.825</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>2.6</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>6859061</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121" t="s">
+        <v>46</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>3.3</v>
+      </c>
+      <c r="M121">
+        <v>3.4</v>
+      </c>
+      <c r="N121">
+        <v>2.1</v>
+      </c>
+      <c r="O121">
+        <v>3.25</v>
+      </c>
+      <c r="P121">
+        <v>3.2</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>1.875</v>
+      </c>
+      <c r="V121">
+        <v>1.925</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>2.2</v>
+      </c>
+      <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>0.95</v>
+      </c>
+      <c r="AB121">
+        <v>0.875</v>
+      </c>
+      <c r="AC121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>6859060</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F122" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" t="s">
+        <v>33</v>
+      </c>
+      <c r="K122">
+        <v>7</v>
+      </c>
+      <c r="L122">
+        <v>4.5</v>
+      </c>
+      <c r="M122">
+        <v>1.35</v>
+      </c>
+      <c r="N122">
+        <v>8</v>
+      </c>
+      <c r="O122">
+        <v>4.75</v>
+      </c>
+      <c r="P122">
+        <v>1.3</v>
+      </c>
+      <c r="Q122">
+        <v>1.5</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
+        <v>1.925</v>
+      </c>
+      <c r="V122">
+        <v>1.875</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>6859058</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>32</v>
+      </c>
+      <c r="K123">
+        <v>3.75</v>
+      </c>
+      <c r="L123">
+        <v>3.5</v>
+      </c>
+      <c r="M123">
+        <v>1.85</v>
+      </c>
+      <c r="N123">
+        <v>4.333</v>
+      </c>
+      <c r="O123">
+        <v>3.6</v>
+      </c>
+      <c r="P123">
+        <v>1.727</v>
+      </c>
+      <c r="Q123">
+        <v>0.5</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>1.75</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>1.925</v>
+      </c>
+      <c r="V123">
+        <v>1.875</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6529284</v>
+        <v>6529391</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,10 +1515,10 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1530,61 +1530,61 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P12">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R12">
+        <v>1.825</v>
+      </c>
+      <c r="S12">
         <v>1.975</v>
-      </c>
-      <c r="S12">
-        <v>1.825</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1604,7 +1604,7 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6529391</v>
+        <v>6529284</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,10 +1782,10 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1797,61 +1797,61 @@
         <v>45</v>
       </c>
       <c r="K15">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N15">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
         <v>1.825</v>
-      </c>
-      <c r="S15">
-        <v>1.975</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>1.727</v>
+      </c>
+      <c r="N17">
+        <v>4.333</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>1.6</v>
+      </c>
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>1.833</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>3.4</v>
-      </c>
-      <c r="N17">
-        <v>1.833</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>3.4</v>
-      </c>
-      <c r="Q17">
-        <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.875</v>
-      </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2138,76 +2138,76 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>1.571</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>4.75</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <v>3.8</v>
+      </c>
+      <c r="P19">
+        <v>5.25</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>1.9</v>
+      </c>
+      <c r="S19">
+        <v>1.9</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.8</v>
+      </c>
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>2.3</v>
-      </c>
-      <c r="L19">
-        <v>3.3</v>
-      </c>
-      <c r="M19">
-        <v>2.625</v>
-      </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>2.8</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>1.875</v>
-      </c>
-      <c r="V19">
-        <v>1.925</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2227,76 +2227,76 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N20">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
+        <v>1.875</v>
+      </c>
+      <c r="V20">
+        <v>1.925</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>1.8</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>0.5</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,73 +2583,73 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
         <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.925</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,73 +2672,73 @@
         <v>45150.375</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N25">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
         <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>4.75</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>1.6</v>
+      </c>
+      <c r="N31">
         <v>5</v>
       </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31">
-        <v>1.85</v>
-      </c>
-      <c r="L31">
-        <v>3.5</v>
-      </c>
-      <c r="M31">
-        <v>3.75</v>
-      </c>
-      <c r="N31">
-        <v>1.85</v>
-      </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1.8</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.75</v>
+      </c>
+      <c r="V31">
+        <v>1.95</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>0.571</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>-0</v>
+      </c>
+      <c r="AB31">
+        <v>0.375</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.925</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.875</v>
-      </c>
-      <c r="W31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>0.875</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>0.925</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,73 +3562,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
+        <v>2.4</v>
+      </c>
+      <c r="N35">
+        <v>2.375</v>
+      </c>
+      <c r="O35">
+        <v>3.8</v>
+      </c>
+      <c r="P35">
+        <v>2.4</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
         <v>1.9</v>
       </c>
-      <c r="N35">
-        <v>2.875</v>
-      </c>
-      <c r="O35">
-        <v>3.6</v>
-      </c>
-      <c r="P35">
-        <v>2.1</v>
-      </c>
-      <c r="Q35">
-        <v>0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.925</v>
-      </c>
-      <c r="S35">
-        <v>1.875</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.85</v>
-      </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z35">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3639,7 +3639,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3651,73 +3651,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
         <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.9</v>
-      </c>
-      <c r="V36">
-        <v>1.9</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
         <v>1.9</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.9</v>
       </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.95</v>
-      </c>
-      <c r="V37">
-        <v>1.85</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
+        <v>2.1</v>
+      </c>
+      <c r="O38">
+        <v>3.5</v>
+      </c>
+      <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>3.3</v>
-      </c>
-      <c r="Q38">
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>2.5</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.875</v>
-      </c>
-      <c r="S38">
-        <v>1.925</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.9</v>
-      </c>
-      <c r="W38">
+      <c r="AA38">
+        <v>0.45</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.875</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6858924</v>
+        <v>6858923</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,22 +4096,22 @@
         <v>45171.375</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
         <v>3.5</v>
@@ -4120,52 +4120,52 @@
         <v>2.9</v>
       </c>
       <c r="N41">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y41">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6858923</v>
+        <v>6858924</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,22 +4185,22 @@
         <v>45171.375</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L42">
         <v>3.5</v>
@@ -4209,52 +4209,52 @@
         <v>2.9</v>
       </c>
       <c r="N42">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,34 +4630,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N47">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
         <v>2.55</v>
@@ -4666,40 +4666,40 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,34 +4719,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L48">
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N48">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
         <v>2.55</v>
@@ -4755,40 +4755,40 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X48">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6363,7 +6363,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
         <v>1.825</v>
@@ -6372,10 +6372,10 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,40 +6410,40 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6452,7 +6452,7 @@
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6461,10 +6461,10 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,10 +6476,10 @@
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858955</v>
+        <v>6858954</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,40 +6766,40 @@
         <v>45206.375</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
         <v>1.975</v>
@@ -6808,22 +6808,22 @@
         <v>1.825</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z71">
         <v>-1</v>
@@ -6835,7 +6835,7 @@
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6843,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6858954</v>
+        <v>6858955</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6855,40 +6855,40 @@
         <v>45206.375</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N72">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
         <v>1.975</v>
@@ -6897,22 +6897,22 @@
         <v>1.825</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y72">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -6924,7 +6924,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,73 +7389,73 @@
         <v>45213.375</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O78">
+        <v>3.8</v>
+      </c>
+      <c r="P78">
+        <v>4.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.8</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>3.75</v>
       </c>
-      <c r="P78">
-        <v>1.909</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.825</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>3.25</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>0.909</v>
-      </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,55 +7478,55 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859007</v>
+        <v>6859008</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>3.6</v>
       </c>
       <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
+        <v>1.85</v>
+      </c>
+      <c r="N82">
         <v>3.4</v>
       </c>
-      <c r="M82">
+      <c r="O82">
+        <v>3.6</v>
+      </c>
+      <c r="P82">
         <v>1.909</v>
       </c>
-      <c r="N82">
-        <v>3.2</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
-      </c>
-      <c r="P82">
-        <v>2.05</v>
-      </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
         <v>2</v>
       </c>
-      <c r="S82">
-        <v>1.8</v>
-      </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.975</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>0.8</v>
       </c>
-      <c r="AB82">
-        <v>0.4875</v>
-      </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859008</v>
+        <v>6859010</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,73 +7834,73 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M83">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N83">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859010</v>
+        <v>6859011</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,73 +7923,73 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859011</v>
+        <v>6859007</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
+        <v>3.6</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>1.909</v>
+      </c>
+      <c r="N85">
+        <v>3.2</v>
+      </c>
+      <c r="O85">
+        <v>3.4</v>
+      </c>
+      <c r="P85">
+        <v>2.05</v>
+      </c>
+      <c r="Q85">
+        <v>0.25</v>
+      </c>
+      <c r="R85">
         <v>2</v>
       </c>
-      <c r="L85">
-        <v>3.5</v>
-      </c>
-      <c r="M85">
-        <v>3.3</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <v>3.5</v>
-      </c>
-      <c r="P85">
-        <v>3.3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.75</v>
-      </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
+        <v>0.8</v>
+      </c>
+      <c r="AB85">
+        <v>0.4875</v>
+      </c>
+      <c r="AC85">
         <v>-0.5</v>
-      </c>
-      <c r="AA85">
-        <v>0.475</v>
-      </c>
-      <c r="AB85">
-        <v>0.8</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,76 +8457,76 @@
         <v>45227.375</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y90">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N91">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,49 +8635,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
         <v>1.9</v>
@@ -8692,19 +8692,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859035</v>
+        <v>6859041</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8917,43 +8917,43 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P95">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>2.3</v>
+        <v>0.571</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859041</v>
+        <v>6859035</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,10 +8991,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9006,43 +9006,43 @@
         <v>44</v>
       </c>
       <c r="K96">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.571</v>
+        <v>2.3</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,13 +9347,13 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9362,43 +9362,43 @@
         <v>44</v>
       </c>
       <c r="K100">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9407,16 +9407,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,13 +9436,13 @@
         <v>45240.625</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9451,43 +9451,43 @@
         <v>44</v>
       </c>
       <c r="K101">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N101">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9496,16 +9496,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC101">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859074</v>
+        <v>6859073</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,40 +10504,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>44</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R113">
         <v>1.95</v>
@@ -10546,16 +10546,16 @@
         <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10564,16 +10564,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6859073</v>
+        <v>6859074</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,40 +10593,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
       </c>
       <c r="K114">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N114">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O114">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q114">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
         <v>1.95</v>
@@ -10635,16 +10635,16 @@
         <v>1.85</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10653,16 +10653,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11310,6 +11310,15 @@
       <c r="G122" t="s">
         <v>33</v>
       </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>5</v>
+      </c>
+      <c r="J122" t="s">
+        <v>46</v>
+      </c>
       <c r="K122">
         <v>7</v>
       </c>
@@ -11347,19 +11356,25 @@
         <v>1.875</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB122">
+        <v>0.925</v>
+      </c>
+      <c r="AC122">
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11384,6 +11399,15 @@
       <c r="G123" t="s">
         <v>32</v>
       </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>45</v>
+      </c>
       <c r="K123">
         <v>3.75</v>
       </c>
@@ -11421,19 +11445,559 @@
         <v>1.875</v>
       </c>
       <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>2.6</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>1.05</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>6859051</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45374.40625</v>
+      </c>
+      <c r="F124" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>45</v>
+      </c>
+      <c r="K124">
+        <v>1.9</v>
+      </c>
+      <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
+        <v>3.5</v>
+      </c>
+      <c r="N124">
+        <v>1.75</v>
+      </c>
+      <c r="O124">
+        <v>3.5</v>
+      </c>
+      <c r="P124">
+        <v>4</v>
+      </c>
+      <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.8</v>
+      </c>
+      <c r="V124">
+        <v>2</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.5</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>6859053</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45374.41666666666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" t="s">
+        <v>37</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>45</v>
+      </c>
+      <c r="K125">
+        <v>2.5</v>
+      </c>
+      <c r="L125">
+        <v>3.25</v>
+      </c>
+      <c r="M125">
+        <v>2.5</v>
+      </c>
+      <c r="N125">
+        <v>2.3</v>
+      </c>
+      <c r="O125">
+        <v>3.2</v>
+      </c>
+      <c r="P125">
+        <v>2.8</v>
+      </c>
+      <c r="Q125">
+        <v>-0.25</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
+        <v>1.75</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.9</v>
+      </c>
+      <c r="V125">
+        <v>1.9</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.2</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-0.5</v>
+      </c>
+      <c r="AA125">
+        <v>0.375</v>
+      </c>
+      <c r="AB125">
+        <v>-0.5</v>
+      </c>
+      <c r="AC125">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>6859055</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45374.41666666666</v>
+      </c>
+      <c r="F126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
         <v>0</v>
       </c>
-      <c r="X123">
+      <c r="J126" t="s">
+        <v>44</v>
+      </c>
+      <c r="K126">
+        <v>1.75</v>
+      </c>
+      <c r="L126">
+        <v>3.75</v>
+      </c>
+      <c r="M126">
+        <v>3.75</v>
+      </c>
+      <c r="N126">
+        <v>1.7</v>
+      </c>
+      <c r="O126">
+        <v>3.8</v>
+      </c>
+      <c r="P126">
+        <v>3.8</v>
+      </c>
+      <c r="Q126">
+        <v>-0.75</v>
+      </c>
+      <c r="R126">
+        <v>1.95</v>
+      </c>
+      <c r="S126">
+        <v>1.85</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
+        <v>1.975</v>
+      </c>
+      <c r="W126">
+        <v>0.7</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>0.95</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>0.4125</v>
+      </c>
+      <c r="AC126">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>6859048</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45374.41666666666</v>
+      </c>
+      <c r="F127" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" t="s">
+        <v>41</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>45</v>
+      </c>
+      <c r="K127">
+        <v>2.9</v>
+      </c>
+      <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>2.2</v>
+      </c>
+      <c r="N127">
+        <v>2.7</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
+        <v>2.3</v>
+      </c>
+      <c r="Q127">
         <v>0</v>
       </c>
-      <c r="Y123">
+      <c r="R127">
+        <v>2.025</v>
+      </c>
+      <c r="S127">
+        <v>1.775</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.975</v>
+      </c>
+      <c r="V127">
+        <v>1.825</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>2.4</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
         <v>0</v>
       </c>
-      <c r="Z123">
+      <c r="AA127">
+        <v>-0</v>
+      </c>
+      <c r="AB127">
+        <v>-0.5</v>
+      </c>
+      <c r="AC127">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>6859050</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45374.41666666666</v>
+      </c>
+      <c r="F128" t="s">
+        <v>40</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
         <v>0</v>
       </c>
-      <c r="AA123">
-        <v>0</v>
+      <c r="J128" t="s">
+        <v>44</v>
+      </c>
+      <c r="K128">
+        <v>1.571</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>4.75</v>
+      </c>
+      <c r="N128">
+        <v>1.571</v>
+      </c>
+      <c r="O128">
+        <v>4</v>
+      </c>
+      <c r="P128">
+        <v>5</v>
+      </c>
+      <c r="Q128">
+        <v>-1</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.8</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>1.9</v>
+      </c>
+      <c r="V128">
+        <v>1.9</v>
+      </c>
+      <c r="W128">
+        <v>0.571</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>1</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>6859046</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45375.41666666666</v>
+      </c>
+      <c r="F129" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>45</v>
+      </c>
+      <c r="K129">
+        <v>1.55</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>1.55</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>5</v>
+      </c>
+      <c r="Q129">
+        <v>-1</v>
+      </c>
+      <c r="R129">
+        <v>1.95</v>
+      </c>
+      <c r="S129">
+        <v>1.85</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
+        <v>1.95</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>2.8</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC129">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Denmark Division 2</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>B93 Copenhagen</t>
   </si>
   <si>
-    <t>B93 Copenhagen</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
     <t>Skive</t>
@@ -148,10 +148,10 @@
     <t>FA 2000</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -628,70 +628,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2">
+        <v>1.444</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>6.25</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
+        <v>4.2</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
         <v>1.85</v>
       </c>
-      <c r="L2">
-        <v>3.5</v>
-      </c>
-      <c r="M2">
-        <v>3.75</v>
-      </c>
-      <c r="N2">
-        <v>1.85</v>
-      </c>
-      <c r="O2">
-        <v>3.4</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U2">
+        <v>1.8</v>
+      </c>
+      <c r="V2">
         <v>2</v>
       </c>
-      <c r="V2">
-        <v>1.8</v>
-      </c>
       <c r="W2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -717,70 +717,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>1.8</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.285</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>1.95</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>1.9</v>
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6529391</v>
+        <v>6533424</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N12">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="O12">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC12">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6533424</v>
+        <v>6532919</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L13">
+        <v>3.8</v>
+      </c>
+      <c r="M13">
         <v>3.75</v>
       </c>
-      <c r="M13">
-        <v>2.3</v>
-      </c>
       <c r="N13">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6532919</v>
+        <v>6529391</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>2.375</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>3.75</v>
+      </c>
+      <c r="L18">
+        <v>3.75</v>
+      </c>
+      <c r="M18">
+        <v>1.727</v>
+      </c>
+      <c r="N18">
+        <v>4.333</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>1.6</v>
+      </c>
+      <c r="Q18">
+        <v>0.75</v>
+      </c>
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>1.833</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.4</v>
-      </c>
-      <c r="N18">
-        <v>1.833</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
-      </c>
-      <c r="Q18">
-        <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,73 +2583,73 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,73 +2672,73 @@
         <v>45150.375</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
         <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
         <v>0.925</v>
       </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.7</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,10 +3028,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,40 +3043,40 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC29">
         <v>-0.5</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858912</v>
+        <v>6858913</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q30">
+        <v>-0.25</v>
+      </c>
+      <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
+        <v>1.925</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>1.9</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
+        <v>0.875</v>
+      </c>
+      <c r="AB30">
+        <v>0.4375</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
-      <c r="W30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
-        <v>0.875</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858911</v>
+        <v>6858912</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,73 +3562,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.85</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1.95</v>
       </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.9</v>
-      </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3639,7 +3639,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3651,73 +3651,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
         <v>3.6</v>
       </c>
       <c r="M36">
+        <v>2.4</v>
+      </c>
+      <c r="N36">
+        <v>2.375</v>
+      </c>
+      <c r="O36">
+        <v>3.8</v>
+      </c>
+      <c r="P36">
+        <v>2.4</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
         <v>1.9</v>
       </c>
-      <c r="N36">
-        <v>2.875</v>
-      </c>
-      <c r="O36">
-        <v>3.6</v>
-      </c>
-      <c r="P36">
-        <v>2.1</v>
-      </c>
-      <c r="Q36">
-        <v>0.25</v>
-      </c>
-      <c r="R36">
-        <v>1.925</v>
-      </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z36">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N37">
+        <v>2.1</v>
+      </c>
+      <c r="O37">
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>4</v>
-      </c>
-      <c r="P37">
-        <v>3.3</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>2.5</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.925</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
-      <c r="W37">
+      <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>45</v>
       </c>
       <c r="K38">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
         <v>1.9</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.9</v>
       </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.3</v>
@@ -4010,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>2.1</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>2.6</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>2.2</v>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.4</v>
@@ -4719,7 +4719,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.45</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.65</v>
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6858933</v>
+        <v>6858934</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,73 +4897,73 @@
         <v>45179.375</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50">
+        <v>1.55</v>
+      </c>
+      <c r="L50">
         <v>4</v>
       </c>
-      <c r="J50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50">
-        <v>1.35</v>
-      </c>
-      <c r="L50">
+      <c r="M50">
         <v>5</v>
       </c>
-      <c r="M50">
-        <v>6.5</v>
-      </c>
       <c r="N50">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P50">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q50">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R50">
+        <v>1.8</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
         <v>1.9</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>1.9</v>
       </c>
-      <c r="T50">
-        <v>3.25</v>
-      </c>
-      <c r="U50">
-        <v>1.925</v>
-      </c>
-      <c r="V50">
-        <v>1.875</v>
-      </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB50">
-        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6858934</v>
+        <v>6858933</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,73 +4986,73 @@
         <v>45179.375</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.333</v>
+      </c>
+      <c r="O51">
+        <v>5.5</v>
+      </c>
+      <c r="P51">
+        <v>6</v>
+      </c>
+      <c r="Q51">
+        <v>-1.5</v>
+      </c>
+      <c r="R51">
+        <v>1.9</v>
+      </c>
+      <c r="S51">
+        <v>1.9</v>
+      </c>
+      <c r="T51">
+        <v>3.25</v>
+      </c>
+      <c r="U51">
+        <v>1.925</v>
+      </c>
+      <c r="V51">
+        <v>1.875</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
         <v>5</v>
       </c>
-      <c r="N51">
-        <v>1.5</v>
-      </c>
-      <c r="O51">
-        <v>4.2</v>
-      </c>
-      <c r="P51">
-        <v>5.25</v>
-      </c>
-      <c r="Q51">
-        <v>-1</v>
-      </c>
-      <c r="R51">
-        <v>1.8</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
-      <c r="W51">
-        <v>0.5</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>-1</v>
-      </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5345,7 +5345,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5609,7 +5609,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>1.615</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>1.222</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>3.6</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>4.5</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>2.55</v>
@@ -6410,7 +6410,7 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6422,7 +6422,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6769,7 +6769,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>1.6</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.25</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,55 +7389,55 @@
         <v>45213.375</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7446,16 +7446,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,73 +7478,73 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O79">
+        <v>3.8</v>
+      </c>
+      <c r="P79">
+        <v>4.75</v>
+      </c>
+      <c r="Q79">
+        <v>-0.75</v>
+      </c>
+      <c r="R79">
+        <v>1.8</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
+        <v>1.8</v>
+      </c>
+      <c r="V79">
+        <v>2</v>
+      </c>
+      <c r="W79">
+        <v>-1</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
         <v>3.75</v>
       </c>
-      <c r="P79">
-        <v>1.909</v>
-      </c>
-      <c r="Q79">
-        <v>0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.825</v>
-      </c>
-      <c r="S79">
-        <v>1.975</v>
-      </c>
-      <c r="T79">
-        <v>3.25</v>
-      </c>
-      <c r="U79">
-        <v>1.925</v>
-      </c>
-      <c r="V79">
-        <v>1.875</v>
-      </c>
-      <c r="W79">
-        <v>-1</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>0.909</v>
-      </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>1.7</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>1.571</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N82">
+        <v>3.2</v>
+      </c>
+      <c r="O82">
         <v>3.4</v>
       </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859010</v>
+        <v>6859008</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,73 +7834,73 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>44</v>
       </c>
       <c r="K83">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7935,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859007</v>
+        <v>6859010</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P85">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.6</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>2.15</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,76 +8457,76 @@
         <v>45227.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N90">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M91">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y91">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,49 +8635,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N92">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
         <v>1.9</v>
@@ -8692,19 +8692,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859041</v>
+        <v>6859037</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,40 +8902,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
         <v>2</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N95">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
         <v>1.775</v>
@@ -8944,16 +8944,16 @@
         <v>2.025</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>3.3</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859037</v>
+        <v>6859041</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,40 +9080,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N97">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O97">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
         <v>1.775</v>
@@ -9122,16 +9122,16 @@
         <v>2.025</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9140,13 +9140,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>0.3875</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="AA97">
-        <v>0.5125</v>
-      </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9172,7 +9172,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,58 +9347,58 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N100">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9407,16 +9407,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,58 +9436,58 @@
         <v>45240.625</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9496,16 +9496,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>1.4</v>
@@ -10071,7 +10071,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.727</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>5</v>
@@ -10329,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>2.1</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859073</v>
+        <v>6859074</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,40 +10504,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N113">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O113">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
         <v>1.95</v>
@@ -10546,16 +10546,16 @@
         <v>1.85</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10564,16 +10564,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6859074</v>
+        <v>6859073</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,40 +10593,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R114">
         <v>1.95</v>
@@ -10635,16 +10635,16 @@
         <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10653,16 +10653,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>1.714</v>
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2.1</v>
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>1.25</v>
@@ -10937,7 +10937,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6859066</v>
+        <v>6859068</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10949,76 +10949,76 @@
         <v>45366.625</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
+        <v>1.925</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y118">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.875</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6859068</v>
+        <v>6859066</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,76 +11038,76 @@
         <v>45366.625</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.825</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z119">
         <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>4</v>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>3.75</v>
@@ -11495,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>1.9</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6859053</v>
+        <v>6859055</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,76 +11572,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N125">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X125">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.95</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>0.4125</v>
+      </c>
+      <c r="AC125">
         <v>-0.5</v>
-      </c>
-      <c r="AA125">
-        <v>0.375</v>
-      </c>
-      <c r="AB125">
-        <v>-0.5</v>
-      </c>
-      <c r="AC125">
-        <v>0.45</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6859055</v>
+        <v>6859053</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,76 +11661,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>44</v>
       </c>
       <c r="K126">
+        <v>2.5</v>
+      </c>
+      <c r="L126">
+        <v>3.25</v>
+      </c>
+      <c r="M126">
+        <v>2.5</v>
+      </c>
+      <c r="N126">
+        <v>2.3</v>
+      </c>
+      <c r="O126">
+        <v>3.2</v>
+      </c>
+      <c r="P126">
+        <v>2.8</v>
+      </c>
+      <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
         <v>1.75</v>
       </c>
-      <c r="L126">
-        <v>3.75</v>
-      </c>
-      <c r="M126">
-        <v>3.75</v>
-      </c>
-      <c r="N126">
-        <v>1.7</v>
-      </c>
-      <c r="O126">
-        <v>3.8</v>
-      </c>
-      <c r="P126">
-        <v>3.8</v>
-      </c>
-      <c r="Q126">
-        <v>-0.75</v>
-      </c>
-      <c r="R126">
-        <v>1.95</v>
-      </c>
-      <c r="S126">
-        <v>1.85</v>
-      </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB126">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>2.9</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>1.571</v>
@@ -11940,7 +11940,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>1.55</v>
@@ -11997,6 +11997,540 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>6859044</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45379.375</v>
+      </c>
+      <c r="F130" t="s">
+        <v>41</v>
+      </c>
+      <c r="G130" t="s">
+        <v>40</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130" t="s">
+        <v>46</v>
+      </c>
+      <c r="K130">
+        <v>3.75</v>
+      </c>
+      <c r="L130">
+        <v>3.6</v>
+      </c>
+      <c r="M130">
+        <v>1.8</v>
+      </c>
+      <c r="N130">
+        <v>3.3</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
+        <v>2</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.975</v>
+      </c>
+      <c r="S130">
+        <v>1.825</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.975</v>
+      </c>
+      <c r="V130">
+        <v>1.825</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>1</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.825</v>
+      </c>
+      <c r="AB130">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6859036</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45379.375</v>
+      </c>
+      <c r="F131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>43</v>
+      </c>
+      <c r="H131">
+        <v>4</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>45</v>
+      </c>
+      <c r="K131">
+        <v>2.9</v>
+      </c>
+      <c r="L131">
+        <v>3.5</v>
+      </c>
+      <c r="M131">
+        <v>2.15</v>
+      </c>
+      <c r="N131">
+        <v>2.55</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>2.45</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
+        <v>2</v>
+      </c>
+      <c r="W131">
+        <v>1.55</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.95</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>0.8</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6859040</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45379.41666666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132" t="s">
+        <v>45</v>
+      </c>
+      <c r="K132">
+        <v>1.65</v>
+      </c>
+      <c r="L132">
+        <v>3.75</v>
+      </c>
+      <c r="M132">
+        <v>4.333</v>
+      </c>
+      <c r="N132">
+        <v>1.6</v>
+      </c>
+      <c r="O132">
+        <v>3.8</v>
+      </c>
+      <c r="P132">
+        <v>4.75</v>
+      </c>
+      <c r="Q132">
+        <v>-1</v>
+      </c>
+      <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>1.75</v>
+      </c>
+      <c r="T132">
+        <v>3</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>1.975</v>
+      </c>
+      <c r="W132">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>0.95</v>
+      </c>
+      <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>0.825</v>
+      </c>
+      <c r="AC132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6859042</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45379.41666666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>46</v>
+      </c>
+      <c r="K133">
+        <v>1.533</v>
+      </c>
+      <c r="L133">
+        <v>3.8</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
+        <v>1.65</v>
+      </c>
+      <c r="O133">
+        <v>3.5</v>
+      </c>
+      <c r="P133">
+        <v>4.333</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
+        <v>1.9</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
+        <v>1.9</v>
+      </c>
+      <c r="V133">
+        <v>1.9</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>3.333</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>6859039</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45379.45833333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>46</v>
+      </c>
+      <c r="K134">
+        <v>2.2</v>
+      </c>
+      <c r="L134">
+        <v>3.4</v>
+      </c>
+      <c r="M134">
+        <v>2.8</v>
+      </c>
+      <c r="N134">
+        <v>2.5</v>
+      </c>
+      <c r="O134">
+        <v>3.25</v>
+      </c>
+      <c r="P134">
+        <v>2.5</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1.725</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.95</v>
+      </c>
+      <c r="V134">
+        <v>1.85</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>1.5</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>6859038</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45379.45833333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" t="s">
+        <v>42</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135" t="s">
+        <v>46</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3.6</v>
+      </c>
+      <c r="N135">
+        <v>2.1</v>
+      </c>
+      <c r="O135">
+        <v>3.2</v>
+      </c>
+      <c r="P135">
+        <v>3.2</v>
+      </c>
+      <c r="Q135">
+        <v>-0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
+        <v>1.925</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>1.9</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>2.2</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.925</v>
+      </c>
+      <c r="AB135">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC135">
         <v>-1</v>
       </c>
     </row>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6532919</v>
+        <v>6529391</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6529391</v>
+        <v>6529284</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,10 +1693,10 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1708,61 +1708,61 @@
         <v>44</v>
       </c>
       <c r="K14">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N14">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="O14">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
         <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>1.975</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6529284</v>
+        <v>6532919</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,49 +1782,49 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L15">
         <v>3.8</v>
       </c>
       <c r="M15">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
         <v>1.95</v>
@@ -1833,25 +1833,25 @@
         <v>1.85</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2138,76 +2138,76 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N19">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.875</v>
+      </c>
+      <c r="V19">
+        <v>1.925</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2227,76 +2227,76 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>1.571</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>4.75</v>
+      </c>
+      <c r="N20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
+        <v>3.8</v>
+      </c>
+      <c r="P20">
+        <v>5.25</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>1.9</v>
+      </c>
+      <c r="S20">
+        <v>1.9</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
         <v>2</v>
       </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>2.3</v>
-      </c>
-      <c r="L20">
-        <v>3.3</v>
-      </c>
-      <c r="M20">
-        <v>2.625</v>
-      </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2.8</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,10 +3028,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,40 +3043,40 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC29">
         <v>-0.5</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,10 +3117,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,40 +3132,40 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC30">
         <v>-0.5</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859007</v>
+        <v>6859008</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>3.6</v>
       </c>
       <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
+        <v>1.85</v>
+      </c>
+      <c r="N82">
         <v>3.4</v>
       </c>
-      <c r="M82">
+      <c r="O82">
+        <v>3.6</v>
+      </c>
+      <c r="P82">
         <v>1.909</v>
       </c>
-      <c r="N82">
-        <v>3.2</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
-      </c>
-      <c r="P82">
-        <v>2.05</v>
-      </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
         <v>2</v>
       </c>
-      <c r="S82">
-        <v>1.8</v>
-      </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.975</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>0.8</v>
       </c>
-      <c r="AB82">
-        <v>0.4875</v>
-      </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859008</v>
+        <v>6859010</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,73 +7834,73 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M83">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N83">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859010</v>
+        <v>6859007</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N85">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="O85">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859074</v>
+        <v>6859073</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,40 +10504,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>45</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R113">
         <v>1.95</v>
@@ -10546,16 +10546,16 @@
         <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10564,16 +10564,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6859073</v>
+        <v>6859074</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,40 +10593,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>45</v>
       </c>
       <c r="K114">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N114">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O114">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q114">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
         <v>1.95</v>
@@ -10635,16 +10635,16 @@
         <v>1.85</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10653,16 +10653,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10937,7 +10937,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6859068</v>
+        <v>6859066</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10949,76 +10949,76 @@
         <v>45366.625</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
+        <v>1.825</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.925</v>
       </c>
-      <c r="S118">
-        <v>1.875</v>
-      </c>
-      <c r="T118">
-        <v>2.5</v>
-      </c>
-      <c r="U118">
-        <v>1.925</v>
-      </c>
-      <c r="V118">
-        <v>1.875</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z118">
         <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6859066</v>
+        <v>6859068</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,76 +11038,76 @@
         <v>45366.625</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q119">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
         <v>1.875</v>
       </c>
-      <c r="V119">
-        <v>1.925</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.875</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6859048</v>
+        <v>6859050</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,76 +11750,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K127">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N127">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11827,7 +11827,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6859050</v>
+        <v>6859048</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11839,76 +11839,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>44</v>
+      </c>
+      <c r="K128">
+        <v>2.9</v>
+      </c>
+      <c r="L128">
+        <v>3.4</v>
+      </c>
+      <c r="M128">
+        <v>2.2</v>
+      </c>
+      <c r="N128">
+        <v>2.7</v>
+      </c>
+      <c r="O128">
+        <v>3.4</v>
+      </c>
+      <c r="P128">
+        <v>2.3</v>
+      </c>
+      <c r="Q128">
         <v>0</v>
       </c>
-      <c r="J128" t="s">
-        <v>45</v>
-      </c>
-      <c r="K128">
-        <v>1.571</v>
-      </c>
-      <c r="L128">
-        <v>4</v>
-      </c>
-      <c r="M128">
-        <v>4.75</v>
-      </c>
-      <c r="N128">
-        <v>1.571</v>
-      </c>
-      <c r="O128">
-        <v>4</v>
-      </c>
-      <c r="P128">
-        <v>5</v>
-      </c>
-      <c r="Q128">
-        <v>-1</v>
-      </c>
       <c r="R128">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="129" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -717,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6533424</v>
+        <v>6532919</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L12">
+        <v>3.8</v>
+      </c>
+      <c r="M12">
         <v>3.75</v>
       </c>
-      <c r="M12">
-        <v>2.3</v>
-      </c>
       <c r="N12">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6532919</v>
+        <v>6533424</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45094.375</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
+        <v>2.25</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.775</v>
+      </c>
+      <c r="S15">
+        <v>2.025</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.9</v>
+      </c>
+      <c r="V15">
+        <v>1.9</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
         <v>1.5</v>
       </c>
-      <c r="O15">
-        <v>4.333</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
-      <c r="W15">
-        <v>0.5</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2138,76 +2138,76 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>1.571</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>4.75</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <v>3.8</v>
+      </c>
+      <c r="P19">
+        <v>5.25</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>1.9</v>
+      </c>
+      <c r="S19">
+        <v>1.9</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.8</v>
+      </c>
+      <c r="V19">
         <v>2</v>
       </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>2.3</v>
-      </c>
-      <c r="L19">
-        <v>3.3</v>
-      </c>
-      <c r="M19">
-        <v>2.625</v>
-      </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>2.8</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>1.875</v>
-      </c>
-      <c r="V19">
-        <v>1.925</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2227,76 +2227,76 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N20">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
+        <v>1.875</v>
+      </c>
+      <c r="V20">
+        <v>1.925</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>1.8</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>0.5</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858913</v>
+        <v>6858911</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,10 +3028,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,40 +3043,40 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="AC29">
         <v>-0.5</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,10 +3117,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,40 +3132,40 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB30">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC30">
         <v>-0.5</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N82">
+        <v>3.2</v>
+      </c>
+      <c r="O82">
         <v>3.4</v>
       </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859010</v>
+        <v>6859008</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,73 +7834,73 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859007</v>
+        <v>6859010</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,76 +8012,76 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P85">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -10937,7 +10937,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6859066</v>
+        <v>6859068</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10949,76 +10949,76 @@
         <v>45366.625</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
+        <v>1.925</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y118">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.875</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6859068</v>
+        <v>6859066</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,76 +11038,76 @@
         <v>45366.625</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.825</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z119">
         <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6532919</v>
+        <v>6533424</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N12">
+        <v>2.25</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>2.5</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.775</v>
+      </c>
+      <c r="S12">
+        <v>2.025</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.9</v>
+      </c>
+      <c r="V12">
+        <v>1.9</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>1.5</v>
       </c>
-      <c r="O12">
-        <v>4.333</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>3.25</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
-      <c r="V12">
-        <v>1.85</v>
-      </c>
-      <c r="W12">
-        <v>0.5</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6529391</v>
+        <v>6532919</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X13">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6529284</v>
+        <v>6529391</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,10 +1693,10 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1708,61 +1708,61 @@
         <v>44</v>
       </c>
       <c r="K14">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P14">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
         <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6533424</v>
+        <v>6529284</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,73 +1785,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
+        <v>2.375</v>
+      </c>
+      <c r="N15">
+        <v>2.4</v>
+      </c>
+      <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
         <v>2.3</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>1.727</v>
+      </c>
+      <c r="N17">
+        <v>4.333</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>1.6</v>
+      </c>
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
-        <v>1.833</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>3.4</v>
-      </c>
-      <c r="N17">
-        <v>1.833</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>3.4</v>
-      </c>
-      <c r="Q17">
-        <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.875</v>
-      </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,10 +3028,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3043,40 +3043,40 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3085,16 +3085,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC29">
         <v>-0.5</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858913</v>
+        <v>6858912</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
         <v>1.925</v>
       </c>
-      <c r="S30">
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
         <v>1.875</v>
       </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.875</v>
-      </c>
-      <c r="V30">
-        <v>1.925</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>4.75</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>1.6</v>
+      </c>
+      <c r="N31">
         <v>5</v>
       </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31">
-        <v>1.85</v>
-      </c>
-      <c r="L31">
-        <v>3.5</v>
-      </c>
-      <c r="M31">
-        <v>3.75</v>
-      </c>
-      <c r="N31">
-        <v>1.85</v>
-      </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1.8</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.75</v>
+      </c>
+      <c r="V31">
+        <v>1.95</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>0.571</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>-0</v>
+      </c>
+      <c r="AB31">
+        <v>0.375</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.925</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.875</v>
-      </c>
-      <c r="W31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>0.875</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>0.925</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858928</v>
+        <v>6858930</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,76 +4541,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
+        <v>1.775</v>
+      </c>
+      <c r="S46">
+        <v>2.025</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
         <v>1.85</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.95</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858930</v>
+        <v>6858929</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,34 +4630,34 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N47">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
         <v>2.55</v>
@@ -4666,40 +4666,40 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X47">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6858929</v>
+        <v>6858928</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,10 +4719,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4734,25 +4734,25 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L48">
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N48">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O48">
         <v>3.4</v>
       </c>
       <c r="P48">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
         <v>1.85</v>
@@ -4761,16 +4761,16 @@
         <v>1.95</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
+        <v>1.925</v>
+      </c>
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="V48">
-        <v>1.925</v>
-      </c>
       <c r="W48">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,7 +4788,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N66">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6363,7 +6363,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.825</v>
@@ -6372,10 +6372,10 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,40 +6410,40 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6452,7 +6452,7 @@
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6461,10 +6461,10 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,10 +6476,10 @@
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858954</v>
+        <v>6858955</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,40 +6766,40 @@
         <v>45206.375</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N71">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
         <v>1.975</v>
@@ -6808,22 +6808,22 @@
         <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y71">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
         <v>-1</v>
@@ -6835,7 +6835,7 @@
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6843,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6858955</v>
+        <v>6858954</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6855,40 +6855,40 @@
         <v>45206.375</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.975</v>
@@ -6897,22 +6897,22 @@
         <v>1.825</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -6924,7 +6924,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859007</v>
+        <v>6859010</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M82">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P82">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859011</v>
+        <v>6859007</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K84">
+        <v>3.6</v>
+      </c>
+      <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
+        <v>1.909</v>
+      </c>
+      <c r="N84">
+        <v>3.2</v>
+      </c>
+      <c r="O84">
+        <v>3.4</v>
+      </c>
+      <c r="P84">
+        <v>2.05</v>
+      </c>
+      <c r="Q84">
+        <v>0.25</v>
+      </c>
+      <c r="R84">
         <v>2</v>
       </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>3.3</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <v>3.5</v>
-      </c>
-      <c r="P84">
-        <v>3.3</v>
-      </c>
-      <c r="Q84">
-        <v>-0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.75</v>
-      </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.8</v>
+      </c>
+      <c r="AB84">
+        <v>0.4875</v>
+      </c>
+      <c r="AC84">
         <v>-0.5</v>
-      </c>
-      <c r="AA84">
-        <v>0.475</v>
-      </c>
-      <c r="AB84">
-        <v>0.8</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859010</v>
+        <v>6859011</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,73 +8012,73 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6859026</v>
+        <v>6859028</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,49 +8635,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
         <v>1.9</v>
@@ -8692,19 +8692,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.571</v>
+        <v>1.5</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6859028</v>
+        <v>6859026</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.5</v>
+        <v>0.571</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859037</v>
+        <v>6859041</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,40 +8902,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>45</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N95">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P95">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
         <v>1.775</v>
@@ -8944,16 +8944,16 @@
         <v>2.025</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
+        <v>0.3875</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="AA95">
-        <v>0.5125</v>
-      </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859041</v>
+        <v>6859037</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,40 +9080,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>2</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>45</v>
       </c>
       <c r="K97">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
         <v>1.775</v>
@@ -9122,16 +9122,16 @@
         <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9140,13 +9140,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6859059</v>
+        <v>6859067</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,73 +9970,73 @@
         <v>45248.375</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="L107">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N107">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="O107">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6859067</v>
+        <v>6859059</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,73 +10059,73 @@
         <v>45248.375</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N108">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859073</v>
+        <v>6859074</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,40 +10504,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
         <v>1</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>45</v>
       </c>
       <c r="K113">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N113">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O113">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
         <v>1.95</v>
@@ -10546,16 +10546,16 @@
         <v>1.85</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10564,16 +10564,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6859074</v>
+        <v>6859073</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,40 +10593,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>45</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R114">
         <v>1.95</v>
@@ -10635,16 +10635,16 @@
         <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10653,16 +10653,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10937,7 +10937,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6859068</v>
+        <v>6859066</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10949,76 +10949,76 @@
         <v>45366.625</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
+        <v>1.825</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.925</v>
       </c>
-      <c r="S118">
-        <v>1.875</v>
-      </c>
-      <c r="T118">
-        <v>2.5</v>
-      </c>
-      <c r="U118">
-        <v>1.925</v>
-      </c>
-      <c r="V118">
-        <v>1.875</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z118">
         <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6859066</v>
+        <v>6859068</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,76 +11038,76 @@
         <v>45366.625</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q119">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
         <v>1.875</v>
       </c>
-      <c r="V119">
-        <v>1.925</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.875</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -12183,7 +12183,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6859040</v>
+        <v>6859042</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12195,76 +12195,76 @@
         <v>45379.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
+        <v>1.533</v>
+      </c>
+      <c r="L132">
+        <v>3.8</v>
+      </c>
+      <c r="M132">
+        <v>5</v>
+      </c>
+      <c r="N132">
         <v>1.65</v>
       </c>
-      <c r="L132">
-        <v>3.75</v>
-      </c>
-      <c r="M132">
+      <c r="O132">
+        <v>3.5</v>
+      </c>
+      <c r="P132">
         <v>4.333</v>
       </c>
-      <c r="N132">
-        <v>1.6</v>
-      </c>
-      <c r="O132">
-        <v>3.8</v>
-      </c>
-      <c r="P132">
-        <v>4.75</v>
-      </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6859042</v>
+        <v>6859040</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,76 +12284,76 @@
         <v>45379.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>4.333</v>
+      </c>
+      <c r="N133">
+        <v>1.6</v>
+      </c>
+      <c r="O133">
         <v>3.8</v>
       </c>
-      <c r="M133">
-        <v>5</v>
-      </c>
-      <c r="N133">
-        <v>1.65</v>
-      </c>
-      <c r="O133">
-        <v>3.5</v>
-      </c>
       <c r="P133">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12532,6 +12532,376 @@
       </c>
       <c r="AC135">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>6859034</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45383.33333333334</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>34</v>
+      </c>
+      <c r="K136">
+        <v>1.833</v>
+      </c>
+      <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>3.7</v>
+      </c>
+      <c r="N136">
+        <v>1.75</v>
+      </c>
+      <c r="O136">
+        <v>3.75</v>
+      </c>
+      <c r="P136">
+        <v>4</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.025</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>6859030</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45383.375</v>
+      </c>
+      <c r="F137" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137">
+        <v>2.1</v>
+      </c>
+      <c r="L137">
+        <v>3.5</v>
+      </c>
+      <c r="M137">
+        <v>2.9</v>
+      </c>
+      <c r="N137">
+        <v>2.35</v>
+      </c>
+      <c r="O137">
+        <v>3.4</v>
+      </c>
+      <c r="P137">
+        <v>2.7</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.8</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>1.95</v>
+      </c>
+      <c r="V137">
+        <v>1.85</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>6859032</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45383.375</v>
+      </c>
+      <c r="F138" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" t="s">
+        <v>36</v>
+      </c>
+      <c r="K138">
+        <v>1.4</v>
+      </c>
+      <c r="L138">
+        <v>4.333</v>
+      </c>
+      <c r="M138">
+        <v>6.5</v>
+      </c>
+      <c r="N138">
+        <v>1.363</v>
+      </c>
+      <c r="O138">
+        <v>4.333</v>
+      </c>
+      <c r="P138">
+        <v>7</v>
+      </c>
+      <c r="Q138">
+        <v>-1.25</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.9</v>
+      </c>
+      <c r="V138">
+        <v>1.9</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>6859029</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45383.375</v>
+      </c>
+      <c r="F139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" t="s">
+        <v>33</v>
+      </c>
+      <c r="K139">
+        <v>6</v>
+      </c>
+      <c r="L139">
+        <v>4.5</v>
+      </c>
+      <c r="M139">
+        <v>1.4</v>
+      </c>
+      <c r="N139">
+        <v>8.5</v>
+      </c>
+      <c r="O139">
+        <v>5.5</v>
+      </c>
+      <c r="P139">
+        <v>1.25</v>
+      </c>
+      <c r="Q139">
+        <v>1.75</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>1.825</v>
+      </c>
+      <c r="V139">
+        <v>1.975</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>6859025</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45383.58333333334</v>
+      </c>
+      <c r="F140" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" t="s">
+        <v>37</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
+        <v>2.1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140">
+        <v>3.4</v>
+      </c>
+      <c r="P140">
+        <v>2.1</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.9</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Denmark Division 2</t>
   </si>
   <si>
-    <t>B93 Copenhagen</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>B93 Copenhagen</t>
   </si>
   <si>
     <t>Skive</t>
@@ -148,10 +148,10 @@
     <t>FA 2000</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -628,70 +628,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.8</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -717,70 +717,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
+        <v>1.444</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>6.25</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+      <c r="O3">
+        <v>4.2</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
         <v>1.85</v>
       </c>
-      <c r="L3">
-        <v>3.5</v>
-      </c>
-      <c r="M3">
-        <v>3.75</v>
-      </c>
-      <c r="N3">
-        <v>1.85</v>
-      </c>
-      <c r="O3">
-        <v>3.4</v>
-      </c>
-      <c r="P3">
-        <v>3.8</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
         <v>2</v>
       </c>
-      <c r="V3">
-        <v>1.8</v>
-      </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.285</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>1.95</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>1.9</v>
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1616,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>1.727</v>
@@ -1693,7 +1693,7 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>1.3</v>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>2.375</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>3.75</v>
+      </c>
+      <c r="L18">
+        <v>3.75</v>
+      </c>
+      <c r="M18">
+        <v>1.727</v>
+      </c>
+      <c r="N18">
+        <v>4.333</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>1.6</v>
+      </c>
+      <c r="Q18">
+        <v>0.75</v>
+      </c>
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>1.833</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>3.4</v>
-      </c>
-      <c r="N18">
-        <v>1.833</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>3.4</v>
-      </c>
-      <c r="Q18">
-        <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.571</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,73 +2583,73 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
         <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.925</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,73 +2672,73 @@
         <v>45150.375</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N25">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
         <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>1.7</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -3031,7 +3031,7 @@
         <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.85</v>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3574,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>3.4</v>
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
       <c r="K37">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
         <v>1.9</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.9</v>
       </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.95</v>
-      </c>
-      <c r="V37">
-        <v>1.85</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>45</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
+        <v>2.1</v>
+      </c>
+      <c r="O38">
+        <v>3.5</v>
+      </c>
+      <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>3.3</v>
-      </c>
-      <c r="Q38">
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>2.5</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.875</v>
-      </c>
-      <c r="S38">
-        <v>1.925</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.9</v>
-      </c>
-      <c r="W38">
+      <c r="AA38">
+        <v>0.45</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.875</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>1.3</v>
@@ -4010,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>2.1</v>
@@ -4262,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6858925</v>
+        <v>6858927</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4274,13 +4274,13 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -4292,19 +4292,19 @@
         <v>4.333</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="N43">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="Q43">
         <v>0.75</v>
@@ -4316,13 +4316,13 @@
         <v>1.8</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4331,7 +4331,7 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4340,10 +4340,10 @@
         <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4405,34 +4405,34 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858927</v>
+        <v>6858926</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,40 +4452,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="N45">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4497,31 +4497,31 @@
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>2.4</v>
@@ -4630,7 +4630,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.45</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.2</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>1.65</v>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.55</v>
@@ -5345,7 +5345,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5609,7 +5609,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.615</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,58 +5698,58 @@
         <v>45192.375</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
+        <v>5.5</v>
+      </c>
+      <c r="N59">
+        <v>1.444</v>
+      </c>
+      <c r="O59">
+        <v>4.2</v>
+      </c>
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+      <c r="R59">
+        <v>1.725</v>
+      </c>
+      <c r="S59">
+        <v>2.075</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="N59">
-        <v>2.1</v>
-      </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>3</v>
-      </c>
-      <c r="Q59">
-        <v>-0.25</v>
-      </c>
-      <c r="R59">
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5758,16 +5758,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,58 +5787,58 @@
         <v>45192.375</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5847,16 +5847,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>1.222</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>3.6</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>4.5</v>
@@ -6309,7 +6309,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6858950</v>
+        <v>6858951</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6321,40 +6321,40 @@
         <v>45199.375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6363,7 +6363,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
         <v>1.825</v>
@@ -6372,10 +6372,10 @@
         <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,10 +6387,10 @@
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6858951</v>
+        <v>6858950</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,40 +6410,40 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6452,7 +6452,7 @@
         <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6461,10 +6461,10 @@
         <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,10 +6476,10 @@
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858955</v>
+        <v>6858954</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,40 +6766,40 @@
         <v>45206.375</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
         <v>1.975</v>
@@ -6808,22 +6808,22 @@
         <v>1.825</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z71">
         <v>-1</v>
@@ -6835,7 +6835,7 @@
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6843,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6858954</v>
+        <v>6858955</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6855,40 +6855,40 @@
         <v>45206.375</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N72">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
         <v>1.975</v>
@@ -6897,22 +6897,22 @@
         <v>1.825</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y72">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -6924,7 +6924,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.25</v>
@@ -7478,7 +7478,7 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.7</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.571</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859010</v>
+        <v>6859007</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L82">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N82">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="O82">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859008</v>
+        <v>6859010</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,73 +7834,73 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>44</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M83">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N83">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859007</v>
+        <v>6859008</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>3.6</v>
       </c>
       <c r="L84">
+        <v>3.6</v>
+      </c>
+      <c r="M84">
+        <v>1.85</v>
+      </c>
+      <c r="N84">
         <v>3.4</v>
       </c>
-      <c r="M84">
+      <c r="O84">
+        <v>3.6</v>
+      </c>
+      <c r="P84">
         <v>1.909</v>
       </c>
-      <c r="N84">
-        <v>3.2</v>
-      </c>
-      <c r="O84">
-        <v>3.4</v>
-      </c>
-      <c r="P84">
-        <v>2.05</v>
-      </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.8</v>
+      </c>
+      <c r="V84">
         <v>2</v>
       </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.975</v>
-      </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>0.8</v>
       </c>
-      <c r="AB84">
-        <v>0.4875</v>
-      </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8024,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.6</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>2.15</v>
@@ -8546,7 +8546,7 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -8558,7 +8558,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>1.533</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859041</v>
+        <v>6859035</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8914,46 +8914,46 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.571</v>
+        <v>2.3</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859035</v>
+        <v>6859037</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,58 +8991,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>2</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N96">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>2.3</v>
+        <v>0.363</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859037</v>
+        <v>6859041</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,40 +9080,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N97">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O97">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
         <v>1.775</v>
@@ -9122,16 +9122,16 @@
         <v>2.025</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9140,13 +9140,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>0.3875</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="AA97">
-        <v>0.5125</v>
-      </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9172,7 +9172,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,58 +9347,58 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9407,16 +9407,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,58 +9436,58 @@
         <v>45240.625</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N101">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9496,16 +9496,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC101">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>1.4</v>
@@ -9982,7 +9982,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>1.727</v>
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6859062</v>
+        <v>6859064</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
         <v>1.9</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>1.9</v>
       </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
-      <c r="V109">
-        <v>2</v>
-      </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6859064</v>
+        <v>6859062</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,76 +10237,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
+        <v>1.615</v>
+      </c>
+      <c r="N110">
         <v>5.25</v>
       </c>
-      <c r="N110">
-        <v>1.666</v>
-      </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y110">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>2.1</v>
@@ -10504,7 +10504,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
         <v>40</v>
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.2</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>1.45</v>
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6859071</v>
+        <v>6859070</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,34 +10682,34 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>45</v>
       </c>
       <c r="K115">
-        <v>1.714</v>
+        <v>2.1</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N115">
         <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
         <v>3.4</v>
@@ -10718,40 +10718,40 @@
         <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6859070</v>
+        <v>6859071</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,34 +10771,34 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>44</v>
       </c>
       <c r="K116">
-        <v>2.1</v>
+        <v>1.714</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N116">
         <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
         <v>3.4</v>
@@ -10807,40 +10807,40 @@
         <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X116">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>1.25</v>
@@ -10937,7 +10937,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6859066</v>
+        <v>6859068</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10949,76 +10949,76 @@
         <v>45366.625</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
+        <v>1.925</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y118">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.875</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6859068</v>
+        <v>6859066</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,76 +11038,76 @@
         <v>45366.625</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.825</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z119">
         <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>4</v>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>3.75</v>
@@ -11495,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>1.9</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6859055</v>
+        <v>6859050</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,58 +11572,58 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N125">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,16 +11632,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6859053</v>
+        <v>6859048</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,10 +11661,10 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11673,64 +11673,64 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N126">
+        <v>2.7</v>
+      </c>
+      <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
         <v>2.3</v>
       </c>
-      <c r="O126">
-        <v>3.2</v>
-      </c>
-      <c r="P126">
-        <v>2.8</v>
-      </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T126">
         <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
         <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6859050</v>
+        <v>6859053</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,49 +11750,49 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>45</v>
       </c>
       <c r="K127">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N127">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
         <v>1.9</v>
@@ -11801,25 +11801,25 @@
         <v>1.9</v>
       </c>
       <c r="W127">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11827,7 +11827,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6859048</v>
+        <v>6859055</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11839,76 +11839,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>44</v>
       </c>
       <c r="K128">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
+        <v>0.4125</v>
+      </c>
+      <c r="AC128">
         <v>-0.5</v>
-      </c>
-      <c r="AC128">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11940,7 +11940,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>1.55</v>
@@ -12118,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K131">
         <v>2.9</v>
@@ -12287,7 +12287,7 @@
         <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12296,7 +12296,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>1.65</v>
@@ -12361,7 +12361,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6859039</v>
+        <v>6859038</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12373,76 +12373,76 @@
         <v>45379.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>46</v>
       </c>
       <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>3.6</v>
+      </c>
+      <c r="N134">
+        <v>2.1</v>
+      </c>
+      <c r="O134">
+        <v>3.2</v>
+      </c>
+      <c r="P134">
+        <v>3.2</v>
+      </c>
+      <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>1.925</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.9</v>
+      </c>
+      <c r="V134">
+        <v>1.9</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
         <v>2.2</v>
       </c>
-      <c r="L134">
-        <v>3.4</v>
-      </c>
-      <c r="M134">
-        <v>2.8</v>
-      </c>
-      <c r="N134">
-        <v>2.5</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>2.5</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.725</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
-      <c r="Y134">
-        <v>1.5</v>
-      </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12450,7 +12450,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6859038</v>
+        <v>6859039</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12462,55 +12462,55 @@
         <v>45379.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>46</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12519,19 +12519,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12556,6 +12556,15 @@
       <c r="G136" t="s">
         <v>34</v>
       </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>45</v>
+      </c>
       <c r="K136">
         <v>1.833</v>
       </c>
@@ -12566,46 +12575,52 @@
         <v>3.7</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
         <v>3.75</v>
       </c>
       <c r="P136">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB136">
+        <v>0.925</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12613,7 +12628,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6859030</v>
+        <v>6859032</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12625,61 +12640,76 @@
         <v>45383.375</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>2.35</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
         <v>1.8</v>
-      </c>
-      <c r="S137">
-        <v>2</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>0.4875</v>
+      </c>
+      <c r="AC137">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12687,7 +12717,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6859032</v>
+        <v>6859030</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12699,61 +12729,76 @@
         <v>45383.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>46</v>
       </c>
       <c r="K138">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M138">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N138">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O138">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12778,6 +12823,15 @@
       <c r="G139" t="s">
         <v>33</v>
       </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>46</v>
+      </c>
       <c r="K139">
         <v>6</v>
       </c>
@@ -12788,46 +12842,52 @@
         <v>1.4</v>
       </c>
       <c r="N139">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O139">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P139">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="Q139">
         <v>1.75</v>
       </c>
       <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
+        <v>1.825</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="S139">
-        <v>1.95</v>
-      </c>
-      <c r="T139">
-        <v>3</v>
-      </c>
-      <c r="U139">
-        <v>1.825</v>
-      </c>
-      <c r="V139">
-        <v>1.975</v>
-      </c>
       <c r="W139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-0.5</v>
+      </c>
+      <c r="AC139">
+        <v>0.425</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12835,7 +12895,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6859025</v>
+        <v>6859027</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12844,43 +12904,52 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45383.58333333334</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="L140">
+        <v>3.5</v>
+      </c>
+      <c r="M140">
         <v>3.4</v>
       </c>
-      <c r="M140">
+      <c r="N140">
         <v>2.1</v>
       </c>
-      <c r="N140">
-        <v>3</v>
-      </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
         <v>1.9</v>
@@ -12889,19 +12958,114 @@
         <v>1.9</v>
       </c>
       <c r="W140">
+        <v>1.1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>0.875</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>6859025</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45383.58333333334</v>
+      </c>
+      <c r="F141" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" t="s">
+        <v>37</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
         <v>0</v>
       </c>
-      <c r="X140">
+      <c r="J141" t="s">
+        <v>44</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>3.4</v>
+      </c>
+      <c r="M141">
+        <v>2.1</v>
+      </c>
+      <c r="N141">
+        <v>2.7</v>
+      </c>
+      <c r="O141">
+        <v>3.4</v>
+      </c>
+      <c r="P141">
+        <v>2.3</v>
+      </c>
+      <c r="Q141">
         <v>0</v>
       </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-      <c r="AA140">
-        <v>0</v>
+      <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
+        <v>1.775</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>1.825</v>
+      </c>
+      <c r="V141">
+        <v>1.975</v>
+      </c>
+      <c r="W141">
+        <v>1.7</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>1.025</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6533424</v>
+        <v>6529284</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
+        <v>2.375</v>
+      </c>
+      <c r="N12">
+        <v>2.4</v>
+      </c>
+      <c r="O12">
+        <v>3.8</v>
+      </c>
+      <c r="P12">
         <v>2.3</v>
-      </c>
-      <c r="N12">
-        <v>2.25</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>2.5</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y12">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6532919</v>
+        <v>6529391</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6529391</v>
+        <v>6532919</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N14">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6529284</v>
+        <v>6533424</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,73 +1785,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858908</v>
+        <v>6858906</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,73 +2583,73 @@
         <v>45150.375</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N24">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6858906</v>
+        <v>6858908</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2672,73 +2672,73 @@
         <v>45150.375</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
         <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
         <v>0.925</v>
       </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N37">
+        <v>2.1</v>
+      </c>
+      <c r="O37">
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>4</v>
-      </c>
-      <c r="P37">
-        <v>3.3</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>2.5</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.925</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
-      <c r="W37">
+      <c r="AA37">
+        <v>0.45</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
         <v>1.9</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.9</v>
       </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858925</v>
+        <v>6858926</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.625</v>
+        <v>2.35</v>
       </c>
       <c r="N44">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4405,34 +4405,34 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,40 +4452,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4494,34 +4494,34 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858930</v>
+        <v>6858928</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,76 +4541,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6858928</v>
+        <v>6858930</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,76 +4719,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N48">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
+        <v>1.775</v>
+      </c>
+      <c r="S48">
+        <v>2.025</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
         <v>1.85</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.925</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6858934</v>
+        <v>6858933</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,73 +4897,73 @@
         <v>45179.375</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50">
+        <v>6.5</v>
+      </c>
+      <c r="N50">
+        <v>1.333</v>
+      </c>
+      <c r="O50">
+        <v>5.5</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>-1.5</v>
+      </c>
+      <c r="R50">
+        <v>1.9</v>
+      </c>
+      <c r="S50">
+        <v>1.9</v>
+      </c>
+      <c r="T50">
+        <v>3.25</v>
+      </c>
+      <c r="U50">
+        <v>1.925</v>
+      </c>
+      <c r="V50">
+        <v>1.875</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
         <v>5</v>
       </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4.2</v>
-      </c>
-      <c r="P50">
-        <v>5.25</v>
-      </c>
-      <c r="Q50">
-        <v>-1</v>
-      </c>
-      <c r="R50">
-        <v>1.8</v>
-      </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
-      <c r="W50">
-        <v>0.5</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6858933</v>
+        <v>6858934</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,73 +4986,73 @@
         <v>45179.375</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51">
+        <v>1.55</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>46</v>
-      </c>
-      <c r="K51">
-        <v>1.35</v>
-      </c>
-      <c r="L51">
+      <c r="M51">
         <v>5</v>
       </c>
-      <c r="M51">
-        <v>6.5</v>
-      </c>
       <c r="N51">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
         <v>1.9</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.9</v>
       </c>
-      <c r="T51">
-        <v>3.25</v>
-      </c>
-      <c r="U51">
-        <v>1.925</v>
-      </c>
-      <c r="V51">
-        <v>1.875</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB51">
-        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,13 +5698,13 @@
         <v>45192.375</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5713,43 +5713,43 @@
         <v>44</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5758,16 +5758,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,13 +5787,13 @@
         <v>45192.375</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5802,43 +5802,43 @@
         <v>44</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
+        <v>5.5</v>
+      </c>
+      <c r="N60">
+        <v>1.444</v>
+      </c>
+      <c r="O60">
+        <v>4.2</v>
+      </c>
+      <c r="P60">
+        <v>6</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <v>1.725</v>
+      </c>
+      <c r="S60">
+        <v>2.075</v>
+      </c>
+      <c r="T60">
         <v>3</v>
       </c>
-      <c r="N60">
-        <v>2.1</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
-      <c r="P60">
-        <v>3</v>
-      </c>
-      <c r="Q60">
-        <v>-0.25</v>
-      </c>
-      <c r="R60">
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="S60">
-        <v>1.95</v>
-      </c>
-      <c r="T60">
-        <v>2.5</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
       <c r="W60">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5847,16 +5847,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6858953</v>
+        <v>6858955</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,76 +6677,76 @@
         <v>45206.375</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>1.6</v>
+      </c>
+      <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
+        <v>4.75</v>
+      </c>
+      <c r="N70">
+        <v>1.444</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+      <c r="P70">
+        <v>6.5</v>
+      </c>
+      <c r="Q70">
+        <v>-1.25</v>
+      </c>
+      <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
+        <v>1.825</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>1.8</v>
+      </c>
+      <c r="V70">
         <v>2</v>
       </c>
-      <c r="J70" t="s">
-        <v>46</v>
-      </c>
-      <c r="K70">
-        <v>2.875</v>
-      </c>
-      <c r="L70">
-        <v>3.6</v>
-      </c>
-      <c r="M70">
-        <v>2.15</v>
-      </c>
-      <c r="N70">
-        <v>3.4</v>
-      </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>1.909</v>
-      </c>
-      <c r="Q70">
-        <v>0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.85</v>
-      </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>1.85</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y70">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858954</v>
+        <v>6858953</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,55 +6766,55 @@
         <v>45206.375</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>46</v>
       </c>
       <c r="K71">
+        <v>2.875</v>
+      </c>
+      <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
         <v>2.15</v>
       </c>
-      <c r="L71">
+      <c r="N71">
+        <v>3.4</v>
+      </c>
+      <c r="O71">
         <v>3.5</v>
       </c>
-      <c r="M71">
-        <v>2.875</v>
-      </c>
-      <c r="N71">
-        <v>2.2</v>
-      </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6823,19 +6823,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6843,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6858955</v>
+        <v>6858954</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6855,40 +6855,40 @@
         <v>45206.375</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.975</v>
@@ -6897,22 +6897,22 @@
         <v>1.825</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -6924,7 +6924,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6859004</v>
+        <v>6859005</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,10 +7567,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,46 +7582,46 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
+        <v>3.8</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>1.65</v>
+      </c>
+      <c r="O80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>4.2</v>
-      </c>
-      <c r="N80">
-        <v>1.615</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
       <c r="P80">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q80">
         <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7630,13 +7630,13 @@
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7644,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6859005</v>
+        <v>6859004</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7656,10 +7656,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7671,46 +7671,46 @@
         <v>45</v>
       </c>
       <c r="K81">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L81">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N81">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
         <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7719,13 +7719,13 @@
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859007</v>
+        <v>6859011</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
         <v>2</v>
       </c>
-      <c r="S82">
-        <v>1.8</v>
-      </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.975</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
+        <v>0.475</v>
+      </c>
+      <c r="AB82">
         <v>0.8</v>
       </c>
-      <c r="AB82">
-        <v>0.4875</v>
-      </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859010</v>
+        <v>6859008</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,73 +7834,73 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6859008</v>
+        <v>6859007</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45220.375</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>3.6</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N84">
+        <v>3.2</v>
+      </c>
+      <c r="O84">
         <v>3.4</v>
       </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
       <c r="P84">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>1.8</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
+        <v>1.975</v>
+      </c>
+      <c r="V84">
         <v>1.825</v>
       </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>1.8</v>
-      </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859011</v>
+        <v>6859010</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,73 +8012,73 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L85">
+        <v>6.5</v>
+      </c>
+      <c r="M85">
+        <v>9</v>
+      </c>
+      <c r="N85">
+        <v>1.2</v>
+      </c>
+      <c r="O85">
+        <v>6.5</v>
+      </c>
+      <c r="P85">
+        <v>10</v>
+      </c>
+      <c r="Q85">
+        <v>-2</v>
+      </c>
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
         <v>3.5</v>
       </c>
-      <c r="M85">
-        <v>3.3</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <v>3.5</v>
-      </c>
-      <c r="P85">
-        <v>3.3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.75</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X85">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859037</v>
+        <v>6859041</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,40 +8991,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N96">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>1.775</v>
@@ -9033,16 +9033,16 @@
         <v>2.025</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.3875</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.5125</v>
-      </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6859041</v>
+        <v>6859037</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,40 +9080,40 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>2</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>44</v>
       </c>
       <c r="K97">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
         <v>1.775</v>
@@ -9122,16 +9122,16 @@
         <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9140,13 +9140,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859074</v>
+        <v>6859073</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,40 +10504,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>44</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R113">
         <v>1.95</v>
@@ -10546,16 +10546,16 @@
         <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10564,16 +10564,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6859073</v>
+        <v>6859074</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,40 +10593,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
       </c>
       <c r="K114">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N114">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O114">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q114">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
         <v>1.95</v>
@@ -10635,16 +10635,16 @@
         <v>1.85</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10653,16 +10653,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6859070</v>
+        <v>6859071</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,34 +10682,34 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>1.714</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N115">
         <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
         <v>3.4</v>
@@ -10718,40 +10718,40 @@
         <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X115">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6859071</v>
+        <v>6859070</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,34 +10771,34 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.714</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N116">
         <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
         <v>3.4</v>
@@ -10807,40 +10807,40 @@
         <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6859050</v>
+        <v>6859048</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,76 +11572,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>45</v>
+      </c>
+      <c r="K125">
+        <v>2.9</v>
+      </c>
+      <c r="L125">
+        <v>3.4</v>
+      </c>
+      <c r="M125">
+        <v>2.2</v>
+      </c>
+      <c r="N125">
+        <v>2.7</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
+        <v>2.3</v>
+      </c>
+      <c r="Q125">
         <v>0</v>
       </c>
-      <c r="J125" t="s">
-        <v>44</v>
-      </c>
-      <c r="K125">
-        <v>1.571</v>
-      </c>
-      <c r="L125">
-        <v>4</v>
-      </c>
-      <c r="M125">
-        <v>4.75</v>
-      </c>
-      <c r="N125">
-        <v>1.571</v>
-      </c>
-      <c r="O125">
-        <v>4</v>
-      </c>
-      <c r="P125">
-        <v>5</v>
-      </c>
-      <c r="Q125">
-        <v>-1</v>
-      </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6859048</v>
+        <v>6859050</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,76 +11661,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K126">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N126">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X126">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6859053</v>
+        <v>6859055</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,76 +11750,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N127">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P127">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>0.95</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.4125</v>
+      </c>
+      <c r="AC127">
         <v>-0.5</v>
-      </c>
-      <c r="AA127">
-        <v>0.375</v>
-      </c>
-      <c r="AB127">
-        <v>-0.5</v>
-      </c>
-      <c r="AC127">
-        <v>0.45</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11827,7 +11827,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6859055</v>
+        <v>6859053</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11839,76 +11839,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K128">
+        <v>2.5</v>
+      </c>
+      <c r="L128">
+        <v>3.25</v>
+      </c>
+      <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>2.3</v>
+      </c>
+      <c r="O128">
+        <v>3.2</v>
+      </c>
+      <c r="P128">
+        <v>2.8</v>
+      </c>
+      <c r="Q128">
+        <v>-0.25</v>
+      </c>
+      <c r="R128">
+        <v>2.05</v>
+      </c>
+      <c r="S128">
         <v>1.75</v>
       </c>
-      <c r="L128">
-        <v>3.75</v>
-      </c>
-      <c r="M128">
-        <v>3.75</v>
-      </c>
-      <c r="N128">
-        <v>1.7</v>
-      </c>
-      <c r="O128">
-        <v>3.8</v>
-      </c>
-      <c r="P128">
-        <v>3.8</v>
-      </c>
-      <c r="Q128">
-        <v>-0.75</v>
-      </c>
-      <c r="R128">
-        <v>1.95</v>
-      </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB128">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12183,7 +12183,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6859042</v>
+        <v>6859040</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12195,76 +12195,76 @@
         <v>45379.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K132">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L132">
+        <v>3.75</v>
+      </c>
+      <c r="M132">
+        <v>4.333</v>
+      </c>
+      <c r="N132">
+        <v>1.6</v>
+      </c>
+      <c r="O132">
         <v>3.8</v>
       </c>
-      <c r="M132">
-        <v>5</v>
-      </c>
-      <c r="N132">
-        <v>1.65</v>
-      </c>
-      <c r="O132">
-        <v>3.5</v>
-      </c>
       <c r="P132">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6859040</v>
+        <v>6859042</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,76 +12284,76 @@
         <v>45379.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K133">
+        <v>1.533</v>
+      </c>
+      <c r="L133">
+        <v>3.8</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
         <v>1.65</v>
       </c>
-      <c r="L133">
-        <v>3.75</v>
-      </c>
-      <c r="M133">
+      <c r="O133">
+        <v>3.5</v>
+      </c>
+      <c r="P133">
         <v>4.333</v>
       </c>
-      <c r="N133">
-        <v>1.6</v>
-      </c>
-      <c r="O133">
-        <v>3.8</v>
-      </c>
-      <c r="P133">
-        <v>4.75</v>
-      </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12361,7 +12361,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6859038</v>
+        <v>6859039</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12373,55 +12373,55 @@
         <v>45379.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>46</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12430,19 +12430,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12450,7 +12450,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6859039</v>
+        <v>6859038</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12462,76 +12462,76 @@
         <v>45379.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>46</v>
       </c>
       <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3.6</v>
+      </c>
+      <c r="N135">
+        <v>2.1</v>
+      </c>
+      <c r="O135">
+        <v>3.2</v>
+      </c>
+      <c r="P135">
+        <v>3.2</v>
+      </c>
+      <c r="Q135">
+        <v>-0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
+        <v>1.925</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>1.9</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>2.2</v>
       </c>
-      <c r="L135">
-        <v>3.4</v>
-      </c>
-      <c r="M135">
-        <v>2.8</v>
-      </c>
-      <c r="N135">
-        <v>2.5</v>
-      </c>
-      <c r="O135">
-        <v>3.25</v>
-      </c>
-      <c r="P135">
-        <v>2.5</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.725</v>
-      </c>
-      <c r="S135">
-        <v>1.975</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.95</v>
-      </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>1.5</v>
-      </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6859055</v>
+        <v>6859053</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,76 +11750,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K127">
+        <v>2.5</v>
+      </c>
+      <c r="L127">
+        <v>3.25</v>
+      </c>
+      <c r="M127">
+        <v>2.5</v>
+      </c>
+      <c r="N127">
+        <v>2.3</v>
+      </c>
+      <c r="O127">
+        <v>3.2</v>
+      </c>
+      <c r="P127">
+        <v>2.8</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
         <v>1.75</v>
       </c>
-      <c r="L127">
-        <v>3.75</v>
-      </c>
-      <c r="M127">
-        <v>3.75</v>
-      </c>
-      <c r="N127">
-        <v>1.7</v>
-      </c>
-      <c r="O127">
-        <v>3.8</v>
-      </c>
-      <c r="P127">
-        <v>3.8</v>
-      </c>
-      <c r="Q127">
-        <v>-0.75</v>
-      </c>
-      <c r="R127">
-        <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>1.85</v>
-      </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB127">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11827,7 +11827,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6859053</v>
+        <v>6859055</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11839,76 +11839,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O128">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X128">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>0.95</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0.4125</v>
+      </c>
+      <c r="AC128">
         <v>-0.5</v>
-      </c>
-      <c r="AA128">
-        <v>0.375</v>
-      </c>
-      <c r="AB128">
-        <v>-0.5</v>
-      </c>
-      <c r="AC128">
-        <v>0.45</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12005,7 +12005,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6859044</v>
+        <v>6859036</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12017,73 +12017,73 @@
         <v>45379.375</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N130">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="O130">
         <v>3.4</v>
       </c>
       <c r="P130">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12094,7 +12094,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6859036</v>
+        <v>6859044</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12106,73 +12106,73 @@
         <v>45379.375</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N131">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
         <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
         <v>-1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6859053</v>
+        <v>6859055</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,76 +11750,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N127">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P127">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>0.95</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.4125</v>
+      </c>
+      <c r="AC127">
         <v>-0.5</v>
-      </c>
-      <c r="AA127">
-        <v>0.375</v>
-      </c>
-      <c r="AB127">
-        <v>-0.5</v>
-      </c>
-      <c r="AC127">
-        <v>0.45</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11827,7 +11827,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6859055</v>
+        <v>6859053</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11839,76 +11839,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K128">
+        <v>2.5</v>
+      </c>
+      <c r="L128">
+        <v>3.25</v>
+      </c>
+      <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>2.3</v>
+      </c>
+      <c r="O128">
+        <v>3.2</v>
+      </c>
+      <c r="P128">
+        <v>2.8</v>
+      </c>
+      <c r="Q128">
+        <v>-0.25</v>
+      </c>
+      <c r="R128">
+        <v>2.05</v>
+      </c>
+      <c r="S128">
         <v>1.75</v>
       </c>
-      <c r="L128">
-        <v>3.75</v>
-      </c>
-      <c r="M128">
-        <v>3.75</v>
-      </c>
-      <c r="N128">
-        <v>1.7</v>
-      </c>
-      <c r="O128">
-        <v>3.8</v>
-      </c>
-      <c r="P128">
-        <v>3.8</v>
-      </c>
-      <c r="Q128">
-        <v>-0.75</v>
-      </c>
-      <c r="R128">
-        <v>1.95</v>
-      </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB128">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12005,7 +12005,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6859036</v>
+        <v>6859044</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12017,73 +12017,73 @@
         <v>45379.375</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K130">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N130">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="O130">
         <v>3.4</v>
       </c>
       <c r="P130">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12094,7 +12094,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6859044</v>
+        <v>6859036</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12106,73 +12106,73 @@
         <v>45379.375</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="O131">
         <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
         <v>-1</v>

--- a/Denmark Division 2/Denmark Division 2.xlsx
+++ b/Denmark Division 2/Denmark Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Denmark Division 2</t>
   </si>
   <si>
-    <t>FC Roskilde</t>
+    <t>B93 Copenhagen</t>
   </si>
   <si>
-    <t>B93 Copenhagen</t>
+    <t>FC Roskilde</t>
   </si>
   <si>
     <t>Skive</t>
@@ -130,10 +130,10 @@
     <t>AB Copenhagen</t>
   </si>
   <si>
-    <t>Frem</t>
+    <t>Kolding IF</t>
   </si>
   <si>
-    <t>Kolding IF</t>
+    <t>Frem</t>
   </si>
   <si>
     <t>Middelfart</t>
@@ -148,10 +148,10 @@
     <t>FA 2000</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6529281</v>
+        <v>6529387</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -628,70 +628,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2">
+        <v>1.444</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>6.25</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
+        <v>4.2</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
         <v>1.85</v>
       </c>
-      <c r="L2">
-        <v>3.5</v>
-      </c>
-      <c r="M2">
-        <v>3.75</v>
-      </c>
-      <c r="N2">
-        <v>1.85</v>
-      </c>
-      <c r="O2">
-        <v>3.4</v>
-      </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
-      <c r="Q2">
-        <v>-0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U2">
+        <v>1.8</v>
+      </c>
+      <c r="V2">
         <v>2</v>
       </c>
-      <c r="V2">
-        <v>1.8</v>
-      </c>
       <c r="W2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6529387</v>
+        <v>6529281</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -717,70 +717,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
       </c>
       <c r="K3">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>1.8</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.285</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>1.95</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>1.9</v>
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6529284</v>
+        <v>6532919</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,49 +1515,49 @@
         <v>45094.375</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L12">
         <v>3.8</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
         <v>1.95</v>
@@ -1566,25 +1566,25 @@
         <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6529391</v>
+        <v>6533424</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>45094.375</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="N13">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="O13">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6532919</v>
+        <v>6529391</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1693,76 +1693,76 @@
         <v>45094.375</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6533424</v>
+        <v>6529284</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,73 +1785,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
+        <v>2.375</v>
+      </c>
+      <c r="N15">
+        <v>2.4</v>
+      </c>
+      <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
         <v>2.3</v>
-      </c>
-      <c r="N15">
-        <v>2.25</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>2.5</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6858900</v>
+        <v>6858901</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>1.727</v>
+      </c>
+      <c r="N17">
+        <v>4.333</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>1.6</v>
+      </c>
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>1.833</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>3.4</v>
-      </c>
-      <c r="N17">
-        <v>1.833</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>3.4</v>
-      </c>
-      <c r="Q17">
-        <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.875</v>
-      </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6858901</v>
+        <v>6858900</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,76 +2049,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6858506</v>
+        <v>6858902</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2138,76 +2138,76 @@
         <v>45143.375</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N19">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.875</v>
+      </c>
+      <c r="V19">
+        <v>1.925</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.8</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6858902</v>
+        <v>6858506</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2227,76 +2227,76 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>1.571</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>4.75</v>
+      </c>
+      <c r="N20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
+        <v>3.8</v>
+      </c>
+      <c r="P20">
+        <v>5.25</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>1.9</v>
+      </c>
+      <c r="S20">
+        <v>1.9</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
         <v>2</v>
       </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>2.3</v>
-      </c>
-      <c r="L20">
-        <v>3.3</v>
-      </c>
-      <c r="M20">
-        <v>2.625</v>
-      </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2.8</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2586,7 +2586,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>1.7</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.7</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6858913</v>
+        <v>6858912</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.875</v>
+      </c>
+      <c r="S29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1.925</v>
+      </c>
+      <c r="V29">
         <v>1.875</v>
       </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.875</v>
-      </c>
-      <c r="V29">
-        <v>1.925</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6858912</v>
+        <v>6858911</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>4.75</v>
+      </c>
+      <c r="L30">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <v>1.6</v>
+      </c>
+      <c r="N30">
         <v>5</v>
       </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30">
-        <v>1.85</v>
-      </c>
-      <c r="L30">
-        <v>3.5</v>
-      </c>
-      <c r="M30">
-        <v>3.75</v>
-      </c>
-      <c r="N30">
-        <v>1.85</v>
-      </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.75</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>0.571</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>-0</v>
+      </c>
+      <c r="AB30">
+        <v>0.375</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.875</v>
-      </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
-      <c r="W30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
-        <v>0.875</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6858911</v>
+        <v>6858913</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,10 +3206,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3221,40 +3221,40 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="AC31">
         <v>-0.5</v>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6858917</v>
+        <v>6858918</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,73 +3562,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
+        <v>2.4</v>
+      </c>
+      <c r="N35">
+        <v>2.375</v>
+      </c>
+      <c r="O35">
+        <v>3.8</v>
+      </c>
+      <c r="P35">
+        <v>2.4</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
         <v>1.9</v>
       </c>
-      <c r="N35">
-        <v>2.875</v>
-      </c>
-      <c r="O35">
-        <v>3.6</v>
-      </c>
-      <c r="P35">
-        <v>2.1</v>
-      </c>
-      <c r="Q35">
-        <v>0.25</v>
-      </c>
-      <c r="R35">
-        <v>1.925</v>
-      </c>
-      <c r="S35">
-        <v>1.875</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.85</v>
-      </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z35">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3639,7 +3639,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6858918</v>
+        <v>6858917</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3651,73 +3651,73 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
         <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.9</v>
-      </c>
-      <c r="V36">
-        <v>1.9</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3728,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6858919</v>
+        <v>6858920</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3740,76 +3740,76 @@
         <v>45164.375</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>1.769</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
         <v>1.9</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.9</v>
       </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.95</v>
-      </c>
-      <c r="V37">
-        <v>1.85</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6858920</v>
+        <v>6858919</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,76 +3829,76 @@
         <v>45164.375</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>44</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.769</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
+        <v>2.1</v>
+      </c>
+      <c r="O38">
+        <v>3.5</v>
+      </c>
+      <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>3.3</v>
-      </c>
-      <c r="Q38">
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>2.5</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.875</v>
-      </c>
-      <c r="S38">
-        <v>1.925</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.9</v>
-      </c>
-      <c r="W38">
+      <c r="AA38">
+        <v>0.45</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.875</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.3</v>
@@ -4010,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>2.1</v>
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6858926</v>
+        <v>6858925</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4363,40 +4363,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.35</v>
+        <v>1.625</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4405,34 +4405,34 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6858925</v>
+        <v>6858926</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4452,40 +4452,40 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.625</v>
+        <v>2.35</v>
       </c>
       <c r="N45">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4494,34 +4494,34 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6858928</v>
+        <v>6858929</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,10 +4541,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4553,28 +4553,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L46">
         <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>1.85</v>
@@ -4583,16 +4583,16 @@
         <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
+        <v>1.875</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4610,7 +4610,7 @@
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6858929</v>
+        <v>6858930</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,13 +4630,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4645,19 +4645,19 @@
         <v>44</v>
       </c>
       <c r="K47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
         <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N47">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
         <v>2.55</v>
@@ -4666,40 +4666,40 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6858930</v>
+        <v>6858928</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,13 +4719,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4734,61 +4734,61 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L48">
         <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N48">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X48">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.65</v>
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5345,7 +5345,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5609,7 +5609,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>1.615</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6858942</v>
+        <v>6858941</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,58 +5698,58 @@
         <v>45192.375</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
+        <v>5.5</v>
+      </c>
+      <c r="N59">
+        <v>1.444</v>
+      </c>
+      <c r="O59">
+        <v>4.2</v>
+      </c>
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+      <c r="R59">
+        <v>1.725</v>
+      </c>
+      <c r="S59">
+        <v>2.075</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="N59">
-        <v>2.1</v>
-      </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>3</v>
-      </c>
-      <c r="Q59">
-        <v>-0.25</v>
-      </c>
-      <c r="R59">
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5758,16 +5758,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6858941</v>
+        <v>6858942</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,58 +5787,58 @@
         <v>45192.375</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5847,16 +5847,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>2.4</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>1.222</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>3.6</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>4.5</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>2.55</v>
@@ -6410,7 +6410,7 @@
         <v>45199.375</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6422,7 +6422,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6858955</v>
+        <v>6858953</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,76 +6677,76 @@
         <v>45206.375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N70">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6858953</v>
+        <v>6858954</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,55 +6766,55 @@
         <v>45206.375</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>46</v>
       </c>
       <c r="K71">
+        <v>2.15</v>
+      </c>
+      <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
         <v>2.875</v>
       </c>
-      <c r="L71">
-        <v>3.6</v>
-      </c>
-      <c r="M71">
-        <v>2.15</v>
-      </c>
       <c r="N71">
+        <v>2.2</v>
+      </c>
+      <c r="O71">
         <v>3.4</v>
       </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
       <c r="P71">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6823,19 +6823,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.909</v>
+        <v>1.875</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6843,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6858954</v>
+        <v>6858955</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6855,40 +6855,40 @@
         <v>45206.375</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N72">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
         <v>1.975</v>
@@ -6897,22 +6897,22 @@
         <v>1.825</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y72">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -6924,7 +6924,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.25</v>
@@ -7377,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6859001</v>
+        <v>6859002</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7389,73 +7389,73 @@
         <v>45213.375</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="O78">
+        <v>3.8</v>
+      </c>
+      <c r="P78">
+        <v>4.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
+        <v>1.8</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
         <v>3.75</v>
       </c>
-      <c r="P78">
-        <v>1.909</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.825</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>3.25</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
-      <c r="Y78">
-        <v>0.909</v>
-      </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6859002</v>
+        <v>6859001</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,55 +7478,55 @@
         <v>45213.375</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>1.571</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>1.7</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6859011</v>
+        <v>6859008</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,10 +7745,10 @@
         <v>45220.375</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7757,34 +7757,34 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
         <v>2.5</v>
@@ -7799,16 +7799,16 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>0.8</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6859008</v>
+        <v>6859010</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,73 +7834,73 @@
         <v>45220.375</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>45</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M83">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N83">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7926,7 +7926,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8000,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6859010</v>
+        <v>6859011</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8012,73 +8012,73 @@
         <v>45220.375</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>44</v>
       </c>
       <c r="K85">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.6</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>2.15</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6859021</v>
+        <v>6859024</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,76 +8457,76 @@
         <v>45227.375</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y90">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6859024</v>
+        <v>6859021</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45227.375</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N91">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6859035</v>
+        <v>6859041</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8914,46 +8914,46 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P95">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>2.3</v>
+        <v>0.571</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8962,13 +8962,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6859041</v>
+        <v>6859035</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,10 +8991,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9003,46 +9003,46 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.571</v>
+        <v>2.3</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9051,13 +9051,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9092,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>1.5</v>
@@ -9172,7 +9172,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>2.75</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6859047</v>
+        <v>6859045</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,58 +9347,58 @@
         <v>45240.625</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N100">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>0.7270000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9407,16 +9407,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6859045</v>
+        <v>6859047</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,58 +9436,58 @@
         <v>45240.625</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
-        <v>2.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9496,16 +9496,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>2.25</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>1.4</v>
@@ -9982,7 +9982,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>1.727</v>
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6859064</v>
+        <v>6859062</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K109">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
+        <v>1.615</v>
+      </c>
+      <c r="N109">
         <v>5.25</v>
       </c>
-      <c r="N109">
-        <v>1.666</v>
-      </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y109">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6859062</v>
+        <v>6859064</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10237,76 +10237,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N110">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
         <v>1.9</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.9</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>2.1</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6859073</v>
+        <v>6859074</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,40 +10504,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N113">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O113">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
         <v>1.95</v>
@@ -10546,16 +10546,16 @@
         <v>1.85</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10564,16 +10564,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6859074</v>
+        <v>6859073</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,40 +10593,40 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R114">
         <v>1.95</v>
@@ -10635,16 +10635,16 @@
         <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10653,16 +10653,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6859071</v>
+        <v>6859070</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,34 +10682,34 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="K115">
-        <v>1.714</v>
+        <v>2.1</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N115">
         <v>1.85</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
         <v>3.4</v>
@@ -10718,40 +10718,40 @@
         <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6859070</v>
+        <v>6859071</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,34 +10771,34 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.1</v>
+        <v>1.714</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N116">
         <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
         <v>3.4</v>
@@ -10807,40 +10807,40 @@
         <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X116">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>1.25</v>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11041,7 +11041,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>4</v>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>3.75</v>
@@ -11495,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>1.9</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6859048</v>
+        <v>6859050</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,76 +11572,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N125">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X125">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6859050</v>
+        <v>6859055</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,58 +11661,58 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N126">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>0.571</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,16 +11721,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6859055</v>
+        <v>6859053</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,76 +11750,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>44</v>
       </c>
       <c r="K127">
+        <v>2.5</v>
+      </c>
+      <c r="L127">
+        <v>3.25</v>
+      </c>
+      <c r="M127">
+        <v>2.5</v>
+      </c>
+      <c r="N127">
+        <v>2.3</v>
+      </c>
+      <c r="O127">
+        <v>3.2</v>
+      </c>
+      <c r="P127">
+        <v>2.8</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
         <v>1.75</v>
       </c>
-      <c r="L127">
-        <v>3.75</v>
-      </c>
-      <c r="M127">
-        <v>3.75</v>
-      </c>
-      <c r="N127">
-        <v>1.7</v>
-      </c>
-      <c r="O127">
-        <v>3.8</v>
-      </c>
-      <c r="P127">
-        <v>3.8</v>
-      </c>
-      <c r="Q127">
-        <v>-0.75</v>
-      </c>
-      <c r="R127">
-        <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>1.85</v>
-      </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB127">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11827,7 +11827,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6859053</v>
+        <v>6859048</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11839,10 +11839,10 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11851,64 +11851,64 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N128">
+        <v>2.7</v>
+      </c>
+      <c r="O128">
+        <v>3.4</v>
+      </c>
+      <c r="P128">
         <v>2.3</v>
       </c>
-      <c r="O128">
-        <v>3.2</v>
-      </c>
-      <c r="P128">
-        <v>2.8</v>
-      </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S128">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
         <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11940,7 +11940,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>1.55</v>
@@ -12005,7 +12005,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6859044</v>
+        <v>6859036</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12017,73 +12017,73 @@
         <v>45379.375</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N130">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="O130">
         <v>3.4</v>
       </c>
       <c r="P130">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12094,7 +12094,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6859036</v>
+        <v>6859044</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12106,73 +12106,73 @@
         <v>45379.375</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N131">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
         <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12198,7 +12198,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12207,7 +12207,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>1.65</v>
@@ -12361,7 +12361,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6859039</v>
+        <v>6859038</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12373,76 +12373,76 @@
         <v>45379.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>46</v>
       </c>
       <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>3.6</v>
+      </c>
+      <c r="N134">
+        <v>2.1</v>
+      </c>
+      <c r="O134">
+        <v>3.2</v>
+      </c>
+      <c r="P134">
+        <v>3.2</v>
+      </c>
+      <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>1.925</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.9</v>
+      </c>
+      <c r="V134">
+        <v>1.9</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
         <v>2.2</v>
       </c>
-      <c r="L134">
-        <v>3.4</v>
-      </c>
-      <c r="M134">
-        <v>2.8</v>
-      </c>
-      <c r="N134">
-        <v>2.5</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>2.5</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.725</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
-      <c r="Y134">
-        <v>1.5</v>
-      </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12450,7 +12450,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6859038</v>
+        <v>6859039</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12462,55 +12462,55 @@
         <v>45379.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>46</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12519,19 +12519,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12563,7 +12563,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K136">
         <v>1.833</v>
@@ -12628,7 +12628,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6859032</v>
+        <v>6859029</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12640,76 +12640,76 @@
         <v>45383.375</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K137">
+        <v>6</v>
+      </c>
+      <c r="L137">
+        <v>4.5</v>
+      </c>
+      <c r="M137">
         <v>1.4</v>
       </c>
-      <c r="L137">
-        <v>4.333</v>
-      </c>
-      <c r="M137">
-        <v>6.5</v>
-      </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12717,7 +12717,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6859030</v>
+        <v>6859032</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,76 +12729,76 @@
         <v>45383.375</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
         <v>0</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L138">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M138">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N138">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12806,7 +12806,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6859029</v>
+        <v>6859030</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12818,55 +12818,55 @@
         <v>45383.375</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
         <v>1</v>
-      </c>
-      <c r="I139">
-        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>46</v>
       </c>
       <c r="K139">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N139">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="O139">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>1.222</v>
+        <v>2.7</v>
       </c>
       <c r="Q139">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
         <v>1.975</v>
       </c>
-      <c r="S139">
-        <v>1.825</v>
-      </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12875,19 +12875,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.222</v>
+        <v>1.7</v>
       </c>
       <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.9</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -13066,6 +13066,450 @@
       </c>
       <c r="AC141">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>6859013</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45388.375</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>41</v>
+      </c>
+      <c r="K142">
+        <v>3.5</v>
+      </c>
+      <c r="L142">
+        <v>3.5</v>
+      </c>
+      <c r="M142">
+        <v>1.9</v>
+      </c>
+      <c r="N142">
+        <v>3.5</v>
+      </c>
+      <c r="O142">
+        <v>3.6</v>
+      </c>
+      <c r="P142">
+        <v>1.909</v>
+      </c>
+      <c r="Q142">
+        <v>0.5</v>
+      </c>
+      <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
+        <v>1.925</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
+        <v>1.825</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>6859014</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45388.375</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" t="s">
+        <v>35</v>
+      </c>
+      <c r="K143">
+        <v>1.95</v>
+      </c>
+      <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
+        <v>3.5</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143">
+        <v>3.5</v>
+      </c>
+      <c r="P143">
+        <v>3.1</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>1.9</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>6859016</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45388.375</v>
+      </c>
+      <c r="F144" t="s">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>42</v>
+      </c>
+      <c r="K144">
+        <v>1.65</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>4.5</v>
+      </c>
+      <c r="N144">
+        <v>1.615</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.75</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
+        <v>1.85</v>
+      </c>
+      <c r="V144">
+        <v>1.95</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>6859018</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45388.375</v>
+      </c>
+      <c r="F145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" t="s">
+        <v>30</v>
+      </c>
+      <c r="K145">
+        <v>4.2</v>
+      </c>
+      <c r="L14